--- a/op-tiolan.xlsx
+++ b/op-tiolan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28755" windowHeight="12855"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tarombo Nababan" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="203">
   <si>
     <t>TOGA SIHOMBING</t>
   </si>
@@ -418,12 +418,6 @@
     <t>Op. Rikky</t>
   </si>
   <si>
-    <t>Op. Harry</t>
-  </si>
-  <si>
-    <t>Amani Harry</t>
-  </si>
-  <si>
     <t>br. Gultom</t>
   </si>
   <si>
@@ -625,7 +619,10 @@
     <t>Gumpal Tano</t>
   </si>
   <si>
-    <t>Amani Heneri</t>
+    <t>Op. Harri</t>
+  </si>
+  <si>
+    <t>Amani Harri</t>
   </si>
 </sst>
 </file>
@@ -911,66 +908,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,28 +915,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1099,6 +1015,87 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1399,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BD244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AR31" sqref="AR31"/>
+    <sheetView tabSelected="1" topLeftCell="S34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH53" sqref="AH53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1460,93 +1457,93 @@
       <c r="V2" s="6">
         <v>8</v>
       </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="56">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="29">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="2"/>
-      <c r="U3" s="66"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="66"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="39"/>
       <c r="AE3" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="2"/>
-      <c r="U4" s="67"/>
+      <c r="U4" s="40"/>
       <c r="V4" s="7"/>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="45"/>
-      <c r="AD4" s="78"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="51"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="1"/>
     </row>
     <row r="5" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
       <c r="E5" s="2"/>
-      <c r="U5" s="67"/>
+      <c r="U5" s="40"/>
       <c r="V5" s="6">
         <v>8</v>
       </c>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="56">
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="29">
         <v>11</v>
       </c>
       <c r="AF5" s="1"/>
-      <c r="AH5" s="56">
+      <c r="AH5" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="2"/>
-      <c r="U6" s="54"/>
+      <c r="U6" s="27"/>
       <c r="V6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="45"/>
-      <c r="AC6" s="45"/>
-      <c r="AD6" s="54"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="27"/>
       <c r="AE6" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF6" s="82"/>
-      <c r="AG6" s="66"/>
+        <v>155</v>
+      </c>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="39"/>
       <c r="AH6" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="2:38" ht="15.75" thickBot="1">
@@ -1554,75 +1551,75 @@
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="U7" s="67"/>
+      <c r="U7" s="40"/>
       <c r="V7" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AC7" s="45"/>
-      <c r="AD7" s="67"/>
+        <v>195</v>
+      </c>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="40"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="78"/>
+      <c r="AG7" s="51"/>
       <c r="AH7" s="7"/>
     </row>
     <row r="8" spans="2:38" ht="15.75" thickBot="1">
       <c r="B8" s="2"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="U8" s="67"/>
+      <c r="E8" s="79"/>
+      <c r="U8" s="40"/>
       <c r="V8" s="6">
         <v>8</v>
       </c>
       <c r="Y8" s="6">
         <v>9</v>
       </c>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
       <c r="AB8" s="6">
         <v>10</v>
       </c>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="67"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="40"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="56">
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:38" ht="15.75" thickBot="1">
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="U9" s="54"/>
+      <c r="E9" s="77"/>
+      <c r="U9" s="27"/>
       <c r="V9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="65"/>
-      <c r="X9" s="66"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="39"/>
       <c r="Y9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="66"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="39"/>
       <c r="AB9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="67"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="40"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="54"/>
+      <c r="AG9" s="27"/>
       <c r="AH9" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:38" ht="15.75" thickBot="1">
@@ -1630,58 +1627,58 @@
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="U10" s="67"/>
+      <c r="U10" s="40"/>
       <c r="V10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="AA10" s="78"/>
+      <c r="AA10" s="51"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="67"/>
+      <c r="AG10" s="40"/>
       <c r="AH10" s="7"/>
     </row>
     <row r="11" spans="2:38" ht="15.75" thickBot="1">
       <c r="B11" s="2"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="U11" s="67"/>
-      <c r="AA11" s="67"/>
+      <c r="E11" s="79"/>
+      <c r="U11" s="40"/>
+      <c r="AA11" s="40"/>
       <c r="AB11" s="6">
         <v>10</v>
       </c>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="56">
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:38" ht="15.75" thickBot="1">
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="U12" s="67"/>
-      <c r="AA12" s="54"/>
+      <c r="E12" s="77"/>
+      <c r="U12" s="40"/>
+      <c r="AA12" s="27"/>
       <c r="AB12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="67"/>
+      <c r="AG12" s="40"/>
       <c r="AH12" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="2:38" ht="15.75" thickBot="1">
@@ -1689,14 +1686,14 @@
       <c r="C13" s="8"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="U13" s="67"/>
-      <c r="AA13" s="45"/>
+      <c r="U13" s="40"/>
+      <c r="AA13" s="24"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="54"/>
+      <c r="AG13" s="27"/>
       <c r="AH13" s="9"/>
     </row>
     <row r="14" spans="2:38" ht="15.75" thickBot="1">
@@ -1706,23 +1703,23 @@
         <v>5</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AH14" s="55" t="s">
-        <v>143</v>
+      <c r="AH14" s="28" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:38" ht="21.75" thickBot="1">
       <c r="C15" s="9"/>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
         <v>2</v>
@@ -1750,24 +1747,24 @@
         <v>7</v>
       </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="45"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
       <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="2:38" ht="21.75" thickBot="1">
       <c r="C16" s="7"/>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="7"/>
       <c r="G16" s="10" t="s">
         <v>11</v>
@@ -1777,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="41" t="s">
+      <c r="K16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="4"/>
@@ -1786,7 +1783,7 @@
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="83" t="s">
+      <c r="P16" s="56" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -1796,28 +1793,28 @@
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="45"/>
+      <c r="V16" s="24"/>
       <c r="W16" s="11"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="45"/>
-      <c r="AC16" s="45"/>
-      <c r="AD16" s="45"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="45"/>
-      <c r="AL16" s="56">
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="24"/>
+      <c r="AL16" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="3:38" ht="18.75" customHeight="1" thickBot="1">
       <c r="C17" s="8"/>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1832,44 +1829,44 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N17" s="11"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="96" t="s">
-        <v>154</v>
+      <c r="P17" s="69" t="s">
+        <v>152</v>
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="5"/>
       <c r="S17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
-      <c r="V17" s="45"/>
+      <c r="V17" s="24"/>
       <c r="W17" s="11"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="45"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="66"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="43"/>
+      <c r="AG17" s="24"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="39"/>
       <c r="AL17" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="3:38" ht="16.5" customHeight="1" thickBot="1">
       <c r="C18" s="8"/>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1886,22 +1883,22 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="45"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="45"/>
-      <c r="AJ18" s="67"/>
-      <c r="AK18" s="45"/>
-      <c r="AL18" s="73" t="s">
-        <v>186</v>
+      <c r="V18" s="24"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="43"/>
+      <c r="AG18" s="24"/>
+      <c r="AJ18" s="40"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="46" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="3:38" ht="20.25" customHeight="1" thickBot="1">
@@ -1924,22 +1921,22 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="11"/>
-      <c r="V19" s="45"/>
+      <c r="V19" s="24"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="45"/>
-      <c r="AD19" s="45"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="45"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="57" t="s">
-        <v>187</v>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="24"/>
+      <c r="AJ19" s="40"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="3:38" ht="15.75" thickBot="1">
@@ -1962,30 +1959,30 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="45"/>
+      <c r="V20" s="24"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="45"/>
-      <c r="AJ20" s="67"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="56">
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="43"/>
+      <c r="AG20" s="24"/>
+      <c r="AJ20" s="40"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="29">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="3:38" ht="15.75" thickBot="1">
       <c r="C21" s="7"/>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2002,30 +1999,30 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="11"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="45"/>
-      <c r="AJ21" s="65"/>
-      <c r="AK21" s="66"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="43"/>
+      <c r="AG21" s="24"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="39"/>
       <c r="AL21" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="3:38" ht="15.75" thickBot="1">
       <c r="C22" s="11"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2042,21 +2039,21 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="11"/>
-      <c r="V22" s="45"/>
+      <c r="V22" s="24"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="45"/>
+      <c r="Y22" s="24"/>
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="45"/>
-      <c r="AJ22" s="67"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="74"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="24"/>
+      <c r="AJ22" s="40"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="47"/>
     </row>
     <row r="23" spans="3:38" ht="15.75" thickBot="1">
       <c r="C23" s="2"/>
@@ -2077,22 +2074,22 @@
       <c r="R23" s="8"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="45"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="24"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="42"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="22"/>
       <c r="AA23" s="11"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="45"/>
-      <c r="AJ23" s="67"/>
-      <c r="AK23" s="45"/>
-      <c r="AL23" s="56">
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="43"/>
+      <c r="AG23" s="24"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="29">
         <v>13</v>
       </c>
     </row>
@@ -2120,20 +2117,20 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="42"/>
+      <c r="Z24" s="22"/>
       <c r="AA24" s="11"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="45"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="56">
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="29">
         <v>11</v>
       </c>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="45"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="66"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="24"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="39"/>
       <c r="AL24" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="3:38" ht="15.75" thickBot="1">
@@ -2160,18 +2157,18 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="42"/>
+      <c r="Z25" s="22"/>
       <c r="AA25" s="11"/>
-      <c r="AB25" s="45"/>
-      <c r="AD25" s="66"/>
+      <c r="AB25" s="24"/>
+      <c r="AD25" s="39"/>
       <c r="AE25" s="10" t="s">
         <v>59</v>
       </c>
       <c r="AF25" s="1"/>
-      <c r="AH25" s="59"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="74"/>
+      <c r="AH25" s="32"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="24"/>
+      <c r="AL25" s="47"/>
     </row>
     <row r="26" spans="3:38" ht="15.75" thickBot="1">
       <c r="C26" s="2"/>
@@ -2199,13 +2196,13 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="74"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="47"/>
       <c r="AF26" s="1"/>
-      <c r="AH26" s="59"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="56">
+      <c r="AH26" s="32"/>
+      <c r="AJ26" s="40"/>
+      <c r="AK26" s="24"/>
+      <c r="AL26" s="29">
         <v>13</v>
       </c>
     </row>
@@ -2244,20 +2241,20 @@
       <c r="AB27" s="6">
         <v>10</v>
       </c>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="56">
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="29">
         <v>11</v>
       </c>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="45"/>
-      <c r="AH27" s="56">
+      <c r="AG27" s="24"/>
+      <c r="AH27" s="29">
         <v>12</v>
       </c>
-      <c r="AI27" s="45"/>
-      <c r="AJ27" s="67"/>
-      <c r="AK27" s="66"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="39"/>
       <c r="AL27" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="3:38" ht="15.75" thickBot="1">
@@ -2277,7 +2274,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="83" t="s">
+      <c r="S28" s="56" t="s">
         <v>31</v>
       </c>
       <c r="T28" s="14"/>
@@ -2295,20 +2292,20 @@
       <c r="AB28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="54"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="27"/>
       <c r="AE28" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="66"/>
-      <c r="AH28" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="67"/>
-      <c r="AL28" s="74"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="47"/>
     </row>
     <row r="29" spans="3:38" ht="15.75" thickBot="1">
       <c r="C29" s="2"/>
@@ -2327,33 +2324,33 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="20"/>
-      <c r="S29" s="84" t="s">
-        <v>139</v>
+      <c r="S29" s="57" t="s">
+        <v>137</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="74" t="s">
-        <v>155</v>
+      <c r="V29" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="W29" s="11"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="74" t="s">
-        <v>155</v>
+      <c r="Y29" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="74"/>
+      <c r="AB29" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="47"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="73" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="56">
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK29" s="40"/>
+      <c r="AL29" s="29">
         <v>13</v>
       </c>
     </row>
@@ -2374,8 +2371,8 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="85" t="s">
-        <v>140</v>
+      <c r="S30" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="8"/>
@@ -2388,16 +2385,16 @@
       <c r="AB30" s="6">
         <v>10</v>
       </c>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="56"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="29"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK30" s="54"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK30" s="27"/>
       <c r="AL30" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="3:38" ht="15.75" thickBot="1">
@@ -2417,17 +2414,17 @@
       <c r="AB31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD31" s="54"/>
+      <c r="AD31" s="27"/>
       <c r="AE31" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="56">
+        <v>177</v>
+      </c>
+      <c r="AF31" s="55"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="29">
         <v>12</v>
       </c>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="74"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="47"/>
     </row>
     <row r="32" spans="3:38" ht="15.75" thickBot="1">
       <c r="O32" s="8"/>
@@ -2444,18 +2441,18 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="7"/>
-      <c r="AE32" s="74" t="s">
+      <c r="AE32" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="27"/>
+      <c r="AH32" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI32" s="65"/>
-      <c r="AJ32" s="81"/>
-      <c r="AK32" s="67"/>
-      <c r="AL32" s="56">
+      <c r="AI32" s="38"/>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="40"/>
+      <c r="AL32" s="29">
         <v>13</v>
       </c>
     </row>
@@ -2478,20 +2475,20 @@
       <c r="AB33" s="11">
         <v>10</v>
       </c>
-      <c r="AE33" s="52">
+      <c r="AE33" s="25">
         <v>11</v>
       </c>
-      <c r="AF33" s="70"/>
-      <c r="AH33" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK33" s="54"/>
+      <c r="AF33" s="43"/>
+      <c r="AH33" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK33" s="27"/>
       <c r="AL33" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM33" s="45"/>
-      <c r="AN33" s="45"/>
-      <c r="AO33" s="45"/>
+        <v>191</v>
+      </c>
+      <c r="AM33" s="24"/>
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="24"/>
     </row>
     <row r="34" spans="15:44" ht="15.75" thickBot="1">
       <c r="O34" s="8"/>
@@ -2508,20 +2505,20 @@
         <v>36</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="64"/>
+      <c r="AA34" s="37"/>
       <c r="AB34" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF34" s="70"/>
-      <c r="AK34" s="67"/>
-      <c r="AL34" s="74"/>
-      <c r="AM34" s="45"/>
-      <c r="AN34" s="45"/>
-      <c r="AO34" s="45"/>
+        <v>159</v>
+      </c>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF34" s="43"/>
+      <c r="AK34" s="40"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="24"/>
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="24"/>
     </row>
     <row r="35" spans="15:44" ht="15.75" thickBot="1">
       <c r="O35" s="8"/>
@@ -2536,18 +2533,18 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="75"/>
+      <c r="AA35" s="48"/>
       <c r="AB35" s="7"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="55"/>
-      <c r="AF35" s="70"/>
-      <c r="AK35" s="67"/>
-      <c r="AL35" s="56">
+      <c r="AD35" s="40"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="43"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="29">
         <v>13</v>
       </c>
-      <c r="AM35" s="45"/>
-      <c r="AN35" s="45"/>
-      <c r="AO35" s="45"/>
+      <c r="AM35" s="24"/>
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="24"/>
     </row>
     <row r="36" spans="15:44" ht="15.75" thickBot="1">
       <c r="O36" s="8"/>
@@ -2564,25 +2561,25 @@
         <v>9</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="75"/>
+      <c r="AA36" s="48"/>
       <c r="AB36" s="11">
         <v>10</v>
       </c>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="52">
+      <c r="AD36" s="40"/>
+      <c r="AE36" s="25">
         <v>11</v>
       </c>
-      <c r="AF36" s="70"/>
-      <c r="AH36" s="56">
+      <c r="AF36" s="43"/>
+      <c r="AH36" s="29">
         <v>12</v>
       </c>
-      <c r="AK36" s="54"/>
+      <c r="AK36" s="27"/>
       <c r="AL36" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="AM36" s="45"/>
-      <c r="AN36" s="45"/>
-      <c r="AO36" s="45"/>
+        <v>192</v>
+      </c>
+      <c r="AM36" s="24"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="24"/>
     </row>
     <row r="37" spans="15:44" ht="15.75" thickBot="1">
       <c r="O37" s="8"/>
@@ -2599,27 +2596,27 @@
         <v>37</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="76"/>
+      <c r="AA37" s="49"/>
       <c r="AB37" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AC37" s="65"/>
-      <c r="AD37" s="54"/>
-      <c r="AE37" s="53" t="s">
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="27"/>
+      <c r="AE37" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF37" s="55"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="AF37" s="82"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI37" s="65"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="67"/>
-      <c r="AL37" s="74"/>
-      <c r="AM37" s="45"/>
-      <c r="AN37" s="45"/>
-      <c r="AO37" s="45"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="24"/>
+      <c r="AK37" s="40"/>
+      <c r="AL37" s="47"/>
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
     </row>
     <row r="38" spans="15:44" ht="15.75" thickBot="1">
       <c r="O38" s="8"/>
@@ -2634,20 +2631,20 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="75"/>
+      <c r="AA38" s="48"/>
       <c r="AB38" s="7"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="55"/>
-      <c r="AF38" s="70"/>
-      <c r="AH38" s="55"/>
-      <c r="AI38" s="45"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="56">
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="43"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="24"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="29">
         <v>13</v>
       </c>
-      <c r="AM38" s="45"/>
-      <c r="AN38" s="45"/>
+      <c r="AM38" s="24"/>
+      <c r="AN38" s="24"/>
     </row>
     <row r="39" spans="15:44" ht="15.75" thickBot="1">
       <c r="O39" s="8"/>
@@ -2664,24 +2661,24 @@
         <v>9</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="75"/>
+      <c r="AA39" s="48"/>
       <c r="AB39" s="11">
         <v>10</v>
       </c>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="52">
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="25">
         <v>11</v>
       </c>
-      <c r="AF39" s="52"/>
-      <c r="AI39" s="45"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="54"/>
+      <c r="AF39" s="25"/>
+      <c r="AI39" s="24"/>
+      <c r="AJ39" s="40"/>
+      <c r="AK39" s="27"/>
       <c r="AL39" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+        <v>193</v>
+      </c>
+      <c r="AM39" s="24"/>
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="24"/>
     </row>
     <row r="40" spans="15:44" ht="15.75" thickBot="1">
       <c r="O40" s="8"/>
@@ -2698,22 +2695,22 @@
         <v>38</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="76"/>
+      <c r="AA40" s="49"/>
       <c r="AB40" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF40" s="70"/>
-      <c r="AI40" s="45"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="45"/>
-      <c r="AL40" s="74"/>
-      <c r="AM40" s="45"/>
-      <c r="AN40" s="45"/>
-      <c r="AO40" s="56">
+        <v>160</v>
+      </c>
+      <c r="AD40" s="27"/>
+      <c r="AE40" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF40" s="43"/>
+      <c r="AI40" s="24"/>
+      <c r="AJ40" s="40"/>
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="47"/>
+      <c r="AM40" s="24"/>
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="29">
         <v>14</v>
       </c>
     </row>
@@ -2730,21 +2727,21 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="75"/>
+      <c r="AA41" s="48"/>
       <c r="AB41" s="7"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="70"/>
-      <c r="AI41" s="45"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="45"/>
-      <c r="AM41" s="45"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP41" s="45"/>
-      <c r="AQ41" s="45"/>
-      <c r="AR41" s="45"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="43"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="40"/>
+      <c r="AK41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="39"/>
+      <c r="AO41" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
     </row>
     <row r="42" spans="15:44" ht="15.75" thickBot="1">
       <c r="O42" s="8"/>
@@ -2759,24 +2756,24 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="75"/>
+      <c r="AA42" s="48"/>
       <c r="AB42" s="11">
         <v>10</v>
       </c>
-      <c r="AE42" s="52"/>
-      <c r="AF42" s="70"/>
-      <c r="AI42" s="45"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="45"/>
-      <c r="AL42" s="56">
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="43"/>
+      <c r="AI42" s="24"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="29">
         <v>13</v>
       </c>
-      <c r="AM42" s="45"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="55"/>
-      <c r="AP42" s="45"/>
-      <c r="AQ42" s="45"/>
-      <c r="AR42" s="45"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="40"/>
+      <c r="AO42" s="28"/>
+      <c r="AP42" s="24"/>
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="24"/>
     </row>
     <row r="43" spans="15:44" ht="15.75" thickBot="1">
       <c r="O43" s="8"/>
@@ -2795,26 +2792,26 @@
         <v>9</v>
       </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="76"/>
+      <c r="AA43" s="49"/>
       <c r="AB43" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE43" s="70"/>
-      <c r="AF43" s="70"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="65"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="AM43" s="54"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="56">
+        <v>161</v>
+      </c>
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43"/>
+      <c r="AI43" s="24"/>
+      <c r="AJ43" s="38"/>
+      <c r="AK43" s="39"/>
+      <c r="AL43" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="40"/>
+      <c r="AO43" s="29">
         <v>14</v>
       </c>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="45"/>
-      <c r="AR43" s="45"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="24"/>
     </row>
     <row r="44" spans="15:44" ht="15.75" thickBot="1">
       <c r="O44" s="8"/>
@@ -2824,7 +2821,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="83" t="s">
+      <c r="V44" s="56" t="s">
         <v>39</v>
       </c>
       <c r="W44" s="3"/>
@@ -2832,23 +2829,23 @@
       <c r="Y44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="75"/>
+      <c r="Z44" s="49"/>
+      <c r="AA44" s="48"/>
       <c r="AB44" s="7"/>
-      <c r="AE44" s="70"/>
-      <c r="AF44" s="70"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="54"/>
-      <c r="AO44" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="45"/>
-      <c r="AR44" s="45"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AI44" s="24"/>
+      <c r="AJ44" s="24"/>
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="27"/>
+      <c r="AO44" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="24"/>
     </row>
     <row r="45" spans="15:44" ht="15.75" thickBot="1">
       <c r="O45" s="8"/>
@@ -2858,30 +2855,30 @@
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="86" t="s">
-        <v>151</v>
+      <c r="V45" s="59" t="s">
+        <v>149</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="8"/>
       <c r="Y45" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="75"/>
+      <c r="AA45" s="48"/>
       <c r="AB45" s="6">
         <v>10</v>
       </c>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="70"/>
-      <c r="AF45" s="70"/>
-      <c r="AL45" s="45"/>
-      <c r="AM45" s="45"/>
-      <c r="AN45" s="45"/>
-      <c r="AO45" s="55"/>
-      <c r="AP45" s="45"/>
-      <c r="AQ45" s="45"/>
-      <c r="AR45" s="56">
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="29">
         <v>15</v>
       </c>
     </row>
@@ -2893,40 +2890,40 @@
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="87" t="s">
-        <v>153</v>
+      <c r="V46" s="60" t="s">
+        <v>151</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="76"/>
+      <c r="AA46" s="49"/>
       <c r="AB46" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="70"/>
-      <c r="AF46" s="70"/>
-      <c r="AG46" s="45"/>
-      <c r="AH46" s="52">
+        <v>172</v>
+      </c>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="43"/>
+      <c r="AF46" s="43"/>
+      <c r="AG46" s="24"/>
+      <c r="AH46" s="25">
         <v>12</v>
       </c>
-      <c r="AI46" s="45"/>
-      <c r="AJ46" s="45"/>
-      <c r="AK46" s="45"/>
-      <c r="AL46" s="56">
+      <c r="AI46" s="24"/>
+      <c r="AJ46" s="24"/>
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="29">
         <v>13</v>
       </c>
-      <c r="AM46" s="45"/>
-      <c r="AN46" s="45"/>
-      <c r="AO46" s="45"/>
-      <c r="AP46" s="45"/>
-      <c r="AQ46" s="66"/>
-      <c r="AR46" s="53" t="s">
-        <v>198</v>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="39"/>
+      <c r="AR46" s="26" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="15:44" ht="15.75" thickBot="1">
@@ -2944,28 +2941,28 @@
         <v>9</v>
       </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="42"/>
+      <c r="AA47" s="22"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="52"/>
-      <c r="AF47" s="52"/>
-      <c r="AG47" s="66"/>
-      <c r="AH47" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI47" s="65"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="66"/>
-      <c r="AL47" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM47" s="45"/>
-      <c r="AN47" s="45"/>
-      <c r="AO47" s="45"/>
-      <c r="AP47" s="45"/>
-      <c r="AQ47" s="67"/>
-      <c r="AR47" s="61" t="s">
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI47" s="38"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="34" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2980,27 +2977,27 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="83" t="s">
+      <c r="Y48" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="Z48" s="63"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AE48" s="45"/>
-      <c r="AF48" s="52"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="55"/>
-      <c r="AI48" s="52"/>
-      <c r="AJ48" s="52"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="55"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AP48" s="45"/>
-      <c r="AQ48" s="67"/>
-      <c r="AR48" s="62" t="s">
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="25"/>
+      <c r="AG48" s="40"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="25"/>
+      <c r="AJ48" s="25"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="40"/>
+      <c r="AR48" s="35" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3015,29 +3012,29 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="8"/>
-      <c r="Y49" s="85" t="s">
-        <v>151</v>
+      <c r="Y49" s="58" t="s">
+        <v>149</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="75"/>
-      <c r="AC49" s="45"/>
-      <c r="AD49" s="45"/>
-      <c r="AF49" s="52"/>
-      <c r="AG49" s="67"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="45"/>
-      <c r="AM49" s="45"/>
-      <c r="AN49" s="45"/>
-      <c r="AO49" s="56">
+      <c r="AA49" s="48"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AF49" s="25"/>
+      <c r="AG49" s="40"/>
+      <c r="AI49" s="25"/>
+      <c r="AJ49" s="25"/>
+      <c r="AK49" s="24"/>
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="29">
         <v>14</v>
       </c>
-      <c r="AP49" s="45"/>
-      <c r="AQ49" s="67"/>
-      <c r="AR49" s="56">
+      <c r="AP49" s="24"/>
+      <c r="AQ49" s="40"/>
+      <c r="AR49" s="29">
         <v>15</v>
       </c>
-      <c r="AU49" s="56"/>
+      <c r="AU49" s="29"/>
     </row>
     <row r="50" spans="15:56" ht="15.75" thickBot="1">
       <c r="O50" s="8"/>
@@ -3054,31 +3051,31 @@
         <v>9</v>
       </c>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="75"/>
+      <c r="AA50" s="48"/>
       <c r="AB50" s="6">
         <v>10</v>
       </c>
-      <c r="AC50" s="45"/>
-      <c r="AD50" s="45"/>
-      <c r="AE50" s="52">
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="25">
         <v>11</v>
       </c>
-      <c r="AF50" s="52"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="52"/>
-      <c r="AI50" s="52"/>
-      <c r="AJ50" s="52"/>
-      <c r="AK50" s="45"/>
-      <c r="AL50" s="52"/>
-      <c r="AM50" s="52"/>
-      <c r="AN50" s="66"/>
-      <c r="AO50" s="53" t="s">
+      <c r="AF50" s="25"/>
+      <c r="AG50" s="40"/>
+      <c r="AH50" s="25"/>
+      <c r="AI50" s="25"/>
+      <c r="AJ50" s="25"/>
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="25"/>
+      <c r="AM50" s="25"/>
+      <c r="AN50" s="39"/>
+      <c r="AO50" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="AP50" s="69"/>
-      <c r="AQ50" s="54"/>
-      <c r="AR50" s="53" t="s">
-        <v>199</v>
+      <c r="AP50" s="42"/>
+      <c r="AQ50" s="27"/>
+      <c r="AR50" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="15:56" ht="17.25" customHeight="1" thickBot="1">
@@ -3096,31 +3093,31 @@
         <v>43</v>
       </c>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="76"/>
+      <c r="AA51" s="49"/>
       <c r="AB51" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AC51" s="65"/>
-      <c r="AD51" s="66"/>
-      <c r="AE51" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="45"/>
-      <c r="AI51" s="45"/>
-      <c r="AJ51" s="45"/>
-      <c r="AK51" s="45"/>
-      <c r="AL51" s="45"/>
-      <c r="AM51" s="52"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP51" s="52"/>
-      <c r="AQ51" s="45"/>
-      <c r="AR51" s="57" t="s">
-        <v>136</v>
+      <c r="AC51" s="38"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF51" s="38"/>
+      <c r="AG51" s="40"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="24"/>
+      <c r="AJ51" s="24"/>
+      <c r="AK51" s="24"/>
+      <c r="AL51" s="24"/>
+      <c r="AM51" s="25"/>
+      <c r="AN51" s="40"/>
+      <c r="AO51" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP51" s="25"/>
+      <c r="AQ51" s="24"/>
+      <c r="AR51" s="30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="15:56" ht="15" customHeight="1" thickBot="1">
@@ -3134,29 +3131,29 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="80" t="s">
-        <v>152</v>
+      <c r="Y52" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="75"/>
+      <c r="AA52" s="48"/>
       <c r="AB52" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="AC52" s="45"/>
-      <c r="AD52" s="45"/>
-      <c r="AE52" s="55"/>
-      <c r="AF52" s="45"/>
-      <c r="AG52" s="45"/>
-      <c r="AH52" s="45"/>
-      <c r="AI52" s="45"/>
-      <c r="AJ52" s="45"/>
-      <c r="AK52" s="45"/>
-      <c r="AL52" s="45"/>
-      <c r="AM52" s="45"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="45"/>
-      <c r="AP52" s="58"/>
-      <c r="AQ52" s="45"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="24"/>
+      <c r="AG52" s="24"/>
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="24"/>
+      <c r="AJ52" s="24"/>
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="24"/>
+      <c r="AM52" s="24"/>
+      <c r="AN52" s="40"/>
+      <c r="AO52" s="24"/>
+      <c r="AP52" s="31"/>
+      <c r="AQ52" s="24"/>
     </row>
     <row r="53" spans="15:56" ht="15.75" thickBot="1">
       <c r="O53" s="8"/>
@@ -3171,27 +3168,27 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="19"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="75"/>
+      <c r="AA53" s="48"/>
       <c r="AB53" s="6">
         <v>10</v>
       </c>
-      <c r="AC53" s="45"/>
-      <c r="AD53" s="45"/>
-      <c r="AE53" s="52">
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="25">
         <v>11</v>
       </c>
-      <c r="AF53" s="70"/>
-      <c r="AG53" s="45"/>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="45"/>
-      <c r="AJ53" s="45"/>
-      <c r="AK53" s="45"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="45"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="45"/>
-      <c r="AP53" s="58"/>
-      <c r="AQ53" s="45"/>
+      <c r="AF53" s="43"/>
+      <c r="AG53" s="24"/>
+      <c r="AH53" s="25"/>
+      <c r="AI53" s="24"/>
+      <c r="AJ53" s="24"/>
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="25"/>
+      <c r="AM53" s="24"/>
+      <c r="AN53" s="40"/>
+      <c r="AO53" s="24"/>
+      <c r="AP53" s="31"/>
+      <c r="AQ53" s="24"/>
     </row>
     <row r="54" spans="15:56" ht="15.75" thickBot="1">
       <c r="O54" s="8"/>
@@ -3206,28 +3203,28 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="19"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="76"/>
+      <c r="AA54" s="49"/>
       <c r="AB54" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="AC54" s="65"/>
-      <c r="AD54" s="66"/>
-      <c r="AE54" s="53" t="s">
+      <c r="AC54" s="38"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="45"/>
-      <c r="AH54" s="52"/>
-      <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="45"/>
-      <c r="AL54" s="45"/>
-      <c r="AM54" s="45"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="52"/>
-      <c r="AP54" s="52"/>
-      <c r="AQ54" s="45"/>
-      <c r="AR54" s="52"/>
+      <c r="AF54" s="25"/>
+      <c r="AG54" s="24"/>
+      <c r="AH54" s="25"/>
+      <c r="AI54" s="25"/>
+      <c r="AJ54" s="25"/>
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="24"/>
+      <c r="AM54" s="24"/>
+      <c r="AN54" s="40"/>
+      <c r="AO54" s="25"/>
+      <c r="AP54" s="25"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="25"/>
     </row>
     <row r="55" spans="15:56" ht="15.75" thickBot="1">
       <c r="O55" s="8"/>
@@ -3244,26 +3241,26 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="77"/>
+      <c r="AA55" s="50"/>
       <c r="AB55" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="55"/>
-      <c r="AF55" s="52"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="70"/>
-      <c r="AJ55" s="70"/>
-      <c r="AK55" s="45"/>
-      <c r="AL55" s="45"/>
-      <c r="AM55" s="45"/>
-      <c r="AN55" s="67"/>
-      <c r="AO55" s="45"/>
-      <c r="AP55" s="52"/>
-      <c r="AQ55" s="45"/>
-      <c r="AR55" s="45"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="24"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="24"/>
+      <c r="AL55" s="24"/>
+      <c r="AM55" s="24"/>
+      <c r="AN55" s="40"/>
+      <c r="AO55" s="24"/>
+      <c r="AP55" s="25"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="24"/>
     </row>
     <row r="56" spans="15:56" ht="15.75" thickBot="1">
       <c r="O56" s="8"/>
@@ -3280,32 +3277,32 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="75"/>
-      <c r="AB56" s="52">
+      <c r="AA56" s="48"/>
+      <c r="AB56" s="25">
         <v>10</v>
       </c>
-      <c r="AC56" s="72"/>
-      <c r="AD56" s="45"/>
-      <c r="AE56" s="52">
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="25">
         <v>11</v>
       </c>
-      <c r="AF56" s="70"/>
-      <c r="AG56" s="45"/>
-      <c r="AH56" s="56">
+      <c r="AF56" s="43"/>
+      <c r="AG56" s="24"/>
+      <c r="AH56" s="29">
         <v>12</v>
       </c>
-      <c r="AI56" s="45"/>
-      <c r="AJ56" s="45"/>
-      <c r="AK56" s="45"/>
-      <c r="AL56" s="56">
+      <c r="AI56" s="24"/>
+      <c r="AJ56" s="24"/>
+      <c r="AK56" s="24"/>
+      <c r="AL56" s="29">
         <v>13</v>
       </c>
-      <c r="AM56" s="45"/>
-      <c r="AN56" s="67"/>
-      <c r="AO56" s="45"/>
-      <c r="AP56" s="45"/>
-      <c r="AQ56" s="45"/>
-      <c r="AR56" s="45"/>
+      <c r="AM56" s="24"/>
+      <c r="AN56" s="40"/>
+      <c r="AO56" s="24"/>
+      <c r="AP56" s="24"/>
+      <c r="AQ56" s="24"/>
+      <c r="AR56" s="24"/>
     </row>
     <row r="57" spans="15:56" ht="15.75" thickBot="1">
       <c r="O57" s="8"/>
@@ -3320,32 +3317,32 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="76"/>
-      <c r="AB57" s="83" t="s">
+      <c r="AA57" s="49"/>
+      <c r="AB57" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AC57" s="71"/>
-      <c r="AD57" s="66"/>
-      <c r="AE57" s="89" t="s">
+      <c r="AC57" s="44"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AF57" s="82"/>
-      <c r="AG57" s="66"/>
-      <c r="AH57" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI57" s="65"/>
-      <c r="AJ57" s="81"/>
-      <c r="AK57" s="66"/>
-      <c r="AL57" s="53" t="s">
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="39"/>
+      <c r="AH57" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI57" s="38"/>
+      <c r="AJ57" s="54"/>
+      <c r="AK57" s="39"/>
+      <c r="AL57" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="AM57" s="45"/>
-      <c r="AN57" s="67"/>
-      <c r="AO57" s="45"/>
-      <c r="AP57" s="45"/>
-      <c r="AQ57" s="45"/>
-      <c r="AR57" s="45"/>
+      <c r="AM57" s="24"/>
+      <c r="AN57" s="40"/>
+      <c r="AO57" s="24"/>
+      <c r="AP57" s="24"/>
+      <c r="AQ57" s="24"/>
+      <c r="AR57" s="24"/>
     </row>
     <row r="58" spans="15:56" ht="15.75" thickBot="1">
       <c r="O58" s="8"/>
@@ -3361,23 +3358,23 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-      <c r="AB58" s="88" t="s">
+      <c r="AB58" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="AC58" s="45"/>
-      <c r="AD58" s="45"/>
-      <c r="AE58" s="88"/>
-      <c r="AF58" s="70"/>
-      <c r="AH58" s="90"/>
-      <c r="AK58" s="67"/>
-      <c r="AL58" s="57" t="s">
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="61"/>
+      <c r="AF58" s="43"/>
+      <c r="AH58" s="63"/>
+      <c r="AK58" s="40"/>
+      <c r="AL58" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="AM58" s="45"/>
-      <c r="AN58" s="67"/>
-      <c r="AO58" s="45"/>
-      <c r="AP58" s="45"/>
-      <c r="AQ58" s="45"/>
+      <c r="AM58" s="24"/>
+      <c r="AN58" s="40"/>
+      <c r="AO58" s="24"/>
+      <c r="AP58" s="24"/>
+      <c r="AQ58" s="24"/>
       <c r="AR58" s="11"/>
     </row>
     <row r="59" spans="15:56">
@@ -3394,18 +3391,18 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="45"/>
-      <c r="AD59" s="45"/>
-      <c r="AE59" s="70"/>
-      <c r="AF59" s="70"/>
-      <c r="AK59" s="67"/>
-      <c r="AL59" s="58"/>
-      <c r="AM59" s="45"/>
-      <c r="AN59" s="67"/>
-      <c r="AO59" s="45"/>
-      <c r="AP59" s="45"/>
-      <c r="AQ59" s="45"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AK59" s="40"/>
+      <c r="AL59" s="31"/>
+      <c r="AM59" s="24"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="24"/>
+      <c r="AP59" s="24"/>
+      <c r="AQ59" s="24"/>
       <c r="AR59" s="11"/>
     </row>
     <row r="60" spans="15:56" ht="15.75" thickBot="1">
@@ -3425,23 +3422,22 @@
       <c r="AB60" s="2"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AK60" s="67"/>
-      <c r="AL60" s="56">
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="29">
         <v>13</v>
       </c>
-      <c r="AM60" s="45"/>
-      <c r="AN60" s="67"/>
-      <c r="AO60" s="56">
+      <c r="AM60" s="24"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="29">
         <v>14</v>
       </c>
-      <c r="AP60" s="45"/>
-      <c r="AQ60" s="45"/>
-      <c r="AR60" s="56">
-        <v>15</v>
-      </c>
-      <c r="AU60" s="56"/>
-      <c r="AX60" s="56"/>
-      <c r="BA60" s="56"/>
+      <c r="AP60" s="24"/>
+      <c r="AQ60" s="24"/>
+      <c r="AR60" s="25"/>
+      <c r="AS60" s="24"/>
+      <c r="AU60" s="29"/>
+      <c r="AX60" s="29"/>
+      <c r="BA60" s="29"/>
     </row>
     <row r="61" spans="15:56" ht="15.75" thickBot="1">
       <c r="O61" s="8"/>
@@ -3460,20 +3456,19 @@
       <c r="AB61" s="2"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="89" t="s">
+      <c r="AK61" s="27"/>
+      <c r="AL61" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="AM61" s="65"/>
-      <c r="AN61" s="54"/>
-      <c r="AO61" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP61" s="65"/>
-      <c r="AQ61" s="66"/>
-      <c r="AR61" s="53" t="s">
-        <v>203</v>
-      </c>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="27"/>
+      <c r="AO61" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP61" s="38"/>
+      <c r="AQ61" s="24"/>
+      <c r="AR61" s="25"/>
+      <c r="AS61" s="24"/>
       <c r="BD61" s="1"/>
     </row>
     <row r="62" spans="15:56" ht="15.75" thickBot="1">
@@ -3499,22 +3494,23 @@
       </c>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AK62" s="45"/>
-      <c r="AL62" s="91" t="s">
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AM62" s="45"/>
-      <c r="AN62" s="67"/>
-      <c r="AO62" s="91" t="s">
+      <c r="AM62" s="24"/>
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AQ62" s="67"/>
-      <c r="AR62" s="54"/>
-      <c r="AW62" s="66"/>
-      <c r="AX62" s="53" t="s">
+      <c r="AQ62" s="40"/>
+      <c r="AR62" s="24"/>
+      <c r="AS62" s="24"/>
+      <c r="AW62" s="39"/>
+      <c r="AX62" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="BA62" s="53" t="s">
+      <c r="BA62" s="26" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3541,26 +3537,26 @@
       </c>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="66"/>
+      <c r="AG63" s="39"/>
       <c r="AH63" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK63" s="45"/>
-      <c r="AM63" s="45"/>
-      <c r="AN63" s="67"/>
-      <c r="AO63" s="45"/>
-      <c r="AQ63" s="67"/>
-      <c r="AR63" s="56">
+        <v>164</v>
+      </c>
+      <c r="AK63" s="24"/>
+      <c r="AM63" s="24"/>
+      <c r="AN63" s="40"/>
+      <c r="AO63" s="24"/>
+      <c r="AQ63" s="40"/>
+      <c r="AR63" s="29">
         <v>15</v>
       </c>
-      <c r="AU63" s="56">
+      <c r="AU63" s="29">
         <v>16</v>
       </c>
-      <c r="AW63" s="67"/>
-      <c r="AX63" s="62" t="s">
+      <c r="AW63" s="40"/>
+      <c r="AX63" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BA63" s="54"/>
+      <c r="BA63" s="27"/>
     </row>
     <row r="64" spans="15:56" ht="15.75" thickBot="1">
       <c r="O64" s="8"/>
@@ -3579,24 +3575,24 @@
       <c r="AB64" s="7"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="67"/>
+      <c r="AG64" s="40"/>
       <c r="AH64" s="7"/>
-      <c r="AK64" s="45"/>
-      <c r="AM64" s="45"/>
-      <c r="AN64" s="67"/>
-      <c r="AO64" s="45"/>
-      <c r="AQ64" s="54"/>
-      <c r="AR64" s="89" t="s">
+      <c r="AK64" s="24"/>
+      <c r="AM64" s="24"/>
+      <c r="AN64" s="40"/>
+      <c r="AO64" s="24"/>
+      <c r="AQ64" s="27"/>
+      <c r="AR64" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="AS64" s="65"/>
-      <c r="AT64" s="66"/>
-      <c r="AU64" s="89" t="s">
+      <c r="AS64" s="38"/>
+      <c r="AT64" s="39"/>
+      <c r="AU64" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="AV64" s="54"/>
-      <c r="AW64" s="67"/>
-      <c r="AX64" s="52"/>
+      <c r="AV64" s="27"/>
+      <c r="AW64" s="40"/>
+      <c r="AX64" s="25"/>
     </row>
     <row r="65" spans="15:50" ht="15.75" thickBot="1">
       <c r="O65" s="8"/>
@@ -3617,21 +3613,21 @@
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="67"/>
-      <c r="AK65" s="45"/>
-      <c r="AL65" s="45"/>
-      <c r="AM65" s="45"/>
-      <c r="AN65" s="67"/>
-      <c r="AO65" s="45"/>
-      <c r="AQ65" s="67"/>
-      <c r="AR65" s="92" t="s">
+      <c r="AG65" s="40"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="24"/>
+      <c r="AN65" s="40"/>
+      <c r="AO65" s="24"/>
+      <c r="AQ65" s="40"/>
+      <c r="AR65" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="AT65" s="67"/>
-      <c r="AU65" s="94" t="s">
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="AW65" s="67"/>
+      <c r="AW65" s="40"/>
     </row>
     <row r="66" spans="15:50" ht="15.75" thickBot="1">
       <c r="O66" s="8"/>
@@ -3652,24 +3648,24 @@
       </c>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
-      <c r="AG66" s="54"/>
+      <c r="AG66" s="27"/>
       <c r="AH66" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK66" s="45"/>
-      <c r="AL66" s="45"/>
-      <c r="AM66" s="45"/>
-      <c r="AN66" s="67"/>
-      <c r="AO66" s="45"/>
-      <c r="AQ66" s="67"/>
-      <c r="AR66" s="93"/>
-      <c r="AT66" s="67"/>
-      <c r="AU66" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="24"/>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="24"/>
+      <c r="AQ66" s="40"/>
+      <c r="AR66" s="66"/>
+      <c r="AT66" s="40"/>
+      <c r="AU66" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="AW66" s="54"/>
-      <c r="AX66" s="53" t="s">
-        <v>147</v>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="15:50" ht="15.75" thickBot="1">
@@ -3689,22 +3685,22 @@
       <c r="AB67" s="7"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="67"/>
+      <c r="AG67" s="40"/>
       <c r="AH67" s="7"/>
-      <c r="AL67" s="45"/>
-      <c r="AM67" s="45"/>
-      <c r="AN67" s="67"/>
-      <c r="AO67" s="45"/>
-      <c r="AQ67" s="67"/>
-      <c r="AR67" s="56">
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="40"/>
+      <c r="AO67" s="24"/>
+      <c r="AQ67" s="40"/>
+      <c r="AR67" s="29">
         <v>15</v>
       </c>
-      <c r="AT67" s="67"/>
-      <c r="AU67" s="56">
+      <c r="AT67" s="40"/>
+      <c r="AU67" s="29">
         <v>16</v>
       </c>
-      <c r="AW67" s="67"/>
-      <c r="AX67" s="54"/>
+      <c r="AW67" s="40"/>
+      <c r="AX67" s="27"/>
     </row>
     <row r="68" spans="15:50" ht="15.75" thickBot="1">
       <c r="O68" s="8"/>
@@ -3723,23 +3719,23 @@
       <c r="AB68" s="6">
         <v>10</v>
       </c>
-      <c r="AE68" s="52">
+      <c r="AE68" s="25">
         <v>11</v>
       </c>
-      <c r="AF68" s="70"/>
-      <c r="AG68" s="67"/>
-      <c r="AL68" s="45"/>
-      <c r="AM68" s="45"/>
-      <c r="AN68" s="67"/>
-      <c r="AQ68" s="54"/>
-      <c r="AR68" s="53" t="s">
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="40"/>
+      <c r="AL68" s="24"/>
+      <c r="AM68" s="24"/>
+      <c r="AN68" s="40"/>
+      <c r="AQ68" s="27"/>
+      <c r="AR68" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AT68" s="54"/>
-      <c r="AU68" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW68" s="67"/>
+      <c r="AT68" s="27"/>
+      <c r="AU68" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW68" s="40"/>
     </row>
     <row r="69" spans="15:50" ht="15.75" thickBot="1">
       <c r="O69" s="8"/>
@@ -3758,25 +3754,25 @@
       <c r="AB69" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AC69" s="65"/>
-      <c r="AD69" s="66"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="39"/>
       <c r="AE69" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF69" s="82"/>
-      <c r="AG69" s="54"/>
+        <v>156</v>
+      </c>
+      <c r="AF69" s="55"/>
+      <c r="AG69" s="27"/>
       <c r="AH69" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN69" s="67"/>
-      <c r="AR69" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN69" s="40"/>
+      <c r="AR69" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="AT69" s="67"/>
-      <c r="AU69" s="62"/>
-      <c r="AW69" s="54"/>
-      <c r="AX69" s="79" t="s">
-        <v>148</v>
+      <c r="AT69" s="40"/>
+      <c r="AU69" s="35"/>
+      <c r="AW69" s="27"/>
+      <c r="AX69" s="52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="15:50" ht="15.75" thickBot="1">
@@ -3794,20 +3790,20 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="7"/>
-      <c r="AD70" s="78"/>
+      <c r="AD70" s="51"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="1"/>
       <c r="AH70" s="7"/>
-      <c r="AN70" s="67"/>
-      <c r="AR70" s="55" t="s">
+      <c r="AN70" s="40"/>
+      <c r="AR70" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="AT70" s="67"/>
-      <c r="AU70" s="56">
+      <c r="AT70" s="40"/>
+      <c r="AU70" s="29">
         <v>16</v>
       </c>
-      <c r="AX70" s="57" t="s">
-        <v>149</v>
+      <c r="AX70" s="30" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="15:50" ht="15.75" thickBot="1">
@@ -3829,15 +3825,15 @@
       <c r="AB71" s="6">
         <v>10</v>
       </c>
-      <c r="AD71" s="67"/>
-      <c r="AE71" s="56">
+      <c r="AD71" s="40"/>
+      <c r="AE71" s="29">
         <v>11</v>
       </c>
       <c r="AF71" s="1"/>
-      <c r="AN71" s="67"/>
-      <c r="AT71" s="54"/>
-      <c r="AU71" s="53" t="s">
-        <v>201</v>
+      <c r="AN71" s="40"/>
+      <c r="AT71" s="27"/>
+      <c r="AU71" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="15:50" ht="15.75" thickBot="1">
@@ -3859,14 +3855,14 @@
       <c r="AB72" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AD72" s="54"/>
+      <c r="AD72" s="27"/>
       <c r="AE72" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AF72" s="1"/>
-      <c r="AN72" s="67"/>
-      <c r="AO72" s="56"/>
-      <c r="AU72" s="62"/>
+      <c r="AN72" s="40"/>
+      <c r="AO72" s="29"/>
+      <c r="AU72" s="35"/>
     </row>
     <row r="73" spans="15:50" ht="15.75" thickBot="1">
       <c r="O73" s="8"/>
@@ -3883,19 +3879,19 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="7"/>
-      <c r="AD73" s="67"/>
+      <c r="AD73" s="40"/>
       <c r="AE73" s="7"/>
       <c r="AF73" s="1"/>
-      <c r="AN73" s="54"/>
-      <c r="AO73" s="53" t="s">
+      <c r="AN73" s="27"/>
+      <c r="AO73" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AP73" s="65"/>
-      <c r="AQ73" s="66"/>
-      <c r="AR73" s="53" t="s">
+      <c r="AP73" s="38"/>
+      <c r="AQ73" s="39"/>
+      <c r="AR73" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AU73" s="68"/>
+      <c r="AU73" s="41"/>
     </row>
     <row r="74" spans="15:50" ht="15.75" thickBot="1">
       <c r="O74" s="8"/>
@@ -3914,17 +3910,17 @@
       <c r="AB74" s="6">
         <v>10</v>
       </c>
-      <c r="AD74" s="67"/>
-      <c r="AE74" s="56">
+      <c r="AD74" s="40"/>
+      <c r="AE74" s="29">
         <v>11</v>
       </c>
       <c r="AF74" s="1"/>
-      <c r="AN74" s="45"/>
-      <c r="AO74" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR74" s="54"/>
-      <c r="AU74" s="68"/>
+      <c r="AN74" s="24"/>
+      <c r="AO74" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR74" s="27"/>
+      <c r="AU74" s="41"/>
     </row>
     <row r="75" spans="15:50" ht="15.75" thickBot="1">
       <c r="O75" s="8"/>
@@ -3943,12 +3939,12 @@
       <c r="AB75" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AD75" s="54"/>
+      <c r="AD75" s="27"/>
       <c r="AE75" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF75" s="1"/>
-      <c r="AO75" s="58"/>
+      <c r="AO75" s="31"/>
     </row>
     <row r="76" spans="15:50" ht="15.75" thickBot="1">
       <c r="O76" s="8"/>
@@ -3967,10 +3963,10 @@
       <c r="AB76" s="7"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="1"/>
-      <c r="AR76" s="45"/>
-      <c r="AS76" s="45"/>
-      <c r="AT76" s="45"/>
-      <c r="AU76" s="45"/>
+      <c r="AR76" s="24"/>
+      <c r="AS76" s="24"/>
+      <c r="AT76" s="24"/>
+      <c r="AU76" s="24"/>
     </row>
     <row r="77" spans="15:50" ht="15.75" thickBot="1">
       <c r="O77" s="8"/>
@@ -3991,10 +3987,10 @@
       <c r="AB77" s="2"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AR77" s="45"/>
-      <c r="AS77" s="45"/>
-      <c r="AT77" s="45"/>
-      <c r="AU77" s="45"/>
+      <c r="AR77" s="24"/>
+      <c r="AS77" s="24"/>
+      <c r="AT77" s="24"/>
+      <c r="AU77" s="24"/>
     </row>
     <row r="78" spans="15:50" ht="15.75" thickBot="1">
       <c r="O78" s="8"/>
@@ -4008,17 +4004,17 @@
       <c r="W78" s="2"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AR78" s="45"/>
-      <c r="AS78" s="45"/>
-      <c r="AT78" s="45"/>
-      <c r="AU78" s="45"/>
+      <c r="AR78" s="24"/>
+      <c r="AS78" s="24"/>
+      <c r="AT78" s="24"/>
+      <c r="AU78" s="24"/>
     </row>
     <row r="79" spans="15:50">
       <c r="O79" s="8"/>
@@ -4032,17 +4028,17 @@
       <c r="W79" s="2"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AR79" s="45"/>
-      <c r="AS79" s="45"/>
-      <c r="AT79" s="45"/>
-      <c r="AU79" s="45"/>
+      <c r="AR79" s="24"/>
+      <c r="AS79" s="24"/>
+      <c r="AT79" s="24"/>
+      <c r="AU79" s="24"/>
     </row>
     <row r="80" spans="15:50" ht="15.75" thickBot="1">
       <c r="O80" s="8"/>
@@ -4056,17 +4052,17 @@
       <c r="W80" s="2"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
-      <c r="AR80" s="45"/>
-      <c r="AS80" s="45"/>
-      <c r="AT80" s="45"/>
-      <c r="AU80" s="45"/>
+      <c r="AR80" s="24"/>
+      <c r="AS80" s="24"/>
+      <c r="AT80" s="24"/>
+      <c r="AU80" s="24"/>
     </row>
     <row r="81" spans="15:53" ht="15.75" thickBot="1">
       <c r="O81" s="8"/>
@@ -4079,19 +4075,19 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="8"/>
-      <c r="Y81" s="45"/>
+      <c r="Y81" s="24"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
-      <c r="AR81" s="45"/>
-      <c r="AS81" s="45"/>
-      <c r="AT81" s="45"/>
-      <c r="AU81" s="45"/>
-      <c r="AV81" s="81"/>
-      <c r="AW81" s="66"/>
-      <c r="AX81" s="53" t="s">
+      <c r="AR81" s="24"/>
+      <c r="AS81" s="24"/>
+      <c r="AT81" s="24"/>
+      <c r="AU81" s="24"/>
+      <c r="AV81" s="54"/>
+      <c r="AW81" s="39"/>
+      <c r="AX81" s="26" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4105,18 +4101,18 @@
       <c r="U82" s="8"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="75"/>
-      <c r="Y82" s="45"/>
+      <c r="X82" s="48"/>
+      <c r="Y82" s="24"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
-      <c r="AR82" s="45"/>
-      <c r="AS82" s="45"/>
-      <c r="AT82" s="45"/>
-      <c r="AU82" s="45"/>
-      <c r="AX82" s="54"/>
+      <c r="AR82" s="24"/>
+      <c r="AS82" s="24"/>
+      <c r="AT82" s="24"/>
+      <c r="AU82" s="24"/>
+      <c r="AX82" s="27"/>
     </row>
     <row r="83" spans="15:53" ht="15.75" thickBot="1">
       <c r="O83" s="8"/>
@@ -4128,7 +4124,7 @@
       <c r="U83" s="8"/>
       <c r="V83" s="11"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="75"/>
+      <c r="X83" s="48"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
@@ -4146,20 +4142,20 @@
       <c r="U84" s="8"/>
       <c r="V84" s="11"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="76"/>
+      <c r="X84" s="49"/>
       <c r="Y84" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
-      <c r="AX84" s="53" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA84" s="53" t="s">
-        <v>135</v>
+      <c r="AX84" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA84" s="26" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="15:53" ht="15.75" thickBot="1">
@@ -4183,8 +4179,8 @@
       <c r="AB85" s="2"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AX85" s="54"/>
-      <c r="BA85" s="54"/>
+      <c r="AX85" s="27"/>
+      <c r="BA85" s="27"/>
     </row>
     <row r="86" spans="15:53" ht="15.75" thickBot="1">
       <c r="O86" s="8"/>
@@ -4371,7 +4367,7 @@
       </c>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AO94" s="52"/>
+      <c r="AO94" s="25"/>
     </row>
     <row r="95" spans="15:53" ht="15.75" thickBot="1">
       <c r="O95" s="11"/>
@@ -4399,7 +4395,7 @@
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="2"/>
-      <c r="AO95" s="58"/>
+      <c r="AO95" s="31"/>
     </row>
     <row r="96" spans="15:53" ht="15.75" thickBot="1">
       <c r="O96" s="2"/>
@@ -4427,7 +4423,7 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="2"/>
-      <c r="AO96" s="58"/>
+      <c r="AO96" s="31"/>
     </row>
     <row r="97" spans="15:33" ht="15.75" thickBot="1">
       <c r="O97" s="2"/>
@@ -4738,10 +4734,10 @@
       </c>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
-      <c r="AB110" s="32" t="s">
+      <c r="AB110" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="AC110" s="33"/>
+      <c r="AC110" s="79"/>
       <c r="AD110" s="2"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
@@ -4760,10 +4756,10 @@
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="4"/>
-      <c r="AB111" s="46" t="s">
+      <c r="AB111" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="AC111" s="51"/>
+      <c r="AC111" s="83"/>
       <c r="AD111" s="11"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
@@ -4780,10 +4776,10 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="47" t="s">
+      <c r="AB112" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="AC112" s="48"/>
+      <c r="AC112" s="85"/>
       <c r="AD112" s="11"/>
       <c r="AE112" s="11"/>
       <c r="AF112" s="11"/>
@@ -4800,13 +4796,13 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="8"/>
-      <c r="AB113" s="49" t="s">
+      <c r="AB113" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="AC113" s="50"/>
+      <c r="AC113" s="87"/>
       <c r="AD113" s="11"/>
-      <c r="AE113" s="42"/>
-      <c r="AF113" s="42"/>
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
       <c r="AG113" s="11"/>
     </row>
     <row r="114" spans="18:33">
@@ -4823,8 +4819,8 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="11"/>
-      <c r="AE114" s="42"/>
-      <c r="AF114" s="42"/>
+      <c r="AE114" s="22"/>
+      <c r="AF114" s="22"/>
       <c r="AG114" s="11"/>
     </row>
     <row r="115" spans="18:33">
@@ -4841,9 +4837,9 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="11"/>
-      <c r="AE115" s="42"/>
-      <c r="AF115" s="42"/>
-      <c r="AG115" s="42"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
     </row>
     <row r="116" spans="18:33">
       <c r="R116" s="8"/>
@@ -4861,7 +4857,7 @@
       <c r="AD116" s="11"/>
       <c r="AE116" s="11"/>
       <c r="AF116" s="11"/>
-      <c r="AG116" s="42"/>
+      <c r="AG116" s="22"/>
     </row>
     <row r="117" spans="18:33">
       <c r="R117" s="8"/>
@@ -4913,8 +4909,8 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="11"/>
-      <c r="AE119" s="42"/>
-      <c r="AF119" s="42"/>
+      <c r="AE119" s="22"/>
+      <c r="AF119" s="22"/>
       <c r="AG119" s="11"/>
     </row>
     <row r="120" spans="18:33">
@@ -4931,8 +4927,8 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
       <c r="AD120" s="11"/>
-      <c r="AE120" s="42"/>
-      <c r="AF120" s="42"/>
+      <c r="AE120" s="22"/>
+      <c r="AF120" s="22"/>
       <c r="AG120" s="11"/>
     </row>
     <row r="121" spans="18:33">
@@ -4949,8 +4945,8 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="11"/>
-      <c r="AE121" s="42"/>
-      <c r="AF121" s="42"/>
+      <c r="AE121" s="22"/>
+      <c r="AF121" s="22"/>
       <c r="AG121" s="11"/>
     </row>
     <row r="122" spans="18:33">
@@ -4967,8 +4963,8 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
       <c r="AD122" s="11"/>
-      <c r="AE122" s="42"/>
-      <c r="AF122" s="42"/>
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
       <c r="AG122" s="11"/>
     </row>
     <row r="123" spans="18:33">
@@ -4985,8 +4981,8 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
       <c r="AD123" s="11"/>
-      <c r="AE123" s="42"/>
-      <c r="AF123" s="42"/>
+      <c r="AE123" s="22"/>
+      <c r="AF123" s="22"/>
       <c r="AG123" s="11"/>
     </row>
     <row r="124" spans="18:33">
@@ -5003,9 +4999,9 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
       <c r="AD124" s="11"/>
-      <c r="AE124" s="42"/>
-      <c r="AF124" s="42"/>
-      <c r="AG124" s="42"/>
+      <c r="AE124" s="22"/>
+      <c r="AF124" s="22"/>
+      <c r="AG124" s="22"/>
     </row>
     <row r="125" spans="18:33">
       <c r="R125" s="8"/>
@@ -5023,7 +5019,7 @@
       <c r="AD125" s="11"/>
       <c r="AE125" s="11"/>
       <c r="AF125" s="11"/>
-      <c r="AG125" s="42"/>
+      <c r="AG125" s="22"/>
     </row>
     <row r="126" spans="18:33">
       <c r="R126" s="8"/>
@@ -5075,8 +5071,8 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="11"/>
-      <c r="AE128" s="42"/>
-      <c r="AF128" s="42"/>
+      <c r="AE128" s="22"/>
+      <c r="AF128" s="22"/>
       <c r="AG128" s="11"/>
     </row>
     <row r="129" spans="18:33">
@@ -5093,8 +5089,8 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
       <c r="AD129" s="11"/>
-      <c r="AE129" s="42"/>
-      <c r="AF129" s="42"/>
+      <c r="AE129" s="22"/>
+      <c r="AF129" s="22"/>
       <c r="AG129" s="11"/>
     </row>
     <row r="130" spans="18:33">
@@ -5111,9 +5107,9 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="11"/>
-      <c r="AE130" s="42"/>
-      <c r="AF130" s="42"/>
-      <c r="AG130" s="42"/>
+      <c r="AE130" s="22"/>
+      <c r="AF130" s="22"/>
+      <c r="AG130" s="22"/>
     </row>
     <row r="131" spans="18:33">
       <c r="R131" s="8"/>
@@ -5131,7 +5127,7 @@
       <c r="AD131" s="11"/>
       <c r="AE131" s="11"/>
       <c r="AF131" s="11"/>
-      <c r="AG131" s="42"/>
+      <c r="AG131" s="22"/>
     </row>
     <row r="132" spans="18:33">
       <c r="R132" s="8"/>
@@ -5149,7 +5145,7 @@
       <c r="AD132" s="11"/>
       <c r="AE132" s="11"/>
       <c r="AF132" s="11"/>
-      <c r="AG132" s="42"/>
+      <c r="AG132" s="22"/>
     </row>
     <row r="133" spans="18:33">
       <c r="R133" s="8"/>
@@ -5167,7 +5163,7 @@
       <c r="AD133" s="11"/>
       <c r="AE133" s="11"/>
       <c r="AF133" s="11"/>
-      <c r="AG133" s="42"/>
+      <c r="AG133" s="22"/>
     </row>
     <row r="134" spans="18:33">
       <c r="R134" s="8"/>
@@ -5185,7 +5181,7 @@
       <c r="AD134" s="11"/>
       <c r="AE134" s="11"/>
       <c r="AF134" s="11"/>
-      <c r="AG134" s="42"/>
+      <c r="AG134" s="22"/>
     </row>
     <row r="135" spans="18:33">
       <c r="R135" s="8"/>
@@ -5203,7 +5199,7 @@
       <c r="AD135" s="11"/>
       <c r="AE135" s="11"/>
       <c r="AF135" s="11"/>
-      <c r="AG135" s="42"/>
+      <c r="AG135" s="22"/>
     </row>
     <row r="136" spans="18:33">
       <c r="R136" s="8"/>
@@ -5219,9 +5215,9 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
       <c r="AD136" s="11"/>
-      <c r="AE136" s="43"/>
-      <c r="AF136" s="43"/>
-      <c r="AG136" s="42"/>
+      <c r="AE136" s="23"/>
+      <c r="AF136" s="23"/>
+      <c r="AG136" s="22"/>
     </row>
     <row r="137" spans="18:33">
       <c r="R137" s="8"/>
@@ -5237,9 +5233,9 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="11"/>
-      <c r="AE137" s="44"/>
-      <c r="AF137" s="44"/>
-      <c r="AG137" s="44"/>
+      <c r="AE137" s="71"/>
+      <c r="AF137" s="71"/>
+      <c r="AG137" s="71"/>
     </row>
     <row r="138" spans="18:33">
       <c r="R138" s="8"/>
@@ -5257,7 +5253,7 @@
       <c r="AD138" s="11"/>
       <c r="AE138" s="11"/>
       <c r="AF138" s="11"/>
-      <c r="AG138" s="42"/>
+      <c r="AG138" s="22"/>
     </row>
     <row r="139" spans="18:33">
       <c r="R139" s="8"/>
@@ -5275,7 +5271,7 @@
       <c r="AD139" s="11"/>
       <c r="AE139" s="11"/>
       <c r="AF139" s="11"/>
-      <c r="AG139" s="42"/>
+      <c r="AG139" s="22"/>
     </row>
     <row r="140" spans="18:33">
       <c r="R140" s="8"/>
@@ -5309,8 +5305,8 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
       <c r="AD141" s="11"/>
-      <c r="AE141" s="42"/>
-      <c r="AF141" s="42"/>
+      <c r="AE141" s="22"/>
+      <c r="AF141" s="22"/>
       <c r="AG141" s="11"/>
     </row>
     <row r="142" spans="18:33">
@@ -5327,8 +5323,8 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
       <c r="AD142" s="11"/>
-      <c r="AE142" s="42"/>
-      <c r="AF142" s="42"/>
+      <c r="AE142" s="22"/>
+      <c r="AF142" s="22"/>
       <c r="AG142" s="11"/>
     </row>
     <row r="143" spans="18:33">
@@ -5345,8 +5341,8 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
       <c r="AD143" s="11"/>
-      <c r="AE143" s="42"/>
-      <c r="AF143" s="42"/>
+      <c r="AE143" s="22"/>
+      <c r="AF143" s="22"/>
       <c r="AG143" s="11"/>
     </row>
     <row r="144" spans="18:33">
@@ -5363,8 +5359,8 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
       <c r="AD144" s="11"/>
-      <c r="AE144" s="42"/>
-      <c r="AF144" s="42"/>
+      <c r="AE144" s="22"/>
+      <c r="AF144" s="22"/>
       <c r="AG144" s="11"/>
     </row>
     <row r="145" spans="18:33">
@@ -5381,8 +5377,8 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
       <c r="AD145" s="11"/>
-      <c r="AE145" s="42"/>
-      <c r="AF145" s="42"/>
+      <c r="AE145" s="22"/>
+      <c r="AF145" s="22"/>
       <c r="AG145" s="11"/>
     </row>
     <row r="146" spans="18:33">
@@ -5399,9 +5395,9 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="11"/>
-      <c r="AE146" s="42"/>
-      <c r="AF146" s="42"/>
-      <c r="AG146" s="42"/>
+      <c r="AE146" s="22"/>
+      <c r="AF146" s="22"/>
+      <c r="AG146" s="22"/>
     </row>
     <row r="147" spans="18:33">
       <c r="R147" s="8"/>
@@ -5419,7 +5415,7 @@
       <c r="AD147" s="11"/>
       <c r="AE147" s="11"/>
       <c r="AF147" s="11"/>
-      <c r="AG147" s="42"/>
+      <c r="AG147" s="22"/>
     </row>
     <row r="148" spans="18:33">
       <c r="R148" s="8"/>
@@ -5437,7 +5433,7 @@
       <c r="AD148" s="11"/>
       <c r="AE148" s="11"/>
       <c r="AF148" s="11"/>
-      <c r="AG148" s="42"/>
+      <c r="AG148" s="22"/>
     </row>
     <row r="149" spans="18:33">
       <c r="R149" s="8"/>
@@ -5455,7 +5451,7 @@
       <c r="AD149" s="11"/>
       <c r="AE149" s="11"/>
       <c r="AF149" s="11"/>
-      <c r="AG149" s="42"/>
+      <c r="AG149" s="22"/>
     </row>
     <row r="150" spans="18:33">
       <c r="R150" s="8"/>
@@ -5473,7 +5469,7 @@
       <c r="AD150" s="11"/>
       <c r="AE150" s="11"/>
       <c r="AF150" s="11"/>
-      <c r="AG150" s="42"/>
+      <c r="AG150" s="22"/>
     </row>
     <row r="151" spans="18:33">
       <c r="R151" s="8"/>
@@ -5491,7 +5487,7 @@
       <c r="AD151" s="11"/>
       <c r="AE151" s="11"/>
       <c r="AF151" s="11"/>
-      <c r="AG151" s="42"/>
+      <c r="AG151" s="22"/>
     </row>
     <row r="152" spans="18:33">
       <c r="R152" s="8"/>
@@ -5509,7 +5505,7 @@
       <c r="AD152" s="11"/>
       <c r="AE152" s="11"/>
       <c r="AF152" s="11"/>
-      <c r="AG152" s="42"/>
+      <c r="AG152" s="22"/>
     </row>
     <row r="153" spans="18:33">
       <c r="R153" s="8"/>
@@ -5527,7 +5523,7 @@
       <c r="AD153" s="11"/>
       <c r="AE153" s="11"/>
       <c r="AF153" s="11"/>
-      <c r="AG153" s="42"/>
+      <c r="AG153" s="22"/>
     </row>
     <row r="154" spans="18:33">
       <c r="R154" s="8"/>
@@ -5545,7 +5541,7 @@
       <c r="AD154" s="11"/>
       <c r="AE154" s="11"/>
       <c r="AF154" s="11"/>
-      <c r="AG154" s="42"/>
+      <c r="AG154" s="22"/>
     </row>
     <row r="155" spans="18:33">
       <c r="R155" s="8"/>
@@ -5563,7 +5559,7 @@
       <c r="AD155" s="11"/>
       <c r="AE155" s="11"/>
       <c r="AF155" s="11"/>
-      <c r="AG155" s="42"/>
+      <c r="AG155" s="22"/>
     </row>
     <row r="156" spans="18:33">
       <c r="R156" s="8"/>
@@ -5581,7 +5577,7 @@
       <c r="AD156" s="11"/>
       <c r="AE156" s="11"/>
       <c r="AF156" s="11"/>
-      <c r="AG156" s="42"/>
+      <c r="AG156" s="22"/>
     </row>
     <row r="157" spans="18:33">
       <c r="R157" s="8"/>
@@ -5599,7 +5595,7 @@
       <c r="AD157" s="11"/>
       <c r="AE157" s="11"/>
       <c r="AF157" s="11"/>
-      <c r="AG157" s="42"/>
+      <c r="AG157" s="22"/>
     </row>
     <row r="158" spans="18:33">
       <c r="R158" s="8"/>
@@ -5617,7 +5613,7 @@
       <c r="AD158" s="11"/>
       <c r="AE158" s="11"/>
       <c r="AF158" s="11"/>
-      <c r="AG158" s="42"/>
+      <c r="AG158" s="22"/>
     </row>
     <row r="159" spans="18:33">
       <c r="R159" s="8"/>
@@ -5635,7 +5631,7 @@
       <c r="AD159" s="11"/>
       <c r="AE159" s="11"/>
       <c r="AF159" s="11"/>
-      <c r="AG159" s="45"/>
+      <c r="AG159" s="24"/>
     </row>
     <row r="160" spans="18:33">
       <c r="R160" s="8"/>
@@ -5653,7 +5649,7 @@
       <c r="AD160" s="11"/>
       <c r="AE160" s="11"/>
       <c r="AF160" s="11"/>
-      <c r="AG160" s="45"/>
+      <c r="AG160" s="24"/>
     </row>
     <row r="161" spans="18:33">
       <c r="R161" s="8"/>
@@ -5671,7 +5667,7 @@
       <c r="AD161" s="11"/>
       <c r="AE161" s="11"/>
       <c r="AF161" s="11"/>
-      <c r="AG161" s="45"/>
+      <c r="AG161" s="24"/>
     </row>
     <row r="162" spans="18:33">
       <c r="R162" s="8"/>
@@ -5689,7 +5685,7 @@
       <c r="AD162" s="11"/>
       <c r="AE162" s="11"/>
       <c r="AF162" s="11"/>
-      <c r="AG162" s="45"/>
+      <c r="AG162" s="24"/>
     </row>
     <row r="163" spans="18:33">
       <c r="R163" s="8"/>
@@ -5707,7 +5703,7 @@
       <c r="AD163" s="11"/>
       <c r="AE163" s="11"/>
       <c r="AF163" s="11"/>
-      <c r="AG163" s="45"/>
+      <c r="AG163" s="24"/>
     </row>
     <row r="164" spans="18:33">
       <c r="R164" s="8"/>
@@ -5722,10 +5718,10 @@
       <c r="AA164" s="8"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
-      <c r="AD164" s="42"/>
+      <c r="AD164" s="22"/>
       <c r="AE164" s="11"/>
       <c r="AF164" s="11"/>
-      <c r="AG164" s="45"/>
+      <c r="AG164" s="24"/>
     </row>
     <row r="165" spans="18:33">
       <c r="R165" s="8"/>
@@ -5740,10 +5736,10 @@
       <c r="AA165" s="8"/>
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
-      <c r="AD165" s="42"/>
-      <c r="AE165" s="42"/>
-      <c r="AF165" s="42"/>
-      <c r="AG165" s="45"/>
+      <c r="AD165" s="22"/>
+      <c r="AE165" s="22"/>
+      <c r="AF165" s="22"/>
+      <c r="AG165" s="24"/>
     </row>
     <row r="166" spans="18:33" ht="15.75" thickBot="1">
       <c r="R166" s="8"/>
@@ -5760,10 +5756,10 @@
         <v>25</v>
       </c>
       <c r="AC166" s="2"/>
-      <c r="AD166" s="42"/>
-      <c r="AE166" s="42"/>
-      <c r="AF166" s="42"/>
-      <c r="AG166" s="45"/>
+      <c r="AD166" s="22"/>
+      <c r="AE166" s="22"/>
+      <c r="AF166" s="22"/>
+      <c r="AG166" s="24"/>
     </row>
     <row r="167" spans="18:33" ht="15.75" thickBot="1">
       <c r="R167" s="8"/>
@@ -5780,10 +5776,10 @@
         <v>74</v>
       </c>
       <c r="AC167" s="2"/>
-      <c r="AD167" s="42"/>
-      <c r="AE167" s="42"/>
-      <c r="AF167" s="42"/>
-      <c r="AG167" s="45"/>
+      <c r="AD167" s="22"/>
+      <c r="AE167" s="22"/>
+      <c r="AF167" s="22"/>
+      <c r="AG167" s="24"/>
     </row>
     <row r="168" spans="18:33" ht="15.75" thickBot="1">
       <c r="R168" s="8"/>
@@ -5800,10 +5796,10 @@
         <v>75</v>
       </c>
       <c r="AC168" s="2"/>
-      <c r="AD168" s="42"/>
-      <c r="AE168" s="42"/>
-      <c r="AF168" s="42"/>
-      <c r="AG168" s="45"/>
+      <c r="AD168" s="22"/>
+      <c r="AE168" s="22"/>
+      <c r="AF168" s="22"/>
+      <c r="AG168" s="24"/>
     </row>
     <row r="169" spans="18:33" ht="15.75" thickBot="1">
       <c r="R169" s="8"/>
@@ -5820,10 +5816,10 @@
         <v>25</v>
       </c>
       <c r="AC169" s="2"/>
-      <c r="AD169" s="42"/>
+      <c r="AD169" s="22"/>
       <c r="AE169" s="11"/>
       <c r="AF169" s="11"/>
-      <c r="AG169" s="45"/>
+      <c r="AG169" s="24"/>
     </row>
     <row r="170" spans="18:33" ht="15.75" thickBot="1">
       <c r="R170" s="8"/>
@@ -5843,7 +5839,7 @@
       <c r="AD170" s="11"/>
       <c r="AE170" s="11"/>
       <c r="AF170" s="11"/>
-      <c r="AG170" s="45"/>
+      <c r="AG170" s="24"/>
     </row>
     <row r="171" spans="18:33" ht="15.75" thickBot="1">
       <c r="R171" s="8"/>
@@ -5863,7 +5859,7 @@
       <c r="AD171" s="11"/>
       <c r="AE171" s="11"/>
       <c r="AF171" s="11"/>
-      <c r="AG171" s="45"/>
+      <c r="AG171" s="24"/>
     </row>
     <row r="172" spans="18:33">
       <c r="R172" s="8"/>
@@ -5881,7 +5877,7 @@
       <c r="AD172" s="11"/>
       <c r="AE172" s="11"/>
       <c r="AF172" s="11"/>
-      <c r="AG172" s="45"/>
+      <c r="AG172" s="24"/>
     </row>
     <row r="173" spans="18:33">
       <c r="R173" s="8"/>
@@ -5899,7 +5895,7 @@
       <c r="AD173" s="11"/>
       <c r="AE173" s="11"/>
       <c r="AF173" s="11"/>
-      <c r="AG173" s="45"/>
+      <c r="AG173" s="24"/>
     </row>
     <row r="174" spans="18:33">
       <c r="R174" s="8"/>
@@ -5914,10 +5910,10 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
-      <c r="AD174" s="42"/>
+      <c r="AD174" s="22"/>
       <c r="AE174" s="11"/>
       <c r="AF174" s="11"/>
-      <c r="AG174" s="45"/>
+      <c r="AG174" s="24"/>
     </row>
     <row r="175" spans="18:33" ht="15.75" thickBot="1">
       <c r="R175" s="8"/>
@@ -5933,10 +5929,10 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
-      <c r="AD175" s="45"/>
-      <c r="AE175" s="45"/>
-      <c r="AF175" s="45"/>
-      <c r="AG175" s="45"/>
+      <c r="AD175" s="24"/>
+      <c r="AE175" s="24"/>
+      <c r="AF175" s="24"/>
+      <c r="AG175" s="24"/>
     </row>
     <row r="176" spans="18:33" ht="15.75" thickBot="1">
       <c r="R176" s="8"/>
@@ -5974,11 +5970,11 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
-      <c r="Y178" s="34" t="s">
+      <c r="Y178" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="Z178" s="34"/>
-      <c r="AA178" s="34"/>
+      <c r="Z178" s="70"/>
+      <c r="AA178" s="70"/>
       <c r="AB178" s="2"/>
     </row>
     <row r="179" spans="18:32" ht="15.75" thickBot="1">
@@ -6081,9 +6077,9 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="8"/>
       <c r="AB185" s="2"/>
-      <c r="AD185" s="45"/>
-      <c r="AE185" s="45"/>
-      <c r="AF185" s="45"/>
+      <c r="AD185" s="24"/>
+      <c r="AE185" s="24"/>
+      <c r="AF185" s="24"/>
     </row>
     <row r="186" spans="18:32" ht="15.75" thickBot="1">
       <c r="R186" s="8"/>
@@ -6099,9 +6095,9 @@
       <c r="AB186" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AD186" s="45"/>
-      <c r="AE186" s="45"/>
-      <c r="AF186" s="45"/>
+      <c r="AD186" s="24"/>
+      <c r="AE186" s="24"/>
+      <c r="AF186" s="24"/>
     </row>
     <row r="187" spans="18:32" ht="15.75" thickBot="1">
       <c r="R187" s="8"/>
@@ -6115,9 +6111,9 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="8"/>
       <c r="AB187" s="7"/>
-      <c r="AD187" s="45"/>
-      <c r="AE187" s="45"/>
-      <c r="AF187" s="45"/>
+      <c r="AD187" s="24"/>
+      <c r="AE187" s="24"/>
+      <c r="AF187" s="24"/>
     </row>
     <row r="188" spans="18:32" ht="15.75" thickBot="1">
       <c r="R188" s="8"/>
@@ -6131,9 +6127,9 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="8"/>
       <c r="AB188" s="2"/>
-      <c r="AD188" s="45"/>
-      <c r="AE188" s="45"/>
-      <c r="AF188" s="45"/>
+      <c r="AD188" s="24"/>
+      <c r="AE188" s="24"/>
+      <c r="AF188" s="24"/>
     </row>
     <row r="189" spans="18:32" ht="15.75" thickBot="1">
       <c r="R189" s="8"/>
@@ -6149,9 +6145,9 @@
       <c r="AB189" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD189" s="45"/>
-      <c r="AE189" s="45"/>
-      <c r="AF189" s="45"/>
+      <c r="AD189" s="24"/>
+      <c r="AE189" s="24"/>
+      <c r="AF189" s="24"/>
     </row>
     <row r="190" spans="18:32" ht="15.75" thickBot="1">
       <c r="R190" s="8"/>
@@ -6165,9 +6161,9 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AB190" s="7"/>
-      <c r="AD190" s="45"/>
-      <c r="AE190" s="45"/>
-      <c r="AF190" s="45"/>
+      <c r="AD190" s="24"/>
+      <c r="AE190" s="24"/>
+      <c r="AF190" s="24"/>
     </row>
     <row r="191" spans="18:32">
       <c r="R191" s="8"/>
@@ -6182,9 +6178,9 @@
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
-      <c r="AD191" s="42"/>
-      <c r="AE191" s="42"/>
-      <c r="AF191" s="42"/>
+      <c r="AD191" s="22"/>
+      <c r="AE191" s="22"/>
+      <c r="AF191" s="22"/>
     </row>
     <row r="192" spans="18:32" ht="15.75" thickBot="1">
       <c r="R192" s="8"/>
@@ -6199,9 +6195,9 @@
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
-      <c r="AD192" s="42"/>
-      <c r="AE192" s="42"/>
-      <c r="AF192" s="42"/>
+      <c r="AD192" s="22"/>
+      <c r="AE192" s="22"/>
+      <c r="AF192" s="22"/>
     </row>
     <row r="193" spans="18:32" ht="15.75" thickBot="1">
       <c r="R193" s="8"/>
@@ -6218,9 +6214,9 @@
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
-      <c r="AD193" s="42"/>
-      <c r="AE193" s="42"/>
-      <c r="AF193" s="42"/>
+      <c r="AD193" s="22"/>
+      <c r="AE193" s="22"/>
+      <c r="AF193" s="22"/>
     </row>
     <row r="194" spans="18:32" ht="15.75" thickBot="1">
       <c r="R194" s="8"/>
@@ -6235,9 +6231,9 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
-      <c r="AD194" s="42"/>
-      <c r="AE194" s="42"/>
-      <c r="AF194" s="42"/>
+      <c r="AD194" s="22"/>
+      <c r="AE194" s="22"/>
+      <c r="AF194" s="22"/>
     </row>
     <row r="195" spans="18:32" ht="15.75" thickBot="1">
       <c r="R195" s="8"/>
@@ -6254,9 +6250,9 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
-      <c r="AD195" s="42"/>
-      <c r="AE195" s="42"/>
-      <c r="AF195" s="42"/>
+      <c r="AD195" s="22"/>
+      <c r="AE195" s="22"/>
+      <c r="AF195" s="22"/>
     </row>
     <row r="196" spans="18:32" ht="15.75" thickBot="1">
       <c r="R196" s="8"/>
@@ -6273,9 +6269,9 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
-      <c r="AD196" s="42"/>
-      <c r="AE196" s="42"/>
-      <c r="AF196" s="42"/>
+      <c r="AD196" s="22"/>
+      <c r="AE196" s="22"/>
+      <c r="AF196" s="22"/>
     </row>
     <row r="197" spans="18:32" ht="15.75" thickBot="1">
       <c r="R197" s="8"/>
@@ -6290,9 +6286,9 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
-      <c r="AD197" s="42"/>
-      <c r="AE197" s="42"/>
-      <c r="AF197" s="42"/>
+      <c r="AD197" s="22"/>
+      <c r="AE197" s="22"/>
+      <c r="AF197" s="22"/>
     </row>
     <row r="198" spans="18:32" ht="15.75" thickBot="1">
       <c r="R198" s="8"/>
@@ -6309,9 +6305,9 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
-      <c r="AD198" s="42"/>
-      <c r="AE198" s="42"/>
-      <c r="AF198" s="42"/>
+      <c r="AD198" s="22"/>
+      <c r="AE198" s="22"/>
+      <c r="AF198" s="22"/>
     </row>
     <row r="199" spans="18:32" ht="15.75" thickBot="1">
       <c r="R199" s="8"/>
@@ -6328,9 +6324,9 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
-      <c r="AD199" s="42"/>
-      <c r="AE199" s="42"/>
-      <c r="AF199" s="42"/>
+      <c r="AD199" s="22"/>
+      <c r="AE199" s="22"/>
+      <c r="AF199" s="22"/>
     </row>
     <row r="200" spans="18:32" ht="15.75" thickBot="1">
       <c r="R200" s="8"/>
@@ -6345,9 +6341,9 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
-      <c r="AD200" s="42"/>
-      <c r="AE200" s="42"/>
-      <c r="AF200" s="42"/>
+      <c r="AD200" s="22"/>
+      <c r="AE200" s="22"/>
+      <c r="AF200" s="22"/>
     </row>
     <row r="201" spans="18:32">
       <c r="R201" s="8"/>
@@ -6362,9 +6358,9 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
-      <c r="AD201" s="42"/>
-      <c r="AE201" s="42"/>
-      <c r="AF201" s="42"/>
+      <c r="AD201" s="22"/>
+      <c r="AE201" s="22"/>
+      <c r="AF201" s="22"/>
     </row>
     <row r="202" spans="18:32" ht="15.75" thickBot="1">
       <c r="R202" s="8"/>
@@ -6383,9 +6379,9 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
-      <c r="AD202" s="42"/>
-      <c r="AE202" s="42"/>
-      <c r="AF202" s="42"/>
+      <c r="AD202" s="22"/>
+      <c r="AE202" s="22"/>
+      <c r="AF202" s="22"/>
     </row>
     <row r="203" spans="18:32" ht="15.75" thickBot="1">
       <c r="R203" s="7"/>
@@ -6404,9 +6400,9 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
-      <c r="AD203" s="42"/>
-      <c r="AE203" s="42"/>
-      <c r="AF203" s="42"/>
+      <c r="AD203" s="22"/>
+      <c r="AE203" s="22"/>
+      <c r="AF203" s="22"/>
     </row>
     <row r="204" spans="18:32" ht="15.75" thickBot="1">
       <c r="R204" s="5"/>
@@ -6423,9 +6419,9 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
-      <c r="AD204" s="42"/>
-      <c r="AE204" s="42"/>
-      <c r="AF204" s="42"/>
+      <c r="AD204" s="22"/>
+      <c r="AE204" s="22"/>
+      <c r="AF204" s="22"/>
     </row>
     <row r="205" spans="18:32" ht="15.75" thickBot="1">
       <c r="R205" s="8"/>
@@ -6446,7 +6442,7 @@
         <v>25</v>
       </c>
       <c r="AC205" s="2"/>
-      <c r="AD205" s="42"/>
+      <c r="AD205" s="22"/>
       <c r="AE205" s="11"/>
       <c r="AF205" s="11"/>
     </row>
@@ -6539,7 +6535,7 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
-      <c r="AD210" s="42"/>
+      <c r="AD210" s="22"/>
       <c r="AE210" s="11"/>
       <c r="AF210" s="11"/>
     </row>
@@ -6548,17 +6544,17 @@
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
-      <c r="V211" s="34" t="s">
+      <c r="V211" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="W211" s="34"/>
-      <c r="X211" s="34"/>
+      <c r="W211" s="70"/>
+      <c r="X211" s="70"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
-      <c r="AD211" s="42"/>
+      <c r="AD211" s="22"/>
       <c r="AE211" s="11"/>
       <c r="AF211" s="11"/>
     </row>
@@ -6575,7 +6571,7 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
-      <c r="AD212" s="42"/>
+      <c r="AD212" s="22"/>
       <c r="AE212" s="11"/>
       <c r="AF212" s="11"/>
     </row>
@@ -6598,9 +6594,9 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
-      <c r="AD213" s="42"/>
-      <c r="AE213" s="42"/>
-      <c r="AF213" s="42"/>
+      <c r="AD213" s="22"/>
+      <c r="AE213" s="22"/>
+      <c r="AF213" s="22"/>
     </row>
     <row r="214" spans="18:32" ht="15.75" thickBot="1">
       <c r="R214" s="7"/>
@@ -6999,6 +6995,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="V211:X211"/>
     <mergeCell ref="Y178:AA178"/>
     <mergeCell ref="AE137:AG137"/>
@@ -7012,11 +7013,6 @@
     <mergeCell ref="AB111:AC111"/>
     <mergeCell ref="AB112:AC112"/>
     <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/op-tiolan.xlsx
+++ b/op-tiolan.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\Projects\apps\nababan\tarombo-nababan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA453D7E-F8EF-4EF0-89F4-D5C5A3F3B599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarombo Nababan" sheetId="2" r:id="rId1"/>
@@ -151,9 +157,6 @@
     <t>Op. Ledang</t>
   </si>
   <si>
-    <t>Op. Lumban Siantar</t>
-  </si>
-  <si>
     <t>Op. Sohutihon</t>
   </si>
   <si>
@@ -623,16 +626,19 @@
   </si>
   <si>
     <t>Amani Harri</t>
+  </si>
+  <si>
+    <t>Op. Siantar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,7 +854,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,13 +884,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,7 +905,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -911,12 +914,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -926,11 +927,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -946,19 +943,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -971,9 +965,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1017,12 +1008,48 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,18 +1062,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1071,48 +1086,29 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma [0] 2" xfId="2"/>
+    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1150,7 +1146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1184,6 +1180,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1218,9 +1215,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1393,14 +1391,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BD244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH53" sqref="AH53"/>
+    <sheetView tabSelected="1" topLeftCell="R34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
@@ -1453,273 +1451,233 @@
     <col min="56" max="56" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" ht="15.75" thickBot="1">
+    <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V2" s="6">
         <v>8</v>
       </c>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="29">
+      <c r="AE2" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B3" s="88" t="s">
+    <row r="3" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="2"/>
-      <c r="U3" s="39"/>
+      <c r="U3" s="34"/>
       <c r="V3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="39"/>
+      <c r="AD3" s="34"/>
       <c r="AE3" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B4" s="91"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="2"/>
-      <c r="U4" s="40"/>
+      <c r="U4" s="35"/>
       <c r="V4" s="7"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="51"/>
+      <c r="AD4" s="45"/>
       <c r="AE4" s="7"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+    <row r="5" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="2"/>
-      <c r="U5" s="40"/>
+      <c r="U5" s="35"/>
       <c r="V5" s="6">
         <v>8</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="29">
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="22">
         <v>11</v>
       </c>
       <c r="AF5" s="1"/>
-      <c r="AH5" s="29">
+      <c r="AH5" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:38" ht="15.75" thickBot="1">
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+    <row r="6" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="71"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="2"/>
-      <c r="U6" s="27"/>
+      <c r="U6" s="24"/>
       <c r="V6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="27"/>
+      <c r="AD6" s="24"/>
       <c r="AE6" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="39"/>
+        <v>154</v>
+      </c>
+      <c r="AF6" s="48"/>
+      <c r="AG6" s="34"/>
       <c r="AH6" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" ht="15.75" thickBot="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="U7" s="40"/>
+      <c r="U7" s="35"/>
       <c r="V7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="40"/>
+        <v>194</v>
+      </c>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="51"/>
+      <c r="AG7" s="45"/>
       <c r="AH7" s="7"/>
     </row>
-    <row r="8" spans="2:38" ht="15.75" thickBot="1">
+    <row r="8" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="79"/>
-      <c r="U8" s="40"/>
+      <c r="E8" s="75"/>
+      <c r="U8" s="35"/>
       <c r="V8" s="6">
         <v>8</v>
       </c>
       <c r="Y8" s="6">
         <v>9</v>
       </c>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
       <c r="AB8" s="6">
         <v>10</v>
       </c>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="40"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="29">
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:38" ht="15.75" thickBot="1">
+    <row r="9" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="77"/>
-      <c r="U9" s="27"/>
+      <c r="E9" s="64"/>
+      <c r="U9" s="24"/>
       <c r="V9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="39"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="34"/>
       <c r="Y9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="39"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="40"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="27"/>
+      <c r="AG9" s="24"/>
       <c r="AH9" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="2:38" ht="15.75" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="U10" s="40"/>
+      <c r="U10" s="35"/>
       <c r="V10" s="7"/>
       <c r="Y10" s="7"/>
-      <c r="AA10" s="51"/>
+      <c r="AA10" s="45"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="40"/>
+      <c r="AG10" s="35"/>
       <c r="AH10" s="7"/>
     </row>
-    <row r="11" spans="2:38" ht="15.75" thickBot="1">
+    <row r="11" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="79"/>
-      <c r="U11" s="40"/>
-      <c r="AA11" s="40"/>
+      <c r="E11" s="75"/>
+      <c r="U11" s="35"/>
+      <c r="AA11" s="35"/>
       <c r="AB11" s="6">
         <v>10</v>
       </c>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="29">
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:38" ht="15.75" thickBot="1">
+    <row r="12" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="76" t="s">
+      <c r="D12" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="77"/>
-      <c r="U12" s="40"/>
-      <c r="AA12" s="27"/>
+      <c r="E12" s="64"/>
+      <c r="U12" s="35"/>
+      <c r="AA12" s="24"/>
       <c r="AB12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="40"/>
+      <c r="AG12" s="35"/>
       <c r="AH12" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" ht="15.75" thickBot="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="U13" s="40"/>
-      <c r="AA13" s="24"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="U13" s="35"/>
       <c r="AB13" s="7"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="27"/>
+      <c r="AG13" s="24"/>
       <c r="AH13" s="9"/>
     </row>
-    <row r="14" spans="2:38" ht="15.75" thickBot="1">
+    <row r="14" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
+      <c r="U14" s="35"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AH14" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="2:38" ht="21.75" thickBot="1">
+      <c r="AH14" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="9"/>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="75"/>
+      <c r="E15" s="80"/>
       <c r="F15" s="2"/>
       <c r="G15" s="6">
         <v>2</v>
@@ -1747,24 +1705,20 @@
         <v>7</v>
       </c>
       <c r="T15" s="2"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="24"/>
+      <c r="U15" s="42"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
+      <c r="AA15" s="2"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="2:38" ht="21.75" thickBot="1">
+    <row r="16" spans="2:38" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="7"/>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="73"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="7"/>
       <c r="G16" s="10" t="s">
         <v>11</v>
@@ -1774,7 +1728,7 @@
         <v>12</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>13</v>
       </c>
       <c r="L16" s="4"/>
@@ -1783,7 +1737,7 @@
       </c>
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="56" t="s">
+      <c r="P16" s="49" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="3"/>
@@ -1793,28 +1747,22 @@
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="11"/>
+      <c r="W16" s="6"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="24"/>
-      <c r="AL16" s="29">
+      <c r="AA16" s="2"/>
+      <c r="AF16" s="1"/>
+      <c r="AL16" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:38" ht="18.75" customHeight="1" thickBot="1">
+    <row r="17" spans="3:38" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="73"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1829,44 +1777,39 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="N17" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="N17" s="6"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="69" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q17" s="11"/>
+      <c r="P17" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
       <c r="S17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="W17" s="6"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="43"/>
-      <c r="AG17" s="24"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="39"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AF17" s="1"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="34"/>
       <c r="AL17" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="3:38" ht="16.5" customHeight="1" thickBot="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="3:38" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="81"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1882,29 +1825,23 @@
       <c r="R18" s="8"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="24"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="46" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="3:38" ht="20.25" customHeight="1" thickBot="1">
+      <c r="U18" s="6"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AF18" s="1"/>
+      <c r="AJ18" s="35"/>
+      <c r="AL18" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="3:38" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1920,26 +1857,20 @@
       <c r="R19" s="8"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
+      <c r="U19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="24"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="3:38" ht="15.75" thickBot="1">
+      <c r="AF19" s="1"/>
+      <c r="AJ19" s="35"/>
+      <c r="AL19" s="26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1958,31 +1889,25 @@
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
+      <c r="U20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="43"/>
-      <c r="AG20" s="24"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="29">
+      <c r="AF20" s="1"/>
+      <c r="AJ20" s="35"/>
+      <c r="AL20" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="3:38" ht="15.75" thickBot="1">
+    <row r="21" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="7"/>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="79"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1998,31 +1923,25 @@
       <c r="R21" s="8"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="24"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="43"/>
-      <c r="AG21" s="24"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="39"/>
+      <c r="U21" s="6"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="1"/>
+      <c r="AJ21" s="33"/>
+      <c r="AK21" s="34"/>
       <c r="AL21" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="3:38" ht="15.75" thickBot="1">
-      <c r="C22" s="11"/>
-      <c r="D22" s="76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="6"/>
+      <c r="D22" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="77"/>
+      <c r="E22" s="64"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2038,24 +1957,17 @@
       <c r="R22" s="8"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="24"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="24"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="47"/>
-    </row>
-    <row r="23" spans="3:38" ht="15.75" thickBot="1">
+      <c r="U22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="1"/>
+      <c r="AJ22" s="35"/>
+      <c r="AL22" s="41"/>
+    </row>
+    <row r="23" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2074,26 +1986,19 @@
       <c r="R23" s="8"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="24"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="24"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="29">
+      <c r="U23" s="2"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="6"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="1"/>
+      <c r="AJ23" s="35"/>
+      <c r="AL23" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:38" ht="15.75" thickBot="1">
+    <row r="24" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -2117,23 +2022,19 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="29">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="6"/>
+      <c r="AE24" s="22">
         <v>11</v>
       </c>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="24"/>
-      <c r="AJ24" s="38"/>
-      <c r="AK24" s="39"/>
+      <c r="AF24" s="1"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="34"/>
       <c r="AL24" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="25" spans="3:38" ht="15.75" thickBot="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -2150,27 +2051,25 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="8"/>
-      <c r="S25" s="11"/>
+      <c r="S25" s="6"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="24"/>
-      <c r="AD25" s="39"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="6"/>
+      <c r="AD25" s="34"/>
       <c r="AE25" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF25" s="1"/>
-      <c r="AH25" s="32"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="47"/>
-    </row>
-    <row r="26" spans="3:38" ht="15.75" thickBot="1">
+      <c r="AH25" s="27"/>
+      <c r="AJ25" s="45"/>
+      <c r="AL25" s="41"/>
+    </row>
+    <row r="26" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2187,7 +2086,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="11"/>
+      <c r="S26" s="6"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
@@ -2196,17 +2095,16 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="47"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="41"/>
       <c r="AF26" s="1"/>
-      <c r="AH26" s="32"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="24"/>
-      <c r="AL26" s="29">
+      <c r="AH26" s="27"/>
+      <c r="AJ26" s="35"/>
+      <c r="AL26" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="3:38" ht="15.75" thickBot="1">
+    <row r="27" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -2241,23 +2139,21 @@
       <c r="AB27" s="6">
         <v>10</v>
       </c>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="29">
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="22">
         <v>11</v>
       </c>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="24"/>
-      <c r="AH27" s="29">
+      <c r="AH27" s="22">
         <v>12</v>
       </c>
-      <c r="AI27" s="24"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="39"/>
+      <c r="AJ27" s="35"/>
+      <c r="AK27" s="34"/>
       <c r="AL27" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="3:38" ht="15.75" thickBot="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2274,10 +2170,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="56" t="s">
+      <c r="S28" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="14"/>
+      <c r="T28" s="13"/>
       <c r="U28" s="4"/>
       <c r="V28" s="10" t="s">
         <v>32</v>
@@ -2292,22 +2188,22 @@
       <c r="AB28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="27"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="24"/>
       <c r="AE28" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
-      <c r="AL28" s="47"/>
-    </row>
-    <row r="29" spans="3:38" ht="15.75" thickBot="1">
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="35"/>
+      <c r="AK28" s="35"/>
+      <c r="AL28" s="41"/>
+    </row>
+    <row r="29" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2323,38 +2219,38 @@
       <c r="O29" s="8"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="57" t="s">
-        <v>137</v>
+      <c r="R29" s="19"/>
+      <c r="S29" s="50" t="s">
+        <v>136</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="5"/>
-      <c r="V29" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="W29" s="11"/>
+      <c r="V29" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="W29" s="6"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="47" t="s">
-        <v>153</v>
+      <c r="Y29" s="41" t="s">
+        <v>152</v>
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="5"/>
-      <c r="AB29" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="47"/>
+      <c r="AB29" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="41"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="40"/>
-      <c r="AH29" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK29" s="40"/>
-      <c r="AL29" s="29">
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:38" ht="15.75" thickBot="1">
+    <row r="30" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2370,9 +2266,9 @@
       <c r="O30" s="8"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="58" t="s">
-        <v>138</v>
+      <c r="R30" s="6"/>
+      <c r="S30" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="8"/>
@@ -2385,23 +2281,23 @@
       <c r="AB30" s="6">
         <v>10</v>
       </c>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="29"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="22"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK30" s="27"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK30" s="24"/>
       <c r="AL30" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="3:38" ht="15.75" thickBot="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O31" s="8"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="11"/>
+      <c r="R31" s="6"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="8"/>
@@ -2414,23 +2310,23 @@
       <c r="AB31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AD31" s="27"/>
+      <c r="AD31" s="24"/>
       <c r="AE31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="29">
+        <v>176</v>
+      </c>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="22">
         <v>12</v>
       </c>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="47"/>
-    </row>
-    <row r="32" spans="3:38" ht="15.75" thickBot="1">
+      <c r="AK31" s="35"/>
+      <c r="AL31" s="41"/>
+    </row>
+    <row r="32" spans="3:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O32" s="8"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="11"/>
+      <c r="R32" s="6"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="8"/>
@@ -2441,26 +2337,26 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="7"/>
-      <c r="AE32" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF32" s="43"/>
-      <c r="AG32" s="27"/>
+      <c r="AE32" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="24"/>
       <c r="AH32" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="40"/>
-      <c r="AL32" s="29">
+        <v>179</v>
+      </c>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="35"/>
+      <c r="AL32" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="15:44" ht="15.75" thickBot="1">
+    <row r="33" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O33" s="8"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="11"/>
+      <c r="R33" s="6"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="8"/>
@@ -2472,29 +2368,26 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
-      <c r="AB33" s="11">
+      <c r="AB33" s="6">
         <v>10</v>
       </c>
-      <c r="AE33" s="25">
+      <c r="AE33" s="22">
         <v>11</v>
       </c>
-      <c r="AF33" s="43"/>
-      <c r="AH33" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK33" s="27"/>
+      <c r="AF33" s="1"/>
+      <c r="AH33" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK33" s="24"/>
       <c r="AL33" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM33" s="24"/>
-      <c r="AN33" s="24"/>
-      <c r="AO33" s="24"/>
-    </row>
-    <row r="34" spans="15:44" ht="15.75" thickBot="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O34" s="8"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-      <c r="R34" s="11"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="8"/>
@@ -2505,26 +2398,23 @@
         <v>36</v>
       </c>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="37"/>
+      <c r="AA34" s="32"/>
       <c r="AB34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF34" s="43"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="24"/>
-      <c r="AN34" s="24"/>
-      <c r="AO34" s="24"/>
-    </row>
-    <row r="35" spans="15:44" ht="15.75" thickBot="1">
+        <v>158</v>
+      </c>
+      <c r="AD34" s="34"/>
+      <c r="AE34" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF34" s="1"/>
+      <c r="AK34" s="35"/>
+      <c r="AL34" s="41"/>
+    </row>
+    <row r="35" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O35" s="8"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="11"/>
+      <c r="R35" s="6"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="8"/>
@@ -2533,24 +2423,21 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="48"/>
+      <c r="AA35" s="42"/>
       <c r="AB35" s="7"/>
-      <c r="AD35" s="40"/>
-      <c r="AE35" s="28"/>
-      <c r="AF35" s="43"/>
-      <c r="AK35" s="40"/>
-      <c r="AL35" s="29">
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="1"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="22">
         <v>13</v>
       </c>
-      <c r="AM35" s="24"/>
-      <c r="AN35" s="24"/>
-      <c r="AO35" s="24"/>
-    </row>
-    <row r="36" spans="15:44" ht="15.75" thickBot="1">
+    </row>
+    <row r="36" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O36" s="8"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="11"/>
+      <c r="R36" s="6"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="8"/>
@@ -2561,31 +2448,28 @@
         <v>9</v>
       </c>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="11">
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="6">
         <v>10</v>
       </c>
-      <c r="AD36" s="40"/>
-      <c r="AE36" s="25">
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="22">
         <v>11</v>
       </c>
-      <c r="AF36" s="43"/>
-      <c r="AH36" s="29">
+      <c r="AF36" s="1"/>
+      <c r="AH36" s="22">
         <v>12</v>
       </c>
-      <c r="AK36" s="27"/>
+      <c r="AK36" s="24"/>
       <c r="AL36" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM36" s="24"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="24"/>
-    </row>
-    <row r="37" spans="15:44" ht="15.75" thickBot="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O37" s="8"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="11"/>
+      <c r="R37" s="6"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="8"/>
@@ -2596,33 +2480,29 @@
         <v>37</v>
       </c>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="49"/>
+      <c r="AA37" s="43"/>
       <c r="AB37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF37" s="55"/>
-      <c r="AG37" s="39"/>
-      <c r="AH37" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI37" s="38"/>
-      <c r="AJ37" s="24"/>
-      <c r="AK37" s="40"/>
-      <c r="AL37" s="47"/>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-    </row>
-    <row r="38" spans="15:44" ht="15.75" thickBot="1">
+        <v>114</v>
+      </c>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI37" s="33"/>
+      <c r="AK37" s="35"/>
+      <c r="AL37" s="41"/>
+    </row>
+    <row r="38" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O38" s="8"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="11"/>
+      <c r="R38" s="6"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="8"/>
@@ -2631,26 +2511,23 @@
       <c r="X38" s="8"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="48"/>
+      <c r="AA38" s="42"/>
       <c r="AB38" s="7"/>
-      <c r="AD38" s="40"/>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="43"/>
-      <c r="AH38" s="28"/>
-      <c r="AI38" s="24"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="29">
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="1"/>
+      <c r="AH38" s="25"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="22">
         <v>13</v>
       </c>
-      <c r="AM38" s="24"/>
-      <c r="AN38" s="24"/>
-    </row>
-    <row r="39" spans="15:44" ht="15.75" thickBot="1">
+    </row>
+    <row r="39" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O39" s="8"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="11"/>
+      <c r="R39" s="6"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="8"/>
@@ -2661,30 +2538,26 @@
         <v>9</v>
       </c>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="11">
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="6">
         <v>10</v>
       </c>
-      <c r="AD39" s="40"/>
-      <c r="AE39" s="25">
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="22">
         <v>11</v>
       </c>
-      <c r="AF39" s="25"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="27"/>
+      <c r="AF39" s="22"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="24"/>
       <c r="AL39" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-    </row>
-    <row r="40" spans="15:44" ht="15.75" thickBot="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O40" s="8"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-      <c r="R40" s="11"/>
+      <c r="R40" s="6"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="8"/>
@@ -2695,30 +2568,26 @@
         <v>38</v>
       </c>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="49"/>
+      <c r="AA40" s="43"/>
       <c r="AB40" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF40" s="43"/>
-      <c r="AI40" s="24"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="24"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="24"/>
-      <c r="AN40" s="24"/>
-      <c r="AO40" s="29">
+        <v>159</v>
+      </c>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF40" s="1"/>
+      <c r="AJ40" s="35"/>
+      <c r="AL40" s="41"/>
+      <c r="AO40" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="15:44" ht="15.75" thickBot="1">
+    <row r="41" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O41" s="8"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="11"/>
+      <c r="R41" s="6"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="8"/>
@@ -2727,27 +2596,21 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="48"/>
+      <c r="AA41" s="42"/>
       <c r="AB41" s="7"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="43"/>
-      <c r="AI41" s="24"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="24"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="39"/>
-      <c r="AO41" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
-      <c r="AR41" s="24"/>
-    </row>
-    <row r="42" spans="15:44" ht="15.75" thickBot="1">
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="1"/>
+      <c r="AJ41" s="35"/>
+      <c r="AN41" s="34"/>
+      <c r="AO41" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O42" s="8"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="11"/>
+      <c r="R42" s="6"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="8"/>
@@ -2756,30 +2619,24 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="48"/>
-      <c r="AB42" s="11">
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="6">
         <v>10</v>
       </c>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="43"/>
-      <c r="AI42" s="24"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="24"/>
-      <c r="AL42" s="29">
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="1"/>
+      <c r="AJ42" s="35"/>
+      <c r="AL42" s="22">
         <v>13</v>
       </c>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="40"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
-      <c r="AR42" s="24"/>
-    </row>
-    <row r="43" spans="15:44" ht="15.75" thickBot="1">
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="25"/>
+    </row>
+    <row r="43" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O43" s="8"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="11"/>
+      <c r="R43" s="6"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="8"/>
@@ -2792,36 +2649,32 @@
         <v>9</v>
       </c>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="49"/>
+      <c r="AA43" s="43"/>
       <c r="AB43" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AI43" s="24"/>
-      <c r="AJ43" s="38"/>
-      <c r="AK43" s="39"/>
-      <c r="AL43" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="40"/>
-      <c r="AO43" s="29">
+        <v>160</v>
+      </c>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="22">
         <v>14</v>
       </c>
-      <c r="AP43" s="24"/>
-      <c r="AQ43" s="24"/>
-      <c r="AR43" s="24"/>
-    </row>
-    <row r="44" spans="15:44" ht="15.75" thickBot="1">
+    </row>
+    <row r="44" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O44" s="8"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-      <c r="R44" s="11"/>
+      <c r="R44" s="6"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="3"/>
-      <c r="V44" s="56" t="s">
+      <c r="V44" s="49" t="s">
         <v>39</v>
       </c>
       <c r="W44" s="3"/>
@@ -2829,108 +2682,84 @@
       <c r="Y44" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="48"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="42"/>
       <c r="AB44" s="7"/>
-      <c r="AE44" s="43"/>
-      <c r="AF44" s="43"/>
-      <c r="AI44" s="24"/>
-      <c r="AJ44" s="24"/>
-      <c r="AK44" s="24"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP44" s="24"/>
-      <c r="AQ44" s="24"/>
-      <c r="AR44" s="24"/>
-    </row>
-    <row r="45" spans="15:44" ht="15.75" thickBot="1">
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AL44" s="25"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O45" s="8"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-      <c r="R45" s="11"/>
+      <c r="R45" s="6"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="5"/>
-      <c r="V45" s="59" t="s">
-        <v>149</v>
+      <c r="V45" s="52" t="s">
+        <v>148</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="8"/>
-      <c r="Y45" s="15" t="s">
-        <v>149</v>
+      <c r="Y45" s="14" t="s">
+        <v>148</v>
       </c>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="48"/>
+      <c r="AA45" s="42"/>
       <c r="AB45" s="6">
         <v>10</v>
       </c>
-      <c r="AC45" s="24"/>
-      <c r="AD45" s="24"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AL45" s="24"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="28"/>
-      <c r="AP45" s="24"/>
-      <c r="AQ45" s="24"/>
-      <c r="AR45" s="29">
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AO45" s="25"/>
+      <c r="AR45" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="15:44" ht="15.75" thickBot="1">
+    <row r="46" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O46" s="8"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="11"/>
+      <c r="R46" s="6"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="8"/>
-      <c r="V46" s="60" t="s">
-        <v>151</v>
+      <c r="V46" s="53" t="s">
+        <v>150</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="8"/>
-      <c r="Y46" s="16" t="s">
-        <v>148</v>
+      <c r="Y46" s="15" t="s">
+        <v>147</v>
       </c>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="49"/>
+      <c r="AA46" s="43"/>
       <c r="AB46" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC46" s="24"/>
-      <c r="AD46" s="24"/>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="43"/>
-      <c r="AG46" s="24"/>
-      <c r="AH46" s="25">
+        <v>171</v>
+      </c>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AH46" s="22">
         <v>12</v>
       </c>
-      <c r="AI46" s="24"/>
-      <c r="AJ46" s="24"/>
-      <c r="AK46" s="24"/>
-      <c r="AL46" s="29">
+      <c r="AL46" s="22">
         <v>13</v>
       </c>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="39"/>
-      <c r="AR46" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="15:44" ht="15.75" thickBot="1">
+      <c r="AQ46" s="34"/>
+      <c r="AR46" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O47" s="8"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="11"/>
+      <c r="R47" s="6"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="8"/>
@@ -2941,106 +2770,86 @@
         <v>9</v>
       </c>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="22"/>
+      <c r="AA47" s="2"/>
       <c r="AB47" s="7"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="39"/>
-      <c r="AH47" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="54"/>
-      <c r="AK47" s="39"/>
-      <c r="AL47" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="40"/>
-      <c r="AR47" s="34" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="15:44" ht="15.75" thickBot="1">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="34"/>
+      <c r="AL47" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="15:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O48" s="8"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="11"/>
+      <c r="R48" s="6"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="8"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="7"/>
-      <c r="Y48" s="56" t="s">
+      <c r="Y48" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="22"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="40"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="25"/>
-      <c r="AK48" s="24"/>
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="40"/>
-      <c r="AR48" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="15:56" ht="15.75" thickBot="1">
+      <c r="Z48" s="31"/>
+      <c r="AA48" s="2"/>
+      <c r="AF48" s="22"/>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="25"/>
+      <c r="AI48" s="22"/>
+      <c r="AJ48" s="22"/>
+      <c r="AL48" s="25"/>
+      <c r="AQ48" s="35"/>
+      <c r="AR48" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O49" s="8"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="11"/>
+      <c r="R49" s="6"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="8"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="8"/>
-      <c r="Y49" s="58" t="s">
-        <v>149</v>
+      <c r="Y49" s="51" t="s">
+        <v>148</v>
       </c>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="48"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AF49" s="25"/>
-      <c r="AG49" s="40"/>
-      <c r="AI49" s="25"/>
-      <c r="AJ49" s="25"/>
-      <c r="AK49" s="24"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="29">
+      <c r="AA49" s="42"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="35"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AO49" s="22">
         <v>14</v>
       </c>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="40"/>
-      <c r="AR49" s="29">
+      <c r="AQ49" s="35"/>
+      <c r="AR49" s="22">
         <v>15</v>
       </c>
-      <c r="AU49" s="29"/>
-    </row>
-    <row r="50" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AU49" s="22"/>
+    </row>
+    <row r="50" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O50" s="8"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="11"/>
+      <c r="R50" s="6"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="8"/>
@@ -3051,186 +2860,151 @@
         <v>9</v>
       </c>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="48"/>
+      <c r="AA50" s="42"/>
       <c r="AB50" s="6">
         <v>10</v>
       </c>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="25">
+      <c r="AE50" s="22">
         <v>11</v>
       </c>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="40"/>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="25"/>
-      <c r="AK50" s="24"/>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="39"/>
-      <c r="AO50" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP50" s="42"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="51" spans="15:56" ht="17.25" customHeight="1" thickBot="1">
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="35"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="22"/>
+      <c r="AL50" s="22"/>
+      <c r="AM50" s="22"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP50" s="37"/>
+      <c r="AQ50" s="24"/>
+      <c r="AR50" s="23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="15:56" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O51" s="8"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="11"/>
+      <c r="R51" s="6"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="7"/>
-      <c r="Y51" s="17" t="s">
+      <c r="Y51" s="16" t="s">
         <v>43</v>
       </c>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="49"/>
+      <c r="AA51" s="43"/>
       <c r="AB51" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC51" s="38"/>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF51" s="38"/>
-      <c r="AG51" s="40"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
-      <c r="AJ51" s="24"/>
-      <c r="AK51" s="24"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="40"/>
-      <c r="AO51" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="AP51" s="25"/>
-      <c r="AQ51" s="24"/>
-      <c r="AR51" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="15:56" ht="15" customHeight="1" thickBot="1">
+      <c r="AF51" s="33"/>
+      <c r="AG51" s="35"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP51" s="22"/>
+      <c r="AR51" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="15:56" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O52" s="8"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="11"/>
+      <c r="R52" s="6"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="8"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-      <c r="Y52" s="53" t="s">
-        <v>150</v>
+      <c r="Y52" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="48"/>
+      <c r="AA52" s="42"/>
       <c r="AB52" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC52" s="24"/>
-      <c r="AD52" s="24"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="24"/>
-      <c r="AG52" s="24"/>
-      <c r="AH52" s="24"/>
-      <c r="AI52" s="24"/>
-      <c r="AJ52" s="24"/>
-      <c r="AK52" s="24"/>
-      <c r="AL52" s="24"/>
-      <c r="AM52" s="24"/>
-      <c r="AN52" s="40"/>
-      <c r="AO52" s="24"/>
-      <c r="AP52" s="31"/>
-      <c r="AQ52" s="24"/>
-    </row>
-    <row r="53" spans="15:56" ht="15.75" thickBot="1">
+        <v>110</v>
+      </c>
+      <c r="AE52" s="25"/>
+      <c r="AN52" s="35"/>
+      <c r="AP52" s="27"/>
+    </row>
+    <row r="53" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O53" s="8"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="11"/>
+      <c r="R53" s="6"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="8"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-      <c r="Y53" s="19"/>
+      <c r="Y53" s="18"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="48"/>
+      <c r="AA53" s="42"/>
       <c r="AB53" s="6">
         <v>10</v>
       </c>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="25">
+      <c r="AE53" s="22">
         <v>11</v>
       </c>
-      <c r="AF53" s="43"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="24"/>
-      <c r="AJ53" s="24"/>
-      <c r="AK53" s="24"/>
-      <c r="AL53" s="25"/>
-      <c r="AM53" s="24"/>
-      <c r="AN53" s="40"/>
-      <c r="AO53" s="24"/>
-      <c r="AP53" s="31"/>
-      <c r="AQ53" s="24"/>
-    </row>
-    <row r="54" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AF53" s="1"/>
+      <c r="AH53" s="22"/>
+      <c r="AL53" s="22"/>
+      <c r="AN53" s="35"/>
+      <c r="AP53" s="27"/>
+    </row>
+    <row r="54" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O54" s="8"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="11"/>
+      <c r="R54" s="6"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="8"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-      <c r="Y54" s="19"/>
+      <c r="Y54" s="18"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="49"/>
+      <c r="AA54" s="43"/>
       <c r="AB54" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC54" s="38"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF54" s="25"/>
-      <c r="AG54" s="24"/>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="25"/>
-      <c r="AJ54" s="25"/>
-      <c r="AK54" s="24"/>
-      <c r="AL54" s="24"/>
-      <c r="AM54" s="24"/>
-      <c r="AN54" s="40"/>
-      <c r="AO54" s="25"/>
-      <c r="AP54" s="25"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="25"/>
-    </row>
-    <row r="55" spans="15:56" ht="15.75" thickBot="1">
+        <v>107</v>
+      </c>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF54" s="22"/>
+      <c r="AH54" s="22"/>
+      <c r="AI54" s="22"/>
+      <c r="AJ54" s="22"/>
+      <c r="AN54" s="35"/>
+      <c r="AO54" s="22"/>
+      <c r="AP54" s="22"/>
+      <c r="AR54" s="22"/>
+    </row>
+    <row r="55" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O55" s="8"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="11"/>
+      <c r="R55" s="6"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="8"/>
@@ -3241,32 +3015,23 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="50"/>
+      <c r="AA55" s="44"/>
       <c r="AB55" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC55" s="24"/>
-      <c r="AD55" s="24"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="25"/>
-      <c r="AG55" s="24"/>
-      <c r="AH55" s="43"/>
-      <c r="AI55" s="43"/>
-      <c r="AJ55" s="43"/>
-      <c r="AK55" s="24"/>
-      <c r="AL55" s="24"/>
-      <c r="AM55" s="24"/>
-      <c r="AN55" s="40"/>
-      <c r="AO55" s="24"/>
-      <c r="AP55" s="25"/>
-      <c r="AQ55" s="24"/>
-      <c r="AR55" s="24"/>
-    </row>
-    <row r="56" spans="15:56" ht="15.75" thickBot="1">
+        <v>108</v>
+      </c>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="22"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AN55" s="35"/>
+      <c r="AP55" s="22"/>
+    </row>
+    <row r="56" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O56" s="8"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="11"/>
+      <c r="R56" s="6"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="7"/>
@@ -3277,38 +3042,28 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="25">
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="22">
         <v>10</v>
       </c>
-      <c r="AC56" s="45"/>
-      <c r="AD56" s="24"/>
-      <c r="AE56" s="25">
+      <c r="AC56" s="39"/>
+      <c r="AE56" s="22">
         <v>11</v>
       </c>
-      <c r="AF56" s="43"/>
-      <c r="AG56" s="24"/>
-      <c r="AH56" s="29">
+      <c r="AF56" s="1"/>
+      <c r="AH56" s="22">
         <v>12</v>
       </c>
-      <c r="AI56" s="24"/>
-      <c r="AJ56" s="24"/>
-      <c r="AK56" s="24"/>
-      <c r="AL56" s="29">
+      <c r="AL56" s="22">
         <v>13</v>
       </c>
-      <c r="AM56" s="24"/>
-      <c r="AN56" s="40"/>
-      <c r="AO56" s="24"/>
-      <c r="AP56" s="24"/>
-      <c r="AQ56" s="24"/>
-      <c r="AR56" s="24"/>
-    </row>
-    <row r="57" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AN56" s="35"/>
+    </row>
+    <row r="57" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O57" s="8"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="11"/>
+      <c r="R57" s="6"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="8"/>
@@ -3317,39 +3072,34 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="49"/>
-      <c r="AB57" s="56" t="s">
+      <c r="AA57" s="43"/>
+      <c r="AB57" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC57" s="38"/>
+      <c r="AD57" s="34"/>
+      <c r="AE57" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="AC57" s="44"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="AI57" s="38"/>
-      <c r="AJ57" s="54"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM57" s="24"/>
-      <c r="AN57" s="40"/>
-      <c r="AO57" s="24"/>
-      <c r="AP57" s="24"/>
-      <c r="AQ57" s="24"/>
-      <c r="AR57" s="24"/>
-    </row>
-    <row r="58" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AF57" s="48"/>
+      <c r="AG57" s="34"/>
+      <c r="AH57" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI57" s="33"/>
+      <c r="AJ57" s="47"/>
+      <c r="AK57" s="34"/>
+      <c r="AL57" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN57" s="35"/>
+    </row>
+    <row r="58" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O58" s="8"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
       <c r="T58" s="2"/>
       <c r="U58" s="8"/>
       <c r="V58" s="2"/>
@@ -3358,31 +3108,25 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
-      <c r="AB58" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="24"/>
-      <c r="AE58" s="61"/>
-      <c r="AF58" s="43"/>
-      <c r="AH58" s="63"/>
-      <c r="AK58" s="40"/>
-      <c r="AL58" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM58" s="24"/>
-      <c r="AN58" s="40"/>
-      <c r="AO58" s="24"/>
-      <c r="AP58" s="24"/>
-      <c r="AQ58" s="24"/>
-      <c r="AR58" s="11"/>
-    </row>
-    <row r="59" spans="15:56">
+      <c r="AB58" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="1"/>
+      <c r="AH58" s="56"/>
+      <c r="AK58" s="35"/>
+      <c r="AL58" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN58" s="35"/>
+      <c r="AR58" s="6"/>
+    </row>
+    <row r="59" spans="15:56" x14ac:dyDescent="0.25">
       <c r="O59" s="8"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="11"/>
-      <c r="S59" s="11"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
       <c r="T59" s="2"/>
       <c r="U59" s="8"/>
       <c r="V59" s="2"/>
@@ -3391,26 +3135,20 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="43"/>
-      <c r="AF59" s="43"/>
-      <c r="AK59" s="40"/>
-      <c r="AL59" s="31"/>
-      <c r="AM59" s="24"/>
-      <c r="AN59" s="40"/>
-      <c r="AO59" s="24"/>
-      <c r="AP59" s="24"/>
-      <c r="AQ59" s="24"/>
-      <c r="AR59" s="11"/>
-    </row>
-    <row r="60" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AB59" s="2"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AK59" s="35"/>
+      <c r="AL59" s="27"/>
+      <c r="AN59" s="35"/>
+      <c r="AR59" s="6"/>
+    </row>
+    <row r="60" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O60" s="8"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
       <c r="T60" s="2"/>
       <c r="U60" s="8"/>
       <c r="V60" s="2"/>
@@ -3422,29 +3160,25 @@
       <c r="AB60" s="2"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AK60" s="40"/>
-      <c r="AL60" s="29">
+      <c r="AK60" s="35"/>
+      <c r="AL60" s="22">
         <v>13</v>
       </c>
-      <c r="AM60" s="24"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="29">
+      <c r="AN60" s="35"/>
+      <c r="AO60" s="22">
         <v>14</v>
       </c>
-      <c r="AP60" s="24"/>
-      <c r="AQ60" s="24"/>
-      <c r="AR60" s="25"/>
-      <c r="AS60" s="24"/>
-      <c r="AU60" s="29"/>
-      <c r="AX60" s="29"/>
-      <c r="BA60" s="29"/>
-    </row>
-    <row r="61" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AR60" s="22"/>
+      <c r="AU60" s="22"/>
+      <c r="AX60" s="22"/>
+      <c r="BA60" s="22"/>
+    </row>
+    <row r="61" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O61" s="8"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
       <c r="T61" s="2"/>
       <c r="U61" s="8"/>
       <c r="V61" s="2"/>
@@ -3456,26 +3190,24 @@
       <c r="AB61" s="2"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AK61" s="27"/>
-      <c r="AL61" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM61" s="38"/>
-      <c r="AN61" s="27"/>
-      <c r="AO61" s="62" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP61" s="38"/>
-      <c r="AQ61" s="24"/>
-      <c r="AR61" s="25"/>
-      <c r="AS61" s="24"/>
+      <c r="AK61" s="24"/>
+      <c r="AL61" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM61" s="33"/>
+      <c r="AN61" s="24"/>
+      <c r="AO61" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="AP61" s="33"/>
+      <c r="AR61" s="22"/>
       <c r="BD61" s="1"/>
     </row>
-    <row r="62" spans="15:56" ht="15.75" thickBot="1">
+    <row r="62" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O62" s="8"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
-      <c r="R62" s="11"/>
+      <c r="R62" s="6"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="8"/>
@@ -3494,75 +3226,68 @@
       </c>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AK62" s="24"/>
-      <c r="AL62" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM62" s="24"/>
-      <c r="AN62" s="40"/>
-      <c r="AO62" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ62" s="40"/>
-      <c r="AR62" s="24"/>
-      <c r="AS62" s="24"/>
-      <c r="AW62" s="39"/>
-      <c r="AX62" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA62" s="26" t="s">
+      <c r="AL62" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN62" s="35"/>
+      <c r="AO62" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ62" s="35"/>
+      <c r="AW62" s="34"/>
+      <c r="AX62" s="23" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="63" spans="15:56" ht="15.75" thickBot="1">
+      <c r="BA62" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O63" s="8"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
-      <c r="R63" s="11"/>
+      <c r="R63" s="6"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="7"/>
       <c r="V63" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="W63" s="13"/>
+      <c r="X63" s="13"/>
+      <c r="Y63" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W63" s="14"/>
-      <c r="X63" s="14"/>
-      <c r="Y63" s="10" t="s">
+      <c r="Z63" s="13"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="Z63" s="14"/>
-      <c r="AA63" s="11"/>
-      <c r="AB63" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="39"/>
+      <c r="AG63" s="34"/>
       <c r="AH63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK63" s="24"/>
-      <c r="AM63" s="24"/>
-      <c r="AN63" s="40"/>
-      <c r="AO63" s="24"/>
-      <c r="AQ63" s="40"/>
-      <c r="AR63" s="29">
+        <v>163</v>
+      </c>
+      <c r="AN63" s="35"/>
+      <c r="AQ63" s="35"/>
+      <c r="AR63" s="22">
         <v>15</v>
       </c>
-      <c r="AU63" s="29">
+      <c r="AU63" s="22">
         <v>16</v>
       </c>
-      <c r="AW63" s="40"/>
-      <c r="AX63" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA63" s="27"/>
-    </row>
-    <row r="64" spans="15:56" ht="15.75" thickBot="1">
+      <c r="AW63" s="35"/>
+      <c r="AX63" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="BA63" s="24"/>
+    </row>
+    <row r="64" spans="15:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O64" s="8"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
-      <c r="R64" s="11"/>
+      <c r="R64" s="6"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="8"/>
@@ -3575,30 +3300,27 @@
       <c r="AB64" s="7"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="40"/>
+      <c r="AG64" s="35"/>
       <c r="AH64" s="7"/>
-      <c r="AK64" s="24"/>
-      <c r="AM64" s="24"/>
-      <c r="AN64" s="40"/>
-      <c r="AO64" s="24"/>
-      <c r="AQ64" s="27"/>
-      <c r="AR64" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS64" s="38"/>
-      <c r="AT64" s="39"/>
-      <c r="AU64" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV64" s="27"/>
-      <c r="AW64" s="40"/>
-      <c r="AX64" s="25"/>
-    </row>
-    <row r="65" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AN64" s="35"/>
+      <c r="AQ64" s="24"/>
+      <c r="AR64" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="34"/>
+      <c r="AU64" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV64" s="24"/>
+      <c r="AW64" s="35"/>
+      <c r="AX64" s="22"/>
+    </row>
+    <row r="65" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O65" s="8"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
-      <c r="R65" s="11"/>
+      <c r="R65" s="6"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="8"/>
@@ -3613,27 +3335,23 @@
       </c>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="40"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="40"/>
-      <c r="AO65" s="24"/>
-      <c r="AQ65" s="40"/>
-      <c r="AR65" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT65" s="40"/>
-      <c r="AU65" s="67" t="s">
+      <c r="AG65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AQ65" s="35"/>
+      <c r="AR65" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="AW65" s="40"/>
-    </row>
-    <row r="66" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AT65" s="35"/>
+      <c r="AU65" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW65" s="35"/>
+    </row>
+    <row r="66" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O66" s="8"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
-      <c r="R66" s="11"/>
+      <c r="R66" s="6"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="8"/>
@@ -3644,35 +3362,31 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="7"/>
       <c r="AB66" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
-      <c r="AG66" s="27"/>
+      <c r="AG66" s="24"/>
       <c r="AH66" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="24"/>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="24"/>
-      <c r="AQ66" s="40"/>
-      <c r="AR66" s="66"/>
-      <c r="AT66" s="40"/>
-      <c r="AU66" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW66" s="27"/>
-      <c r="AX66" s="26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="15:50" ht="15.75" thickBot="1">
+        <v>161</v>
+      </c>
+      <c r="AN66" s="35"/>
+      <c r="AQ66" s="35"/>
+      <c r="AR66" s="59"/>
+      <c r="AT66" s="35"/>
+      <c r="AU66" s="61" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O67" s="8"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
-      <c r="R67" s="11"/>
+      <c r="R67" s="6"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="8"/>
@@ -3685,28 +3399,25 @@
       <c r="AB67" s="7"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="40"/>
+      <c r="AG67" s="35"/>
       <c r="AH67" s="7"/>
-      <c r="AL67" s="24"/>
-      <c r="AM67" s="24"/>
-      <c r="AN67" s="40"/>
-      <c r="AO67" s="24"/>
-      <c r="AQ67" s="40"/>
-      <c r="AR67" s="29">
+      <c r="AN67" s="35"/>
+      <c r="AQ67" s="35"/>
+      <c r="AR67" s="22">
         <v>15</v>
       </c>
-      <c r="AT67" s="40"/>
-      <c r="AU67" s="29">
+      <c r="AT67" s="35"/>
+      <c r="AU67" s="22">
         <v>16</v>
       </c>
-      <c r="AW67" s="40"/>
-      <c r="AX67" s="27"/>
-    </row>
-    <row r="68" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AW67" s="35"/>
+      <c r="AX67" s="24"/>
+    </row>
+    <row r="68" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O68" s="8"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
-      <c r="R68" s="11"/>
+      <c r="R68" s="6"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="8"/>
@@ -3719,29 +3430,27 @@
       <c r="AB68" s="6">
         <v>10</v>
       </c>
-      <c r="AE68" s="25">
+      <c r="AE68" s="22">
         <v>11</v>
       </c>
-      <c r="AF68" s="43"/>
-      <c r="AG68" s="40"/>
-      <c r="AL68" s="24"/>
-      <c r="AM68" s="24"/>
-      <c r="AN68" s="40"/>
-      <c r="AQ68" s="27"/>
-      <c r="AR68" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT68" s="27"/>
-      <c r="AU68" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW68" s="40"/>
-    </row>
-    <row r="69" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT68" s="24"/>
+      <c r="AU68" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW68" s="35"/>
+    </row>
+    <row r="69" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O69" s="8"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
-      <c r="R69" s="11"/>
+      <c r="R69" s="6"/>
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="8"/>
@@ -3752,34 +3461,34 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="3"/>
       <c r="AB69" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="39"/>
+        <v>48</v>
+      </c>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="34"/>
       <c r="AE69" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF69" s="55"/>
-      <c r="AG69" s="27"/>
+        <v>155</v>
+      </c>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="24"/>
       <c r="AH69" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN69" s="40"/>
-      <c r="AR69" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT69" s="40"/>
-      <c r="AU69" s="35"/>
-      <c r="AW69" s="27"/>
-      <c r="AX69" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="15:50" ht="15.75" thickBot="1">
+        <v>162</v>
+      </c>
+      <c r="AN69" s="35"/>
+      <c r="AR69" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT69" s="35"/>
+      <c r="AU69" s="30"/>
+      <c r="AW69" s="24"/>
+      <c r="AX69" s="23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O70" s="8"/>
-      <c r="P70" s="18"/>
+      <c r="P70" s="17"/>
       <c r="Q70" s="2"/>
-      <c r="R70" s="11"/>
+      <c r="R70" s="6"/>
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="8"/>
@@ -3790,27 +3499,27 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="7"/>
-      <c r="AD70" s="51"/>
+      <c r="AD70" s="45"/>
       <c r="AE70" s="7"/>
       <c r="AF70" s="1"/>
       <c r="AH70" s="7"/>
-      <c r="AN70" s="40"/>
-      <c r="AR70" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT70" s="40"/>
-      <c r="AU70" s="29">
+      <c r="AN70" s="35"/>
+      <c r="AR70" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT70" s="35"/>
+      <c r="AU70" s="22">
         <v>16</v>
       </c>
-      <c r="AX70" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="71" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AX70" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O71" s="8"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
-      <c r="R71" s="11"/>
+      <c r="R71" s="6"/>
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="8"/>
@@ -3825,22 +3534,22 @@
       <c r="AB71" s="6">
         <v>10</v>
       </c>
-      <c r="AD71" s="40"/>
-      <c r="AE71" s="29">
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="22">
         <v>11</v>
       </c>
       <c r="AF71" s="1"/>
-      <c r="AN71" s="40"/>
-      <c r="AT71" s="27"/>
-      <c r="AU71" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AN71" s="35"/>
+      <c r="AT71" s="24"/>
+      <c r="AU71" s="23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O72" s="8"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
-      <c r="R72" s="11"/>
+      <c r="R72" s="6"/>
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="8"/>
@@ -3848,27 +3557,27 @@
       <c r="W72" s="2"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z72" s="3"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD72" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="AD72" s="24"/>
       <c r="AE72" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF72" s="1"/>
-      <c r="AN72" s="40"/>
-      <c r="AO72" s="29"/>
-      <c r="AU72" s="35"/>
-    </row>
-    <row r="73" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AN72" s="35"/>
+      <c r="AO72" s="22"/>
+      <c r="AU72" s="30"/>
+    </row>
+    <row r="73" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O73" s="8"/>
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
-      <c r="R73" s="11"/>
+      <c r="R73" s="6"/>
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="8"/>
@@ -3879,25 +3588,25 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="7"/>
-      <c r="AD73" s="40"/>
+      <c r="AD73" s="35"/>
       <c r="AE73" s="7"/>
       <c r="AF73" s="1"/>
-      <c r="AN73" s="27"/>
-      <c r="AO73" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP73" s="38"/>
-      <c r="AQ73" s="39"/>
-      <c r="AR73" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU73" s="41"/>
-    </row>
-    <row r="74" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AN73" s="24"/>
+      <c r="AO73" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP73" s="33"/>
+      <c r="AQ73" s="34"/>
+      <c r="AR73" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU73" s="36"/>
+    </row>
+    <row r="74" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O74" s="8"/>
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
-      <c r="R74" s="11"/>
+      <c r="R74" s="6"/>
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="8"/>
@@ -3910,23 +3619,22 @@
       <c r="AB74" s="6">
         <v>10</v>
       </c>
-      <c r="AD74" s="40"/>
-      <c r="AE74" s="29">
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="22">
         <v>11</v>
       </c>
       <c r="AF74" s="1"/>
-      <c r="AN74" s="24"/>
-      <c r="AO74" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR74" s="27"/>
-      <c r="AU74" s="41"/>
-    </row>
-    <row r="75" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AO74" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR74" s="24"/>
+      <c r="AU74" s="36"/>
+    </row>
+    <row r="75" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O75" s="8"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
-      <c r="R75" s="11"/>
+      <c r="R75" s="6"/>
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="8"/>
@@ -3937,20 +3645,20 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="7"/>
       <c r="AB75" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD75" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="AD75" s="24"/>
       <c r="AE75" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF75" s="1"/>
-      <c r="AO75" s="31"/>
-    </row>
-    <row r="76" spans="15:50" ht="15.75" thickBot="1">
+      <c r="AO75" s="27"/>
+    </row>
+    <row r="76" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O76" s="8"/>
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
-      <c r="R76" s="11"/>
+      <c r="R76" s="6"/>
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="8"/>
@@ -3963,16 +3671,12 @@
       <c r="AB76" s="7"/>
       <c r="AE76" s="7"/>
       <c r="AF76" s="1"/>
-      <c r="AR76" s="24"/>
-      <c r="AS76" s="24"/>
-      <c r="AT76" s="24"/>
-      <c r="AU76" s="24"/>
-    </row>
-    <row r="77" spans="15:50" ht="15.75" thickBot="1">
+    </row>
+    <row r="77" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O77" s="8"/>
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
-      <c r="R77" s="11"/>
+      <c r="R77" s="6"/>
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="8"/>
@@ -3987,16 +3691,12 @@
       <c r="AB77" s="2"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AR77" s="24"/>
-      <c r="AS77" s="24"/>
-      <c r="AT77" s="24"/>
-      <c r="AU77" s="24"/>
-    </row>
-    <row r="78" spans="15:50" ht="15.75" thickBot="1">
+    </row>
+    <row r="78" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O78" s="8"/>
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
-      <c r="R78" s="11"/>
+      <c r="R78" s="6"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="8"/>
@@ -4004,23 +3704,19 @@
       <c r="W78" s="2"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AR78" s="24"/>
-      <c r="AS78" s="24"/>
-      <c r="AT78" s="24"/>
-      <c r="AU78" s="24"/>
-    </row>
-    <row r="79" spans="15:50">
+    </row>
+    <row r="79" spans="15:50" x14ac:dyDescent="0.25">
       <c r="O79" s="8"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="11"/>
+      <c r="R79" s="6"/>
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="8"/>
@@ -4028,23 +3724,19 @@
       <c r="W79" s="2"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AR79" s="24"/>
-      <c r="AS79" s="24"/>
-      <c r="AT79" s="24"/>
-      <c r="AU79" s="24"/>
-    </row>
-    <row r="80" spans="15:50" ht="15.75" thickBot="1">
+    </row>
+    <row r="80" spans="15:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O80" s="8"/>
       <c r="P80" s="2"/>
       <c r="Q80" s="2"/>
-      <c r="R80" s="11"/>
+      <c r="R80" s="6"/>
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="8"/>
@@ -4052,79 +3744,65 @@
       <c r="W80" s="2"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
-      <c r="AR80" s="24"/>
-      <c r="AS80" s="24"/>
-      <c r="AT80" s="24"/>
-      <c r="AU80" s="24"/>
-    </row>
-    <row r="81" spans="15:53" ht="15.75" thickBot="1">
+    </row>
+    <row r="81" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O81" s="8"/>
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
-      <c r="R81" s="11"/>
+      <c r="R81" s="6"/>
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="8"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="8"/>
-      <c r="Y81" s="24"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
-      <c r="AR81" s="24"/>
-      <c r="AS81" s="24"/>
-      <c r="AT81" s="24"/>
-      <c r="AU81" s="24"/>
-      <c r="AV81" s="54"/>
-      <c r="AW81" s="39"/>
-      <c r="AX81" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="15:53" ht="15.75" thickBot="1">
+      <c r="AV81" s="47"/>
+      <c r="AW81" s="34"/>
+      <c r="AX81" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O82" s="8"/>
       <c r="P82" s="2"/>
       <c r="Q82" s="2"/>
-      <c r="R82" s="11"/>
+      <c r="R82" s="6"/>
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="8"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="48"/>
-      <c r="Y82" s="24"/>
+      <c r="X82" s="42"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
-      <c r="AR82" s="24"/>
-      <c r="AS82" s="24"/>
-      <c r="AT82" s="24"/>
-      <c r="AU82" s="24"/>
-      <c r="AX82" s="27"/>
-    </row>
-    <row r="83" spans="15:53" ht="15.75" thickBot="1">
+      <c r="AX82" s="24"/>
+    </row>
+    <row r="83" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O83" s="8"/>
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
-      <c r="R83" s="11"/>
+      <c r="R83" s="6"/>
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="8"/>
-      <c r="V83" s="11"/>
+      <c r="V83" s="6"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="48"/>
+      <c r="X83" s="42"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
@@ -4132,37 +3810,37 @@
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
     </row>
-    <row r="84" spans="15:53" ht="15.75" thickBot="1">
+    <row r="84" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O84" s="8"/>
       <c r="P84" s="2"/>
       <c r="Q84" s="2"/>
-      <c r="R84" s="11"/>
+      <c r="R84" s="6"/>
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="8"/>
-      <c r="V84" s="11"/>
+      <c r="V84" s="6"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="49"/>
+      <c r="X84" s="43"/>
       <c r="Y84" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
-      <c r="AX84" s="26" t="s">
+      <c r="AX84" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="BA84" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="BA84" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="15:53" ht="15.75" thickBot="1">
+    </row>
+    <row r="85" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O85" s="8"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="11"/>
+      <c r="R85" s="6"/>
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="8"/>
@@ -4172,26 +3850,26 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AX85" s="27"/>
-      <c r="BA85" s="27"/>
-    </row>
-    <row r="86" spans="15:53" ht="15.75" thickBot="1">
+      <c r="AX85" s="24"/>
+      <c r="BA85" s="24"/>
+    </row>
+    <row r="86" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O86" s="8"/>
       <c r="P86" s="2"/>
       <c r="Q86" s="2"/>
-      <c r="R86" s="11"/>
+      <c r="R86" s="6"/>
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="7"/>
       <c r="V86" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
@@ -4202,7 +3880,7 @@
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
     </row>
-    <row r="87" spans="15:53" ht="15.75" thickBot="1">
+    <row r="87" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O87" s="8"/>
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
@@ -4211,7 +3889,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="V87" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
@@ -4222,7 +3900,7 @@
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
     </row>
-    <row r="88" spans="15:53">
+    <row r="88" spans="15:53" x14ac:dyDescent="0.25">
       <c r="O88" s="8"/>
       <c r="P88" s="2"/>
       <c r="Q88" s="2"/>
@@ -4240,7 +3918,7 @@
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
     </row>
-    <row r="89" spans="15:53">
+    <row r="89" spans="15:53" x14ac:dyDescent="0.25">
       <c r="O89" s="8"/>
       <c r="P89" s="2"/>
       <c r="Q89" s="2"/>
@@ -4258,7 +3936,7 @@
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
     </row>
-    <row r="90" spans="15:53">
+    <row r="90" spans="15:53" x14ac:dyDescent="0.25">
       <c r="O90" s="8"/>
       <c r="P90" s="2"/>
       <c r="Q90" s="2"/>
@@ -4276,7 +3954,7 @@
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
     </row>
-    <row r="91" spans="15:53">
+    <row r="91" spans="15:53" x14ac:dyDescent="0.25">
       <c r="O91" s="8"/>
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
@@ -4294,7 +3972,7 @@
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="15:53">
+    <row r="92" spans="15:53" x14ac:dyDescent="0.25">
       <c r="O92" s="8"/>
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
@@ -4312,7 +3990,7 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="15:53" ht="15.75" thickBot="1">
+    <row r="93" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O93" s="8"/>
       <c r="P93" s="6" t="s">
         <v>7</v>
@@ -4340,39 +4018,39 @@
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
     </row>
-    <row r="94" spans="15:53" ht="15.75" thickBot="1">
+    <row r="94" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O94" s="7"/>
       <c r="P94" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="13"/>
+      <c r="S94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
-      <c r="S94" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="T94" s="14"/>
+      <c r="T94" s="13"/>
       <c r="U94" s="4"/>
       <c r="V94" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W94" s="14"/>
+        <v>56</v>
+      </c>
+      <c r="W94" s="13"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z94" s="14"/>
+        <v>57</v>
+      </c>
+      <c r="Z94" s="13"/>
       <c r="AA94" s="4"/>
       <c r="AB94" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AO94" s="25"/>
-    </row>
-    <row r="95" spans="15:53" ht="15.75" thickBot="1">
-      <c r="O95" s="11"/>
+      <c r="AO94" s="22"/>
+    </row>
+    <row r="95" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O95" s="6"/>
       <c r="P95" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" s="5"/>
@@ -4388,24 +4066,24 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
       <c r="AG95" s="2"/>
-      <c r="AO95" s="31"/>
-    </row>
-    <row r="96" spans="15:53" ht="15.75" thickBot="1">
+      <c r="AO95" s="27"/>
+    </row>
+    <row r="96" spans="15:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O96" s="2"/>
       <c r="P96" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" s="8"/>
       <c r="S96" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T96" s="2"/>
       <c r="U96" s="8"/>
@@ -4423,9 +4101,9 @@
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
       <c r="AG96" s="2"/>
-      <c r="AO96" s="31"/>
-    </row>
-    <row r="97" spans="15:33" ht="15.75" thickBot="1">
+      <c r="AO96" s="27"/>
+    </row>
+    <row r="97" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
@@ -4440,7 +4118,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="7"/>
       <c r="AB97" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
@@ -4448,7 +4126,7 @@
       <c r="AF97" s="1"/>
       <c r="AG97" s="2"/>
     </row>
-    <row r="98" spans="15:33" ht="15.75" thickBot="1">
+    <row r="98" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
@@ -4469,7 +4147,7 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="2"/>
     </row>
-    <row r="99" spans="15:33" ht="15.75" thickBot="1">
+    <row r="99" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
       <c r="Q99" s="2"/>
@@ -4492,7 +4170,7 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="2"/>
     </row>
-    <row r="100" spans="15:33" ht="15.75" thickBot="1">
+    <row r="100" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
@@ -4507,7 +4185,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="7"/>
       <c r="AB100" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
@@ -4515,7 +4193,7 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="2"/>
     </row>
-    <row r="101" spans="15:33" ht="15.75" thickBot="1">
+    <row r="101" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
@@ -4530,7 +4208,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
@@ -4538,7 +4216,7 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="2"/>
     </row>
-    <row r="102" spans="15:33" ht="15.75" thickBot="1">
+    <row r="102" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
@@ -4561,7 +4239,7 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="2"/>
     </row>
-    <row r="103" spans="15:33" ht="15.75" thickBot="1">
+    <row r="103" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
       <c r="Q103" s="2"/>
@@ -4576,7 +4254,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="7"/>
       <c r="AB103" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
@@ -4584,7 +4262,7 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="2"/>
     </row>
-    <row r="104" spans="15:33" ht="15.75" thickBot="1">
+    <row r="104" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
       <c r="Q104" s="2"/>
@@ -4599,7 +4277,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="8"/>
       <c r="AB104" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
@@ -4607,7 +4285,7 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="2"/>
     </row>
-    <row r="105" spans="15:33" ht="15.75" thickBot="1">
+    <row r="105" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
       <c r="Q105" s="2"/>
@@ -4630,7 +4308,7 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="2"/>
     </row>
-    <row r="106" spans="15:33" ht="15.75" thickBot="1">
+    <row r="106" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
       <c r="Q106" s="2"/>
@@ -4645,7 +4323,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="7"/>
       <c r="AB106" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
@@ -4653,7 +4331,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="2"/>
     </row>
-    <row r="107" spans="15:33" ht="15.75" thickBot="1">
+    <row r="107" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
       <c r="Q107" s="2"/>
@@ -4674,7 +4352,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="2"/>
     </row>
-    <row r="108" spans="15:33">
+    <row r="108" spans="15:33" x14ac:dyDescent="0.25">
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
       <c r="Q108" s="2"/>
@@ -4695,7 +4373,7 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="2"/>
     </row>
-    <row r="109" spans="15:33" ht="15.75" thickBot="1">
+    <row r="109" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
       <c r="Q109" s="2"/>
@@ -4718,7 +4396,7 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="2"/>
     </row>
-    <row r="110" spans="15:33" ht="15.75" thickBot="1">
+    <row r="110" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
       <c r="Q110" s="2"/>
@@ -4734,16 +4412,16 @@
       </c>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
-      <c r="AB110" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC110" s="79"/>
+      <c r="AB110" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC110" s="75"/>
       <c r="AD110" s="2"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
       <c r="AG110" s="2"/>
     </row>
-    <row r="111" spans="15:33" ht="15.75" thickBot="1">
+    <row r="111" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R111" s="8"/>
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
@@ -4752,20 +4430,20 @@
       <c r="W111" s="2"/>
       <c r="X111" s="3"/>
       <c r="Y111" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="4"/>
-      <c r="AB111" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC111" s="83"/>
-      <c r="AD111" s="11"/>
+      <c r="AB111" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC111" s="84"/>
+      <c r="AD111" s="6"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
-      <c r="AG111" s="11"/>
-    </row>
-    <row r="112" spans="15:33" ht="15.75" thickBot="1">
+      <c r="AG111" s="6"/>
+    </row>
+    <row r="112" spans="15:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R112" s="8"/>
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
@@ -4776,16 +4454,16 @@
       <c r="Y112" s="7"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="84" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC112" s="85"/>
-      <c r="AD112" s="11"/>
-      <c r="AE112" s="11"/>
-      <c r="AF112" s="11"/>
-      <c r="AG112" s="11"/>
-    </row>
-    <row r="113" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AB112" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC112" s="86"/>
+      <c r="AD112" s="6"/>
+      <c r="AE112" s="6"/>
+      <c r="AF112" s="6"/>
+      <c r="AG112" s="6"/>
+    </row>
+    <row r="113" spans="18:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R113" s="8"/>
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
@@ -4796,16 +4474,16 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="8"/>
-      <c r="AB113" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC113" s="87"/>
-      <c r="AD113" s="11"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="11"/>
-    </row>
-    <row r="114" spans="18:33">
+      <c r="AB113" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC113" s="88"/>
+      <c r="AD113" s="6"/>
+      <c r="AE113" s="2"/>
+      <c r="AF113" s="2"/>
+      <c r="AG113" s="6"/>
+    </row>
+    <row r="114" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R114" s="8"/>
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
@@ -4818,12 +4496,12 @@
       <c r="AA114" s="8"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="11"/>
-      <c r="AE114" s="22"/>
-      <c r="AF114" s="22"/>
-      <c r="AG114" s="11"/>
-    </row>
-    <row r="115" spans="18:33">
+      <c r="AD114" s="6"/>
+      <c r="AE114" s="2"/>
+      <c r="AF114" s="2"/>
+      <c r="AG114" s="6"/>
+    </row>
+    <row r="115" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R115" s="8"/>
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
@@ -4836,12 +4514,12 @@
       <c r="AA115" s="8"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="11"/>
-      <c r="AE115" s="22"/>
-      <c r="AF115" s="22"/>
-      <c r="AG115" s="22"/>
-    </row>
-    <row r="116" spans="18:33">
+      <c r="AD115" s="6"/>
+      <c r="AE115" s="2"/>
+      <c r="AF115" s="2"/>
+      <c r="AG115" s="2"/>
+    </row>
+    <row r="116" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R116" s="8"/>
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
@@ -4854,12 +4532,12 @@
       <c r="AA116" s="8"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="11"/>
-      <c r="AE116" s="11"/>
-      <c r="AF116" s="11"/>
-      <c r="AG116" s="22"/>
-    </row>
-    <row r="117" spans="18:33">
+      <c r="AD116" s="6"/>
+      <c r="AE116" s="6"/>
+      <c r="AF116" s="6"/>
+      <c r="AG116" s="2"/>
+    </row>
+    <row r="117" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R117" s="8"/>
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
@@ -4872,12 +4550,12 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
-      <c r="AD117" s="11"/>
-      <c r="AE117" s="11"/>
-      <c r="AF117" s="11"/>
-      <c r="AG117" s="11"/>
-    </row>
-    <row r="118" spans="18:33">
+      <c r="AD117" s="6"/>
+      <c r="AE117" s="6"/>
+      <c r="AF117" s="6"/>
+      <c r="AG117" s="6"/>
+    </row>
+    <row r="118" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R118" s="8"/>
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
@@ -4890,12 +4568,12 @@
       <c r="AA118" s="8"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="11"/>
-      <c r="AE118" s="11"/>
-      <c r="AF118" s="11"/>
-      <c r="AG118" s="11"/>
-    </row>
-    <row r="119" spans="18:33">
+      <c r="AD118" s="6"/>
+      <c r="AE118" s="6"/>
+      <c r="AF118" s="6"/>
+      <c r="AG118" s="6"/>
+    </row>
+    <row r="119" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R119" s="8"/>
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
@@ -4908,12 +4586,12 @@
       <c r="AA119" s="8"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="11"/>
-      <c r="AE119" s="22"/>
-      <c r="AF119" s="22"/>
-      <c r="AG119" s="11"/>
-    </row>
-    <row r="120" spans="18:33">
+      <c r="AD119" s="6"/>
+      <c r="AE119" s="2"/>
+      <c r="AF119" s="2"/>
+      <c r="AG119" s="6"/>
+    </row>
+    <row r="120" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R120" s="8"/>
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
@@ -4926,12 +4604,12 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="11"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="11"/>
-    </row>
-    <row r="121" spans="18:33">
+      <c r="AD120" s="6"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="6"/>
+    </row>
+    <row r="121" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R121" s="8"/>
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
@@ -4944,12 +4622,12 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="11"/>
-      <c r="AE121" s="22"/>
-      <c r="AF121" s="22"/>
-      <c r="AG121" s="11"/>
-    </row>
-    <row r="122" spans="18:33">
+      <c r="AD121" s="6"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="6"/>
+    </row>
+    <row r="122" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R122" s="8"/>
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
@@ -4962,12 +4640,12 @@
       <c r="AA122" s="8"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="11"/>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="11"/>
-    </row>
-    <row r="123" spans="18:33">
+      <c r="AD122" s="6"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="2"/>
+      <c r="AG122" s="6"/>
+    </row>
+    <row r="123" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R123" s="8"/>
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
@@ -4980,12 +4658,12 @@
       <c r="AA123" s="8"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="11"/>
-      <c r="AE123" s="22"/>
-      <c r="AF123" s="22"/>
-      <c r="AG123" s="11"/>
-    </row>
-    <row r="124" spans="18:33">
+      <c r="AD123" s="6"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="6"/>
+    </row>
+    <row r="124" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R124" s="8"/>
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
@@ -4998,12 +4676,12 @@
       <c r="AA124" s="8"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="11"/>
-      <c r="AE124" s="22"/>
-      <c r="AF124" s="22"/>
-      <c r="AG124" s="22"/>
-    </row>
-    <row r="125" spans="18:33">
+      <c r="AD124" s="6"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+    </row>
+    <row r="125" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R125" s="8"/>
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
@@ -5016,12 +4694,12 @@
       <c r="AA125" s="8"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="11"/>
-      <c r="AE125" s="11"/>
-      <c r="AF125" s="11"/>
-      <c r="AG125" s="22"/>
-    </row>
-    <row r="126" spans="18:33">
+      <c r="AD125" s="6"/>
+      <c r="AE125" s="6"/>
+      <c r="AF125" s="6"/>
+      <c r="AG125" s="2"/>
+    </row>
+    <row r="126" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R126" s="8"/>
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
@@ -5033,13 +4711,13 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="8"/>
       <c r="AB126" s="2"/>
-      <c r="AC126" s="11"/>
-      <c r="AD126" s="11"/>
-      <c r="AE126" s="11"/>
-      <c r="AF126" s="11"/>
-      <c r="AG126" s="11"/>
-    </row>
-    <row r="127" spans="18:33">
+      <c r="AC126" s="6"/>
+      <c r="AD126" s="6"/>
+      <c r="AE126" s="6"/>
+      <c r="AF126" s="6"/>
+      <c r="AG126" s="6"/>
+    </row>
+    <row r="127" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R127" s="8"/>
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
@@ -5052,12 +4730,12 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
-      <c r="AD127" s="11"/>
-      <c r="AE127" s="11"/>
-      <c r="AF127" s="11"/>
-      <c r="AG127" s="11"/>
-    </row>
-    <row r="128" spans="18:33">
+      <c r="AD127" s="6"/>
+      <c r="AE127" s="6"/>
+      <c r="AF127" s="6"/>
+      <c r="AG127" s="6"/>
+    </row>
+    <row r="128" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R128" s="8"/>
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
@@ -5070,12 +4748,12 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
-      <c r="AD128" s="11"/>
-      <c r="AE128" s="22"/>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="11"/>
-    </row>
-    <row r="129" spans="18:33">
+      <c r="AD128" s="6"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="6"/>
+    </row>
+    <row r="129" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R129" s="8"/>
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
@@ -5088,12 +4766,12 @@
       <c r="AA129" s="8"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="11"/>
-      <c r="AE129" s="22"/>
-      <c r="AF129" s="22"/>
-      <c r="AG129" s="11"/>
-    </row>
-    <row r="130" spans="18:33">
+      <c r="AD129" s="6"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="6"/>
+    </row>
+    <row r="130" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R130" s="8"/>
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
@@ -5106,12 +4784,12 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="11"/>
-      <c r="AE130" s="22"/>
-      <c r="AF130" s="22"/>
-      <c r="AG130" s="22"/>
-    </row>
-    <row r="131" spans="18:33">
+      <c r="AD130" s="6"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+    </row>
+    <row r="131" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R131" s="8"/>
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
@@ -5124,12 +4802,12 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="11"/>
-      <c r="AE131" s="11"/>
-      <c r="AF131" s="11"/>
-      <c r="AG131" s="22"/>
-    </row>
-    <row r="132" spans="18:33">
+      <c r="AD131" s="6"/>
+      <c r="AE131" s="6"/>
+      <c r="AF131" s="6"/>
+      <c r="AG131" s="2"/>
+    </row>
+    <row r="132" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R132" s="8"/>
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
@@ -5142,12 +4820,12 @@
       <c r="AA132" s="8"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="11"/>
-      <c r="AE132" s="11"/>
-      <c r="AF132" s="11"/>
-      <c r="AG132" s="22"/>
-    </row>
-    <row r="133" spans="18:33">
+      <c r="AD132" s="6"/>
+      <c r="AE132" s="6"/>
+      <c r="AF132" s="6"/>
+      <c r="AG132" s="2"/>
+    </row>
+    <row r="133" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R133" s="8"/>
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
@@ -5160,12 +4838,12 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
-      <c r="AD133" s="11"/>
-      <c r="AE133" s="11"/>
-      <c r="AF133" s="11"/>
-      <c r="AG133" s="22"/>
-    </row>
-    <row r="134" spans="18:33">
+      <c r="AD133" s="6"/>
+      <c r="AE133" s="6"/>
+      <c r="AF133" s="6"/>
+      <c r="AG133" s="2"/>
+    </row>
+    <row r="134" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R134" s="8"/>
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
@@ -5178,12 +4856,12 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
-      <c r="AD134" s="11"/>
-      <c r="AE134" s="11"/>
-      <c r="AF134" s="11"/>
-      <c r="AG134" s="22"/>
-    </row>
-    <row r="135" spans="18:33">
+      <c r="AD134" s="6"/>
+      <c r="AE134" s="6"/>
+      <c r="AF134" s="6"/>
+      <c r="AG134" s="2"/>
+    </row>
+    <row r="135" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R135" s="8"/>
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
@@ -5196,12 +4874,12 @@
       <c r="AA135" s="8"/>
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
-      <c r="AD135" s="11"/>
-      <c r="AE135" s="11"/>
-      <c r="AF135" s="11"/>
-      <c r="AG135" s="22"/>
-    </row>
-    <row r="136" spans="18:33">
+      <c r="AD135" s="6"/>
+      <c r="AE135" s="6"/>
+      <c r="AF135" s="6"/>
+      <c r="AG135" s="2"/>
+    </row>
+    <row r="136" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R136" s="8"/>
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
@@ -5214,12 +4892,12 @@
       <c r="AA136" s="8"/>
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
-      <c r="AD136" s="11"/>
-      <c r="AE136" s="23"/>
-      <c r="AF136" s="23"/>
-      <c r="AG136" s="22"/>
-    </row>
-    <row r="137" spans="18:33">
+      <c r="AD136" s="6"/>
+      <c r="AE136" s="21"/>
+      <c r="AF136" s="21"/>
+      <c r="AG136" s="2"/>
+    </row>
+    <row r="137" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R137" s="8"/>
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
@@ -5232,12 +4910,12 @@
       <c r="AA137" s="8"/>
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
-      <c r="AD137" s="11"/>
-      <c r="AE137" s="71"/>
-      <c r="AF137" s="71"/>
-      <c r="AG137" s="71"/>
-    </row>
-    <row r="138" spans="18:33">
+      <c r="AD137" s="6"/>
+      <c r="AE137" s="76"/>
+      <c r="AF137" s="76"/>
+      <c r="AG137" s="76"/>
+    </row>
+    <row r="138" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R138" s="8"/>
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
@@ -5250,12 +4928,12 @@
       <c r="AA138" s="8"/>
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
-      <c r="AD138" s="11"/>
-      <c r="AE138" s="11"/>
-      <c r="AF138" s="11"/>
-      <c r="AG138" s="22"/>
-    </row>
-    <row r="139" spans="18:33">
+      <c r="AD138" s="6"/>
+      <c r="AE138" s="6"/>
+      <c r="AF138" s="6"/>
+      <c r="AG138" s="2"/>
+    </row>
+    <row r="139" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R139" s="8"/>
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
@@ -5268,12 +4946,12 @@
       <c r="AA139" s="8"/>
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
-      <c r="AD139" s="11"/>
-      <c r="AE139" s="11"/>
-      <c r="AF139" s="11"/>
-      <c r="AG139" s="22"/>
-    </row>
-    <row r="140" spans="18:33">
+      <c r="AD139" s="6"/>
+      <c r="AE139" s="6"/>
+      <c r="AF139" s="6"/>
+      <c r="AG139" s="2"/>
+    </row>
+    <row r="140" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R140" s="8"/>
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
@@ -5286,12 +4964,12 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
-      <c r="AD140" s="11"/>
-      <c r="AE140" s="11"/>
-      <c r="AF140" s="11"/>
-      <c r="AG140" s="11"/>
-    </row>
-    <row r="141" spans="18:33">
+      <c r="AD140" s="6"/>
+      <c r="AE140" s="6"/>
+      <c r="AF140" s="6"/>
+      <c r="AG140" s="6"/>
+    </row>
+    <row r="141" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R141" s="8"/>
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
@@ -5304,12 +4982,12 @@
       <c r="AA141" s="8"/>
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
-      <c r="AD141" s="11"/>
-      <c r="AE141" s="22"/>
-      <c r="AF141" s="22"/>
-      <c r="AG141" s="11"/>
-    </row>
-    <row r="142" spans="18:33">
+      <c r="AD141" s="6"/>
+      <c r="AE141" s="2"/>
+      <c r="AF141" s="2"/>
+      <c r="AG141" s="6"/>
+    </row>
+    <row r="142" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R142" s="8"/>
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
@@ -5322,12 +5000,12 @@
       <c r="AA142" s="8"/>
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
-      <c r="AD142" s="11"/>
-      <c r="AE142" s="22"/>
-      <c r="AF142" s="22"/>
-      <c r="AG142" s="11"/>
-    </row>
-    <row r="143" spans="18:33">
+      <c r="AD142" s="6"/>
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="6"/>
+    </row>
+    <row r="143" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R143" s="8"/>
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
@@ -5340,12 +5018,12 @@
       <c r="AA143" s="8"/>
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
-      <c r="AD143" s="11"/>
-      <c r="AE143" s="22"/>
-      <c r="AF143" s="22"/>
-      <c r="AG143" s="11"/>
-    </row>
-    <row r="144" spans="18:33">
+      <c r="AD143" s="6"/>
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="6"/>
+    </row>
+    <row r="144" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R144" s="8"/>
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
@@ -5358,12 +5036,12 @@
       <c r="AA144" s="8"/>
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
-      <c r="AD144" s="11"/>
-      <c r="AE144" s="22"/>
-      <c r="AF144" s="22"/>
-      <c r="AG144" s="11"/>
-    </row>
-    <row r="145" spans="18:33">
+      <c r="AD144" s="6"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="6"/>
+    </row>
+    <row r="145" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R145" s="8"/>
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
@@ -5376,12 +5054,12 @@
       <c r="AA145" s="8"/>
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
-      <c r="AD145" s="11"/>
-      <c r="AE145" s="22"/>
-      <c r="AF145" s="22"/>
-      <c r="AG145" s="11"/>
-    </row>
-    <row r="146" spans="18:33">
+      <c r="AD145" s="6"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="6"/>
+    </row>
+    <row r="146" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R146" s="8"/>
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
@@ -5394,12 +5072,12 @@
       <c r="AA146" s="8"/>
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
-      <c r="AD146" s="11"/>
-      <c r="AE146" s="22"/>
-      <c r="AF146" s="22"/>
-      <c r="AG146" s="22"/>
-    </row>
-    <row r="147" spans="18:33">
+      <c r="AD146" s="6"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+    </row>
+    <row r="147" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R147" s="8"/>
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
@@ -5412,12 +5090,12 @@
       <c r="AA147" s="8"/>
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
-      <c r="AD147" s="11"/>
-      <c r="AE147" s="11"/>
-      <c r="AF147" s="11"/>
-      <c r="AG147" s="22"/>
-    </row>
-    <row r="148" spans="18:33">
+      <c r="AD147" s="6"/>
+      <c r="AE147" s="6"/>
+      <c r="AF147" s="6"/>
+      <c r="AG147" s="2"/>
+    </row>
+    <row r="148" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R148" s="8"/>
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
@@ -5430,12 +5108,12 @@
       <c r="AA148" s="8"/>
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
-      <c r="AD148" s="11"/>
-      <c r="AE148" s="11"/>
-      <c r="AF148" s="11"/>
-      <c r="AG148" s="22"/>
-    </row>
-    <row r="149" spans="18:33">
+      <c r="AD148" s="6"/>
+      <c r="AE148" s="6"/>
+      <c r="AF148" s="6"/>
+      <c r="AG148" s="2"/>
+    </row>
+    <row r="149" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R149" s="8"/>
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
@@ -5448,12 +5126,12 @@
       <c r="AA149" s="8"/>
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
-      <c r="AD149" s="11"/>
-      <c r="AE149" s="11"/>
-      <c r="AF149" s="11"/>
-      <c r="AG149" s="22"/>
-    </row>
-    <row r="150" spans="18:33">
+      <c r="AD149" s="6"/>
+      <c r="AE149" s="6"/>
+      <c r="AF149" s="6"/>
+      <c r="AG149" s="2"/>
+    </row>
+    <row r="150" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R150" s="8"/>
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
@@ -5466,12 +5144,12 @@
       <c r="AA150" s="8"/>
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
-      <c r="AD150" s="11"/>
-      <c r="AE150" s="11"/>
-      <c r="AF150" s="11"/>
-      <c r="AG150" s="22"/>
-    </row>
-    <row r="151" spans="18:33">
+      <c r="AD150" s="6"/>
+      <c r="AE150" s="6"/>
+      <c r="AF150" s="6"/>
+      <c r="AG150" s="2"/>
+    </row>
+    <row r="151" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R151" s="8"/>
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
@@ -5484,12 +5162,12 @@
       <c r="AA151" s="8"/>
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
-      <c r="AD151" s="11"/>
-      <c r="AE151" s="11"/>
-      <c r="AF151" s="11"/>
-      <c r="AG151" s="22"/>
-    </row>
-    <row r="152" spans="18:33">
+      <c r="AD151" s="6"/>
+      <c r="AE151" s="6"/>
+      <c r="AF151" s="6"/>
+      <c r="AG151" s="2"/>
+    </row>
+    <row r="152" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R152" s="8"/>
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
@@ -5502,12 +5180,12 @@
       <c r="AA152" s="8"/>
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
-      <c r="AD152" s="11"/>
-      <c r="AE152" s="11"/>
-      <c r="AF152" s="11"/>
-      <c r="AG152" s="22"/>
-    </row>
-    <row r="153" spans="18:33">
+      <c r="AD152" s="6"/>
+      <c r="AE152" s="6"/>
+      <c r="AF152" s="6"/>
+      <c r="AG152" s="2"/>
+    </row>
+    <row r="153" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R153" s="8"/>
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
@@ -5520,12 +5198,12 @@
       <c r="AA153" s="8"/>
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
-      <c r="AD153" s="11"/>
-      <c r="AE153" s="11"/>
-      <c r="AF153" s="11"/>
-      <c r="AG153" s="22"/>
-    </row>
-    <row r="154" spans="18:33">
+      <c r="AD153" s="6"/>
+      <c r="AE153" s="6"/>
+      <c r="AF153" s="6"/>
+      <c r="AG153" s="2"/>
+    </row>
+    <row r="154" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R154" s="8"/>
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
@@ -5538,12 +5216,12 @@
       <c r="AA154" s="8"/>
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
-      <c r="AD154" s="11"/>
-      <c r="AE154" s="11"/>
-      <c r="AF154" s="11"/>
-      <c r="AG154" s="22"/>
-    </row>
-    <row r="155" spans="18:33">
+      <c r="AD154" s="6"/>
+      <c r="AE154" s="6"/>
+      <c r="AF154" s="6"/>
+      <c r="AG154" s="2"/>
+    </row>
+    <row r="155" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R155" s="8"/>
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
@@ -5556,12 +5234,12 @@
       <c r="AA155" s="8"/>
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
-      <c r="AD155" s="11"/>
-      <c r="AE155" s="11"/>
-      <c r="AF155" s="11"/>
-      <c r="AG155" s="22"/>
-    </row>
-    <row r="156" spans="18:33">
+      <c r="AD155" s="6"/>
+      <c r="AE155" s="6"/>
+      <c r="AF155" s="6"/>
+      <c r="AG155" s="2"/>
+    </row>
+    <row r="156" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R156" s="8"/>
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
@@ -5574,12 +5252,12 @@
       <c r="AA156" s="8"/>
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
-      <c r="AD156" s="11"/>
-      <c r="AE156" s="11"/>
-      <c r="AF156" s="11"/>
-      <c r="AG156" s="22"/>
-    </row>
-    <row r="157" spans="18:33">
+      <c r="AD156" s="6"/>
+      <c r="AE156" s="6"/>
+      <c r="AF156" s="6"/>
+      <c r="AG156" s="2"/>
+    </row>
+    <row r="157" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R157" s="8"/>
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
@@ -5592,12 +5270,12 @@
       <c r="AA157" s="8"/>
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
-      <c r="AD157" s="11"/>
-      <c r="AE157" s="11"/>
-      <c r="AF157" s="11"/>
-      <c r="AG157" s="22"/>
-    </row>
-    <row r="158" spans="18:33">
+      <c r="AD157" s="6"/>
+      <c r="AE157" s="6"/>
+      <c r="AF157" s="6"/>
+      <c r="AG157" s="2"/>
+    </row>
+    <row r="158" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R158" s="8"/>
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
@@ -5610,12 +5288,12 @@
       <c r="AA158" s="8"/>
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
-      <c r="AD158" s="11"/>
-      <c r="AE158" s="11"/>
-      <c r="AF158" s="11"/>
-      <c r="AG158" s="22"/>
-    </row>
-    <row r="159" spans="18:33">
+      <c r="AD158" s="6"/>
+      <c r="AE158" s="6"/>
+      <c r="AF158" s="6"/>
+      <c r="AG158" s="2"/>
+    </row>
+    <row r="159" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R159" s="8"/>
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
@@ -5628,12 +5306,11 @@
       <c r="AA159" s="8"/>
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
-      <c r="AD159" s="11"/>
-      <c r="AE159" s="11"/>
-      <c r="AF159" s="11"/>
-      <c r="AG159" s="24"/>
-    </row>
-    <row r="160" spans="18:33">
+      <c r="AD159" s="6"/>
+      <c r="AE159" s="6"/>
+      <c r="AF159" s="6"/>
+    </row>
+    <row r="160" spans="18:33" x14ac:dyDescent="0.25">
       <c r="R160" s="8"/>
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
@@ -5646,12 +5323,11 @@
       <c r="AA160" s="8"/>
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
-      <c r="AD160" s="11"/>
-      <c r="AE160" s="11"/>
-      <c r="AF160" s="11"/>
-      <c r="AG160" s="24"/>
-    </row>
-    <row r="161" spans="18:33">
+      <c r="AD160" s="6"/>
+      <c r="AE160" s="6"/>
+      <c r="AF160" s="6"/>
+    </row>
+    <row r="161" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R161" s="8"/>
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
@@ -5664,12 +5340,11 @@
       <c r="AA161" s="8"/>
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
-      <c r="AD161" s="11"/>
-      <c r="AE161" s="11"/>
-      <c r="AF161" s="11"/>
-      <c r="AG161" s="24"/>
-    </row>
-    <row r="162" spans="18:33">
+      <c r="AD161" s="6"/>
+      <c r="AE161" s="6"/>
+      <c r="AF161" s="6"/>
+    </row>
+    <row r="162" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R162" s="8"/>
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
@@ -5682,12 +5357,11 @@
       <c r="AA162" s="8"/>
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
-      <c r="AD162" s="11"/>
-      <c r="AE162" s="11"/>
-      <c r="AF162" s="11"/>
-      <c r="AG162" s="24"/>
-    </row>
-    <row r="163" spans="18:33">
+      <c r="AD162" s="6"/>
+      <c r="AE162" s="6"/>
+      <c r="AF162" s="6"/>
+    </row>
+    <row r="163" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R163" s="8"/>
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
@@ -5700,12 +5374,11 @@
       <c r="AA163" s="8"/>
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
-      <c r="AD163" s="11"/>
-      <c r="AE163" s="11"/>
-      <c r="AF163" s="11"/>
-      <c r="AG163" s="24"/>
-    </row>
-    <row r="164" spans="18:33">
+      <c r="AD163" s="6"/>
+      <c r="AE163" s="6"/>
+      <c r="AF163" s="6"/>
+    </row>
+    <row r="164" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R164" s="8"/>
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
@@ -5718,12 +5391,11 @@
       <c r="AA164" s="8"/>
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
-      <c r="AD164" s="22"/>
-      <c r="AE164" s="11"/>
-      <c r="AF164" s="11"/>
-      <c r="AG164" s="24"/>
-    </row>
-    <row r="165" spans="18:33">
+      <c r="AD164" s="2"/>
+      <c r="AE164" s="6"/>
+      <c r="AF164" s="6"/>
+    </row>
+    <row r="165" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R165" s="8"/>
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
@@ -5736,12 +5408,11 @@
       <c r="AA165" s="8"/>
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
-      <c r="AD165" s="22"/>
-      <c r="AE165" s="22"/>
-      <c r="AF165" s="22"/>
-      <c r="AG165" s="24"/>
-    </row>
-    <row r="166" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD165" s="2"/>
+      <c r="AE165" s="2"/>
+      <c r="AF165" s="2"/>
+    </row>
+    <row r="166" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R166" s="8"/>
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
@@ -5756,12 +5427,11 @@
         <v>25</v>
       </c>
       <c r="AC166" s="2"/>
-      <c r="AD166" s="22"/>
-      <c r="AE166" s="22"/>
-      <c r="AF166" s="22"/>
-      <c r="AG166" s="24"/>
-    </row>
-    <row r="167" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD166" s="2"/>
+      <c r="AE166" s="2"/>
+      <c r="AF166" s="2"/>
+    </row>
+    <row r="167" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R167" s="8"/>
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
@@ -5773,15 +5443,14 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="7"/>
       <c r="AB167" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AC167" s="2"/>
-      <c r="AD167" s="22"/>
-      <c r="AE167" s="22"/>
-      <c r="AF167" s="22"/>
-      <c r="AG167" s="24"/>
-    </row>
-    <row r="168" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD167" s="2"/>
+      <c r="AE167" s="2"/>
+      <c r="AF167" s="2"/>
+    </row>
+    <row r="168" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R168" s="8"/>
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
@@ -5793,15 +5462,14 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="8"/>
       <c r="AB168" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC168" s="2"/>
-      <c r="AD168" s="22"/>
-      <c r="AE168" s="22"/>
-      <c r="AF168" s="22"/>
-      <c r="AG168" s="24"/>
-    </row>
-    <row r="169" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD168" s="2"/>
+      <c r="AE168" s="2"/>
+      <c r="AF168" s="2"/>
+    </row>
+    <row r="169" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R169" s="8"/>
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
@@ -5816,12 +5484,11 @@
         <v>25</v>
       </c>
       <c r="AC169" s="2"/>
-      <c r="AD169" s="22"/>
-      <c r="AE169" s="11"/>
-      <c r="AF169" s="11"/>
-      <c r="AG169" s="24"/>
-    </row>
-    <row r="170" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD169" s="2"/>
+      <c r="AE169" s="6"/>
+      <c r="AF169" s="6"/>
+    </row>
+    <row r="170" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R170" s="8"/>
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
@@ -5833,15 +5500,14 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="7"/>
       <c r="AB170" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC170" s="14"/>
-      <c r="AD170" s="11"/>
-      <c r="AE170" s="11"/>
-      <c r="AF170" s="11"/>
-      <c r="AG170" s="24"/>
-    </row>
-    <row r="171" spans="18:33" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+      <c r="AC170" s="13"/>
+      <c r="AD170" s="6"/>
+      <c r="AE170" s="6"/>
+      <c r="AF170" s="6"/>
+    </row>
+    <row r="171" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R171" s="8"/>
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
@@ -5853,15 +5519,14 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
       <c r="AB171" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC171" s="2"/>
-      <c r="AD171" s="11"/>
-      <c r="AE171" s="11"/>
-      <c r="AF171" s="11"/>
-      <c r="AG171" s="24"/>
-    </row>
-    <row r="172" spans="18:33">
+      <c r="AD171" s="6"/>
+      <c r="AE171" s="6"/>
+      <c r="AF171" s="6"/>
+    </row>
+    <row r="172" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R172" s="8"/>
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
@@ -5874,12 +5539,11 @@
       <c r="AA172" s="2"/>
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
-      <c r="AD172" s="11"/>
-      <c r="AE172" s="11"/>
-      <c r="AF172" s="11"/>
-      <c r="AG172" s="24"/>
-    </row>
-    <row r="173" spans="18:33">
+      <c r="AD172" s="6"/>
+      <c r="AE172" s="6"/>
+      <c r="AF172" s="6"/>
+    </row>
+    <row r="173" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R173" s="8"/>
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
@@ -5892,12 +5556,11 @@
       <c r="AA173" s="2"/>
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
-      <c r="AD173" s="11"/>
-      <c r="AE173" s="11"/>
-      <c r="AF173" s="11"/>
-      <c r="AG173" s="24"/>
-    </row>
-    <row r="174" spans="18:33">
+      <c r="AD173" s="6"/>
+      <c r="AE173" s="6"/>
+      <c r="AF173" s="6"/>
+    </row>
+    <row r="174" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R174" s="8"/>
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
@@ -5910,12 +5573,11 @@
       <c r="AA174" s="2"/>
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
-      <c r="AD174" s="22"/>
-      <c r="AE174" s="11"/>
-      <c r="AF174" s="11"/>
-      <c r="AG174" s="24"/>
-    </row>
-    <row r="175" spans="18:33" ht="15.75" thickBot="1">
+      <c r="AD174" s="2"/>
+      <c r="AE174" s="6"/>
+      <c r="AF174" s="6"/>
+    </row>
+    <row r="175" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R175" s="8"/>
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
@@ -5929,12 +5591,8 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
       <c r="AB175" s="2"/>
-      <c r="AD175" s="24"/>
-      <c r="AE175" s="24"/>
-      <c r="AF175" s="24"/>
-      <c r="AG175" s="24"/>
-    </row>
-    <row r="176" spans="18:33" ht="15.75" thickBot="1">
+    </row>
+    <row r="176" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R176" s="8"/>
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
@@ -5943,13 +5601,13 @@
       <c r="W176" s="2"/>
       <c r="X176" s="3"/>
       <c r="Y176" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="18:32" ht="15.75" thickBot="1">
+    <row r="177" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R177" s="8"/>
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
@@ -5962,7 +5620,7 @@
       <c r="AA177" s="2"/>
       <c r="AB177" s="2"/>
     </row>
-    <row r="178" spans="18:32">
+    <row r="178" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R178" s="8"/>
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
@@ -5970,14 +5628,14 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
-      <c r="Y178" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z178" s="70"/>
-      <c r="AA178" s="70"/>
+      <c r="Y178" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z178" s="76"/>
+      <c r="AA178" s="76"/>
       <c r="AB178" s="2"/>
     </row>
-    <row r="179" spans="18:32" ht="15.75" thickBot="1">
+    <row r="179" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R179" s="8"/>
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
@@ -5992,26 +5650,26 @@
       <c r="AA179" s="2"/>
       <c r="AB179" s="2"/>
     </row>
-    <row r="180" spans="18:32" ht="15.75" thickBot="1">
+    <row r="180" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R180" s="8"/>
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
       <c r="U180" s="7"/>
       <c r="V180" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="W180" s="3"/>
+      <c r="X180" s="13"/>
+      <c r="Y180" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W180" s="3"/>
-      <c r="X180" s="14"/>
-      <c r="Y180" s="5" t="s">
+      <c r="Z180" s="3"/>
+      <c r="AA180" s="13"/>
+      <c r="AB180" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Z180" s="3"/>
-      <c r="AA180" s="14"/>
-      <c r="AB180" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="181" spans="18:32" ht="15.75" thickBot="1">
+    </row>
+    <row r="181" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R181" s="8"/>
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
@@ -6024,206 +5682,188 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="7"/>
     </row>
-    <row r="182" spans="18:32" ht="15.75" thickBot="1">
+    <row r="182" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R182" s="8"/>
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
       <c r="U182" s="8"/>
-      <c r="V182" s="11"/>
+      <c r="V182" s="6"/>
       <c r="W182" s="2"/>
       <c r="X182" s="8"/>
-      <c r="Y182" s="11"/>
+      <c r="Y182" s="6"/>
       <c r="Z182" s="2"/>
       <c r="AA182" s="8"/>
       <c r="AB182" s="2"/>
     </row>
-    <row r="183" spans="18:32" ht="15.75" thickBot="1">
+    <row r="183" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R183" s="8"/>
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
       <c r="U183" s="8"/>
-      <c r="V183" s="11"/>
+      <c r="V183" s="6"/>
       <c r="W183" s="2"/>
       <c r="X183" s="8"/>
-      <c r="Y183" s="11"/>
+      <c r="Y183" s="6"/>
       <c r="Z183" s="2"/>
       <c r="AA183" s="7"/>
       <c r="AB183" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="184" spans="18:32" ht="15.75" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="184" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R184" s="8"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="8"/>
-      <c r="V184" s="11"/>
+      <c r="V184" s="6"/>
       <c r="W184" s="2"/>
       <c r="X184" s="8"/>
-      <c r="Y184" s="11"/>
+      <c r="Y184" s="6"/>
       <c r="Z184" s="2"/>
       <c r="AA184" s="8"/>
       <c r="AB184" s="7"/>
     </row>
-    <row r="185" spans="18:32" ht="15.75" thickBot="1">
+    <row r="185" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R185" s="8"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
       <c r="U185" s="8"/>
-      <c r="V185" s="11"/>
+      <c r="V185" s="6"/>
       <c r="W185" s="2"/>
       <c r="X185" s="8"/>
-      <c r="Y185" s="11"/>
+      <c r="Y185" s="6"/>
       <c r="Z185" s="2"/>
       <c r="AA185" s="8"/>
       <c r="AB185" s="2"/>
-      <c r="AD185" s="24"/>
-      <c r="AE185" s="24"/>
-      <c r="AF185" s="24"/>
-    </row>
-    <row r="186" spans="18:32" ht="15.75" thickBot="1">
+    </row>
+    <row r="186" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R186" s="8"/>
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
       <c r="U186" s="8"/>
-      <c r="V186" s="11"/>
+      <c r="V186" s="6"/>
       <c r="W186" s="2"/>
       <c r="X186" s="8"/>
-      <c r="Y186" s="11"/>
+      <c r="Y186" s="6"/>
       <c r="Z186" s="2"/>
       <c r="AA186" s="7"/>
       <c r="AB186" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD186" s="24"/>
-      <c r="AE186" s="24"/>
-      <c r="AF186" s="24"/>
-    </row>
-    <row r="187" spans="18:32" ht="15.75" thickBot="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="187" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R187" s="8"/>
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
       <c r="U187" s="8"/>
-      <c r="V187" s="11"/>
+      <c r="V187" s="6"/>
       <c r="W187" s="2"/>
       <c r="X187" s="8"/>
-      <c r="Y187" s="11"/>
+      <c r="Y187" s="6"/>
       <c r="Z187" s="2"/>
       <c r="AA187" s="8"/>
       <c r="AB187" s="7"/>
-      <c r="AD187" s="24"/>
-      <c r="AE187" s="24"/>
-      <c r="AF187" s="24"/>
-    </row>
-    <row r="188" spans="18:32" ht="15.75" thickBot="1">
+    </row>
+    <row r="188" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R188" s="8"/>
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
       <c r="U188" s="8"/>
-      <c r="V188" s="11"/>
+      <c r="V188" s="6"/>
       <c r="W188" s="2"/>
       <c r="X188" s="8"/>
-      <c r="Y188" s="11"/>
+      <c r="Y188" s="6"/>
       <c r="Z188" s="2"/>
       <c r="AA188" s="8"/>
       <c r="AB188" s="2"/>
-      <c r="AD188" s="24"/>
-      <c r="AE188" s="24"/>
-      <c r="AF188" s="24"/>
-    </row>
-    <row r="189" spans="18:32" ht="15.75" thickBot="1">
+    </row>
+    <row r="189" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R189" s="8"/>
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
       <c r="U189" s="8"/>
-      <c r="V189" s="11"/>
+      <c r="V189" s="6"/>
       <c r="W189" s="2"/>
       <c r="X189" s="8"/>
-      <c r="Y189" s="11"/>
+      <c r="Y189" s="6"/>
       <c r="Z189" s="2"/>
       <c r="AA189" s="3"/>
       <c r="AB189" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD189" s="24"/>
-      <c r="AE189" s="24"/>
-      <c r="AF189" s="24"/>
-    </row>
-    <row r="190" spans="18:32" ht="15.75" thickBot="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R190" s="8"/>
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
       <c r="U190" s="8"/>
-      <c r="V190" s="11"/>
+      <c r="V190" s="6"/>
       <c r="W190" s="2"/>
       <c r="X190" s="8"/>
-      <c r="Y190" s="11"/>
+      <c r="Y190" s="6"/>
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
       <c r="AB190" s="7"/>
-      <c r="AD190" s="24"/>
-      <c r="AE190" s="24"/>
-      <c r="AF190" s="24"/>
-    </row>
-    <row r="191" spans="18:32">
+    </row>
+    <row r="191" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R191" s="8"/>
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
       <c r="U191" s="8"/>
-      <c r="V191" s="11"/>
+      <c r="V191" s="6"/>
       <c r="W191" s="2"/>
       <c r="X191" s="8"/>
-      <c r="Y191" s="11"/>
+      <c r="Y191" s="6"/>
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
-      <c r="AD191" s="22"/>
-      <c r="AE191" s="22"/>
-      <c r="AF191" s="22"/>
-    </row>
-    <row r="192" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD191" s="2"/>
+      <c r="AE191" s="2"/>
+      <c r="AF191" s="2"/>
+    </row>
+    <row r="192" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R192" s="8"/>
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
       <c r="U192" s="8"/>
-      <c r="V192" s="11"/>
+      <c r="V192" s="6"/>
       <c r="W192" s="2"/>
       <c r="X192" s="8"/>
-      <c r="Y192" s="11"/>
+      <c r="Y192" s="6"/>
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
-      <c r="AD192" s="22"/>
-      <c r="AE192" s="22"/>
-      <c r="AF192" s="22"/>
-    </row>
-    <row r="193" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD192" s="2"/>
+      <c r="AE192" s="2"/>
+      <c r="AF192" s="2"/>
+    </row>
+    <row r="193" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R193" s="8"/>
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
       <c r="U193" s="8"/>
-      <c r="V193" s="11"/>
+      <c r="V193" s="6"/>
       <c r="W193" s="2"/>
       <c r="X193" s="3"/>
       <c r="Y193" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
-      <c r="AD193" s="22"/>
-      <c r="AE193" s="22"/>
-      <c r="AF193" s="22"/>
-    </row>
-    <row r="194" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD193" s="2"/>
+      <c r="AE193" s="2"/>
+      <c r="AF193" s="2"/>
+    </row>
+    <row r="194" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R194" s="8"/>
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
       <c r="U194" s="8"/>
-      <c r="V194" s="11"/>
+      <c r="V194" s="6"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="7"/>
@@ -6231,11 +5871,11 @@
       <c r="AA194" s="2"/>
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
-      <c r="AD194" s="22"/>
-      <c r="AE194" s="22"/>
-      <c r="AF194" s="22"/>
-    </row>
-    <row r="195" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD194" s="2"/>
+      <c r="AE194" s="2"/>
+      <c r="AF194" s="2"/>
+    </row>
+    <row r="195" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R195" s="8"/>
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
@@ -6250,17 +5890,17 @@
       <c r="AA195" s="2"/>
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
-      <c r="AD195" s="22"/>
-      <c r="AE195" s="22"/>
-      <c r="AF195" s="22"/>
-    </row>
-    <row r="196" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD195" s="2"/>
+      <c r="AE195" s="2"/>
+      <c r="AF195" s="2"/>
+    </row>
+    <row r="196" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R196" s="8"/>
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
       <c r="U196" s="7"/>
       <c r="V196" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
@@ -6269,11 +5909,11 @@
       <c r="AA196" s="2"/>
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
-      <c r="AD196" s="22"/>
-      <c r="AE196" s="22"/>
-      <c r="AF196" s="22"/>
-    </row>
-    <row r="197" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD196" s="2"/>
+      <c r="AE196" s="2"/>
+      <c r="AF196" s="2"/>
+    </row>
+    <row r="197" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R197" s="8"/>
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
@@ -6286,11 +5926,11 @@
       <c r="AA197" s="2"/>
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
-      <c r="AD197" s="22"/>
-      <c r="AE197" s="22"/>
-      <c r="AF197" s="22"/>
-    </row>
-    <row r="198" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD197" s="2"/>
+      <c r="AE197" s="2"/>
+      <c r="AF197" s="2"/>
+    </row>
+    <row r="198" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R198" s="8"/>
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
@@ -6305,17 +5945,17 @@
       <c r="AA198" s="2"/>
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
-      <c r="AD198" s="22"/>
-      <c r="AE198" s="22"/>
-      <c r="AF198" s="22"/>
-    </row>
-    <row r="199" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
+      <c r="AF198" s="2"/>
+    </row>
+    <row r="199" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R199" s="8"/>
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
       <c r="U199" s="7"/>
       <c r="V199" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
@@ -6324,11 +5964,11 @@
       <c r="AA199" s="2"/>
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
-      <c r="AD199" s="22"/>
-      <c r="AE199" s="22"/>
-      <c r="AF199" s="22"/>
-    </row>
-    <row r="200" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
+      <c r="AF199" s="2"/>
+    </row>
+    <row r="200" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R200" s="8"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
@@ -6341,11 +5981,11 @@
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
-      <c r="AD200" s="22"/>
-      <c r="AE200" s="22"/>
-      <c r="AF200" s="22"/>
-    </row>
-    <row r="201" spans="18:32">
+      <c r="AD200" s="2"/>
+      <c r="AE200" s="2"/>
+      <c r="AF200" s="2"/>
+    </row>
+    <row r="201" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R201" s="8"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
@@ -6358,11 +5998,11 @@
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
-      <c r="AD201" s="22"/>
-      <c r="AE201" s="22"/>
-      <c r="AF201" s="22"/>
-    </row>
-    <row r="202" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD201" s="2"/>
+      <c r="AE201" s="2"/>
+      <c r="AF201" s="2"/>
+    </row>
+    <row r="202" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R202" s="8"/>
       <c r="S202" s="6" t="s">
         <v>8</v>
@@ -6379,19 +6019,19 @@
       <c r="AA202" s="2"/>
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
-      <c r="AD202" s="22"/>
-      <c r="AE202" s="22"/>
-      <c r="AF202" s="22"/>
-    </row>
-    <row r="203" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD202" s="2"/>
+      <c r="AE202" s="2"/>
+      <c r="AF202" s="2"/>
+    </row>
+    <row r="203" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R203" s="7"/>
       <c r="S203" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="T203" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="T203" s="13"/>
       <c r="U203" s="4"/>
       <c r="V203" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
@@ -6400,11 +6040,11 @@
       <c r="AA203" s="2"/>
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
-      <c r="AD203" s="22"/>
-      <c r="AE203" s="22"/>
-      <c r="AF203" s="22"/>
-    </row>
-    <row r="204" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD203" s="2"/>
+      <c r="AE203" s="2"/>
+      <c r="AF203" s="2"/>
+    </row>
+    <row r="204" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R204" s="5"/>
       <c r="S204" s="7" t="s">
         <v>42</v>
@@ -6419,11 +6059,11 @@
       <c r="AA204" s="2"/>
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
-      <c r="AD204" s="22"/>
-      <c r="AE204" s="22"/>
-      <c r="AF204" s="22"/>
-    </row>
-    <row r="205" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD204" s="2"/>
+      <c r="AE204" s="2"/>
+      <c r="AF204" s="2"/>
+    </row>
+    <row r="205" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R205" s="8"/>
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
@@ -6442,34 +6082,34 @@
         <v>25</v>
       </c>
       <c r="AC205" s="2"/>
-      <c r="AD205" s="22"/>
-      <c r="AE205" s="11"/>
-      <c r="AF205" s="11"/>
-    </row>
-    <row r="206" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD205" s="2"/>
+      <c r="AE205" s="6"/>
+      <c r="AF205" s="6"/>
+    </row>
+    <row r="206" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R206" s="8"/>
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
       <c r="U206" s="7"/>
       <c r="V206" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="W206" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="W206" s="13"/>
       <c r="X206" s="4"/>
       <c r="Y206" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z206" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="Z206" s="13"/>
       <c r="AA206" s="4"/>
       <c r="AB206" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC206" s="14"/>
-      <c r="AD206" s="11"/>
-      <c r="AE206" s="11"/>
-      <c r="AF206" s="11"/>
-    </row>
-    <row r="207" spans="18:32" ht="15.75" thickBot="1">
+        <v>92</v>
+      </c>
+      <c r="AC206" s="13"/>
+      <c r="AD206" s="6"/>
+      <c r="AE206" s="6"/>
+      <c r="AF206" s="6"/>
+    </row>
+    <row r="207" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R207" s="8"/>
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
@@ -6482,11 +6122,11 @@
       <c r="AA207" s="2"/>
       <c r="AB207" s="7"/>
       <c r="AC207" s="2"/>
-      <c r="AD207" s="11"/>
-      <c r="AE207" s="11"/>
-      <c r="AF207" s="11"/>
-    </row>
-    <row r="208" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD207" s="6"/>
+      <c r="AE207" s="6"/>
+      <c r="AF207" s="6"/>
+    </row>
+    <row r="208" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R208" s="8"/>
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
@@ -6499,17 +6139,17 @@
       <c r="AA208" s="2"/>
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
-      <c r="AD208" s="11"/>
-      <c r="AE208" s="11"/>
-      <c r="AF208" s="11"/>
-    </row>
-    <row r="209" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD208" s="6"/>
+      <c r="AE208" s="6"/>
+      <c r="AF208" s="6"/>
+    </row>
+    <row r="209" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R209" s="8"/>
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
       <c r="U209" s="3"/>
       <c r="V209" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
@@ -6518,11 +6158,11 @@
       <c r="AA209" s="2"/>
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
-      <c r="AD209" s="11"/>
-      <c r="AE209" s="11"/>
-      <c r="AF209" s="11"/>
-    </row>
-    <row r="210" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD209" s="6"/>
+      <c r="AE209" s="6"/>
+      <c r="AF209" s="6"/>
+    </row>
+    <row r="210" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R210" s="8"/>
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
@@ -6535,30 +6175,30 @@
       <c r="AA210" s="2"/>
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
-      <c r="AD210" s="22"/>
-      <c r="AE210" s="11"/>
-      <c r="AF210" s="11"/>
-    </row>
-    <row r="211" spans="18:32">
+      <c r="AD210" s="2"/>
+      <c r="AE210" s="6"/>
+      <c r="AF210" s="6"/>
+    </row>
+    <row r="211" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R211" s="8"/>
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
-      <c r="V211" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="W211" s="70"/>
-      <c r="X211" s="70"/>
+      <c r="V211" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="W211" s="76"/>
+      <c r="X211" s="76"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
-      <c r="AD211" s="22"/>
-      <c r="AE211" s="11"/>
-      <c r="AF211" s="11"/>
-    </row>
-    <row r="212" spans="18:32">
+      <c r="AD211" s="2"/>
+      <c r="AE211" s="6"/>
+      <c r="AF211" s="6"/>
+    </row>
+    <row r="212" spans="18:32" x14ac:dyDescent="0.25">
       <c r="R212" s="8"/>
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
@@ -6571,11 +6211,11 @@
       <c r="AA212" s="2"/>
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
-      <c r="AD212" s="22"/>
-      <c r="AE212" s="11"/>
-      <c r="AF212" s="11"/>
-    </row>
-    <row r="213" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD212" s="2"/>
+      <c r="AE212" s="6"/>
+      <c r="AF212" s="6"/>
+    </row>
+    <row r="213" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R213" s="8"/>
       <c r="S213" s="6" t="s">
         <v>8</v>
@@ -6594,24 +6234,24 @@
       <c r="AA213" s="2"/>
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
-      <c r="AD213" s="22"/>
-      <c r="AE213" s="22"/>
-      <c r="AF213" s="22"/>
-    </row>
-    <row r="214" spans="18:32" ht="15.75" thickBot="1">
+      <c r="AD213" s="2"/>
+      <c r="AE213" s="2"/>
+      <c r="AF213" s="2"/>
+    </row>
+    <row r="214" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R214" s="7"/>
       <c r="S214" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T214" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="T214" s="13"/>
       <c r="U214" s="4"/>
       <c r="V214" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="W214" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="W214" s="13"/>
       <c r="X214" s="4"/>
       <c r="Y214" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
@@ -6621,7 +6261,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="18:32" ht="15.75" thickBot="1">
+    <row r="215" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R215" s="5"/>
       <c r="S215" s="7"/>
       <c r="T215" s="2"/>
@@ -6638,7 +6278,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="18:32" ht="15.75" thickBot="1">
+    <row r="216" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R216" s="8"/>
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
@@ -6657,7 +6297,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="18:32" ht="15.75" thickBot="1">
+    <row r="217" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R217" s="8"/>
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
@@ -6666,7 +6306,7 @@
       <c r="W217" s="2"/>
       <c r="X217" s="7"/>
       <c r="Y217" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
@@ -6676,7 +6316,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="18:32" ht="15.75" thickBot="1">
+    <row r="218" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R218" s="8"/>
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
@@ -6693,7 +6333,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="18:32" ht="15.75" thickBot="1">
+    <row r="219" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R219" s="8"/>
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
@@ -6712,7 +6352,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="18:32" ht="15.75" thickBot="1">
+    <row r="220" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R220" s="8"/>
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
@@ -6721,7 +6361,7 @@
       <c r="W220" s="2"/>
       <c r="X220" s="7"/>
       <c r="Y220" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
@@ -6731,7 +6371,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="18:32" ht="15.75" thickBot="1">
+    <row r="221" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R221" s="8"/>
       <c r="S221" s="2"/>
       <c r="T221" s="2"/>
@@ -6748,7 +6388,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="18:32" ht="15.75" thickBot="1">
+    <row r="222" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R222" s="8"/>
       <c r="S222" s="2"/>
       <c r="T222" s="2"/>
@@ -6767,7 +6407,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="18:32" ht="15.75" thickBot="1">
+    <row r="223" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R223" s="8"/>
       <c r="S223" s="2"/>
       <c r="T223" s="2"/>
@@ -6776,10 +6416,10 @@
       <c r="W223" s="2"/>
       <c r="X223" s="7"/>
       <c r="Y223" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="18:32" ht="15.75" thickBot="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="224" spans="18:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R224" s="8"/>
       <c r="S224" s="2"/>
       <c r="T224" s="2"/>
@@ -6789,7 +6429,7 @@
       <c r="X224" s="8"/>
       <c r="Y224" s="7"/>
     </row>
-    <row r="225" spans="18:25" ht="15.75" thickBot="1">
+    <row r="225" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R225" s="8"/>
       <c r="S225" s="2"/>
       <c r="T225" s="2"/>
@@ -6801,7 +6441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="18:25" ht="15.75" thickBot="1">
+    <row r="226" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R226" s="8"/>
       <c r="S226" s="2"/>
       <c r="T226" s="2"/>
@@ -6810,10 +6450,10 @@
       <c r="W226" s="2"/>
       <c r="X226" s="7"/>
       <c r="Y226" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="227" spans="18:25" ht="15.75" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R227" s="8"/>
       <c r="S227" s="2"/>
       <c r="T227" s="2"/>
@@ -6823,7 +6463,7 @@
       <c r="X227" s="8"/>
       <c r="Y227" s="7"/>
     </row>
-    <row r="228" spans="18:25" ht="15.75" thickBot="1">
+    <row r="228" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R228" s="8"/>
       <c r="S228" s="2"/>
       <c r="T228" s="2"/>
@@ -6835,7 +6475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="18:25" ht="15.75" thickBot="1">
+    <row r="229" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R229" s="8"/>
       <c r="S229" s="2"/>
       <c r="T229" s="2"/>
@@ -6844,10 +6484,10 @@
       <c r="W229" s="2"/>
       <c r="X229" s="7"/>
       <c r="Y229" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="230" spans="18:25" ht="15.75" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="230" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R230" s="8"/>
       <c r="S230" s="2"/>
       <c r="T230" s="2"/>
@@ -6857,7 +6497,7 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="7"/>
     </row>
-    <row r="231" spans="18:25" ht="15.75" thickBot="1">
+    <row r="231" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R231" s="8"/>
       <c r="S231" s="2"/>
       <c r="T231" s="2"/>
@@ -6869,21 +6509,21 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
     </row>
-    <row r="232" spans="18:25" ht="15.75" thickBot="1">
+    <row r="232" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R232" s="8"/>
       <c r="S232" s="2"/>
       <c r="T232" s="2"/>
       <c r="U232" s="3"/>
       <c r="V232" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W232" s="3"/>
       <c r="X232" s="4"/>
       <c r="Y232" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="233" spans="18:25" ht="15.75" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="233" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R233" s="8"/>
       <c r="S233" s="2"/>
       <c r="T233" s="2"/>
@@ -6893,66 +6533,66 @@
       <c r="X233" s="5"/>
       <c r="Y233" s="7"/>
     </row>
-    <row r="234" spans="18:25" ht="15.75" thickBot="1">
+    <row r="234" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R234" s="8"/>
       <c r="S234" s="2"/>
       <c r="T234" s="2"/>
       <c r="U234" s="2"/>
-      <c r="V234" s="11"/>
+      <c r="V234" s="6"/>
       <c r="W234" s="2"/>
       <c r="X234" s="8"/>
       <c r="Y234" s="2"/>
     </row>
-    <row r="235" spans="18:25" ht="15.75" thickBot="1">
+    <row r="235" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R235" s="8"/>
       <c r="S235" s="2"/>
       <c r="T235" s="2"/>
       <c r="U235" s="2"/>
-      <c r="V235" s="11"/>
+      <c r="V235" s="6"/>
       <c r="W235" s="2"/>
       <c r="X235" s="3"/>
       <c r="Y235" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="236" spans="18:25" ht="15.75" thickBot="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="236" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R236" s="8"/>
       <c r="S236" s="2"/>
       <c r="T236" s="2"/>
       <c r="U236" s="2"/>
-      <c r="V236" s="11"/>
+      <c r="V236" s="6"/>
       <c r="W236" s="2"/>
       <c r="X236" s="2"/>
       <c r="Y236" s="7"/>
     </row>
-    <row r="237" spans="18:25">
+    <row r="237" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R237" s="8"/>
       <c r="S237" s="2"/>
       <c r="T237" s="2"/>
       <c r="U237" s="2"/>
-      <c r="V237" s="11"/>
+      <c r="V237" s="6"/>
       <c r="W237" s="2"/>
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
     </row>
-    <row r="238" spans="18:25">
+    <row r="238" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R238" s="8"/>
       <c r="S238" s="2"/>
       <c r="T238" s="2"/>
       <c r="U238" s="2"/>
-      <c r="V238" s="11"/>
+      <c r="V238" s="6"/>
       <c r="W238" s="2"/>
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
     </row>
-    <row r="239" spans="18:25">
+    <row r="239" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R239" s="8"/>
       <c r="S239" s="2"/>
       <c r="T239" s="2"/>
       <c r="U239" s="2"/>
-      <c r="V239" s="11"/>
-    </row>
-    <row r="240" spans="18:25" ht="15.75" thickBot="1">
+      <c r="V239" s="6"/>
+    </row>
+    <row r="240" spans="18:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R240" s="8"/>
       <c r="S240" s="6" t="s">
         <v>8</v>
@@ -6961,32 +6601,32 @@
       <c r="U240" s="2"/>
       <c r="V240" s="2"/>
     </row>
-    <row r="241" spans="18:22" ht="15.75" thickBot="1">
+    <row r="241" spans="18:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R241" s="3"/>
       <c r="S241" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T241" s="2"/>
       <c r="U241" s="2"/>
       <c r="V241" s="2"/>
     </row>
-    <row r="242" spans="18:22" ht="15.75" thickBot="1">
+    <row r="242" spans="18:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R242" s="2"/>
       <c r="S242" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T242" s="2"/>
       <c r="U242" s="2"/>
       <c r="V242" s="2"/>
     </row>
-    <row r="243" spans="18:22">
+    <row r="243" spans="18:22" x14ac:dyDescent="0.25">
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
       <c r="U243" s="2"/>
       <c r="V243" s="2"/>
     </row>
-    <row r="244" spans="18:22">
+    <row r="244" spans="18:22" x14ac:dyDescent="0.25">
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
@@ -6995,11 +6635,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="V211:X211"/>
     <mergeCell ref="Y178:AA178"/>
     <mergeCell ref="AE137:AG137"/>
@@ -7013,6 +6648,11 @@
     <mergeCell ref="AB111:AC111"/>
     <mergeCell ref="AB112:AC112"/>
     <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
